--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,7 +751,13 @@
     <t>['39', '87']</t>
   </si>
   <si>
-    <t>['7', '49', '83']</t>
+    <t>['6', '49', '83']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['11', '65', '80', '88', '90+1']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1051,9 +1057,6 @@
     <t>['15', '28']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['3', '19', '87']</t>
   </si>
   <si>
@@ -1072,7 +1075,13 @@
     <t>['82']</t>
   </si>
   <si>
-    <t>['8', '28', '61', '76', '83', '85']</t>
+    <t>['7', '27', '61', '76', '84', '85']</t>
+  </si>
+  <si>
+    <t>['9', '17']</t>
+  </si>
+  <si>
+    <t>['70', '82']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1702,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -1899,7 +1908,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2105,7 +2114,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2311,7 +2320,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2723,7 +2732,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2929,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3010,7 +3019,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3135,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3216,7 +3225,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3419,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.61</v>
@@ -3625,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.41</v>
@@ -4577,7 +4586,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4783,7 +4792,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4989,7 +4998,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5479,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5607,7 +5616,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5813,7 +5822,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5894,7 +5903,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -6019,7 +6028,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6100,7 +6109,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6431,7 +6440,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6843,7 +6852,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7049,7 +7058,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7255,7 +7264,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7542,7 +7551,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7745,10 +7754,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7951,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.8100000000000001</v>
@@ -8285,7 +8294,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8366,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8491,7 +8500,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8775,7 +8784,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -9315,7 +9324,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9393,7 +9402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9521,7 +9530,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9602,7 +9611,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ40">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9727,7 +9736,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10838,7 +10847,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10963,7 +10972,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11169,7 +11178,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11247,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.44</v>
@@ -11375,7 +11384,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11453,7 +11462,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.69</v>
@@ -11581,7 +11590,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11787,7 +11796,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12071,7 +12080,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12277,7 +12286,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -12486,7 +12495,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12611,7 +12620,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12817,7 +12826,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12898,7 +12907,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ56">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -14259,7 +14268,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14337,7 +14346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
         <v>0.8100000000000001</v>
@@ -14465,7 +14474,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -15083,7 +15092,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15161,7 +15170,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ67">
         <v>1.28</v>
@@ -15289,7 +15298,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15367,10 +15376,10 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15495,7 +15504,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15573,10 +15582,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ69">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15701,7 +15710,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15907,7 +15916,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16113,7 +16122,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16606,7 +16615,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16937,7 +16946,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17349,7 +17358,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17555,7 +17564,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18173,7 +18182,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18251,10 +18260,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ82">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18379,7 +18388,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18460,7 +18469,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18585,7 +18594,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18663,7 +18672,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ84">
         <v>1.61</v>
@@ -18791,7 +18800,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18869,7 +18878,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.11</v>
@@ -19075,7 +19084,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -19203,7 +19212,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19409,7 +19418,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19821,7 +19830,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19899,7 +19908,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -20439,7 +20448,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20520,7 +20529,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20851,7 +20860,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21057,7 +21066,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21263,7 +21272,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21675,7 +21684,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21756,7 +21765,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ99">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21881,7 +21890,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21962,7 +21971,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22165,7 +22174,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ101">
         <v>1.61</v>
@@ -22371,7 +22380,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22577,7 +22586,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>1.28</v>
@@ -22705,7 +22714,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22911,7 +22920,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23323,7 +23332,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23735,7 +23744,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23816,7 +23825,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -24019,7 +24028,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ110">
         <v>1.41</v>
@@ -24147,7 +24156,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24559,7 +24568,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24843,10 +24852,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24971,7 +24980,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25177,7 +25186,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25258,7 +25267,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25589,7 +25598,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25873,10 +25882,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -26207,7 +26216,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26285,7 +26294,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>2.18</v>
@@ -26413,7 +26422,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26903,10 +26912,10 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27031,7 +27040,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27237,7 +27246,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -28348,7 +28357,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ131">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28551,7 +28560,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ132">
         <v>0.8100000000000001</v>
@@ -29169,10 +29178,10 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ135">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29297,7 +29306,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29503,7 +29512,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29581,7 +29590,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.28</v>
@@ -29915,7 +29924,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30121,7 +30130,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30327,7 +30336,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30408,7 +30417,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30739,7 +30748,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30945,7 +30954,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31151,7 +31160,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31229,7 +31238,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>0.88</v>
@@ -31641,7 +31650,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
         <v>0.9399999999999999</v>
@@ -31850,7 +31859,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ148">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32181,7 +32190,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32465,10 +32474,10 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ151">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32593,7 +32602,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32799,7 +32808,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33211,7 +33220,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33417,7 +33426,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33495,7 +33504,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ156">
         <v>2.18</v>
@@ -33701,7 +33710,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.11</v>
@@ -34035,7 +34044,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34241,7 +34250,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34322,7 +34331,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ160">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -34447,7 +34456,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34525,7 +34534,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
         <v>0.71</v>
@@ -34859,7 +34868,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34940,7 +34949,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35065,7 +35074,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35349,7 +35358,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ165">
         <v>1.11</v>
@@ -35477,7 +35486,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35764,7 +35773,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ167">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR167">
         <v>1.51</v>
@@ -36095,7 +36104,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36173,7 +36182,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
         <v>1.41</v>
@@ -36997,10 +37006,10 @@
         <v>1.4</v>
       </c>
       <c r="AP173">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR173">
         <v>1.58</v>
@@ -37125,7 +37134,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37206,7 +37215,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR174">
         <v>1.11</v>
@@ -37409,7 +37418,7 @@
         <v>1.9</v>
       </c>
       <c r="AP175">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ175">
         <v>1.44</v>
@@ -37615,7 +37624,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ176">
         <v>0.8100000000000001</v>
@@ -37743,7 +37752,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38027,10 +38036,10 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AQ178">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38233,7 +38242,7 @@
         <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38361,7 +38370,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38851,10 +38860,10 @@
         <v>1.27</v>
       </c>
       <c r="AP182">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ182">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR182">
         <v>1.47</v>
@@ -39057,7 +39066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP183">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ183">
         <v>1.13</v>
@@ -39391,7 +39400,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39597,7 +39606,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39678,7 +39687,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ186">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -39803,7 +39812,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -40009,7 +40018,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40215,7 +40224,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40296,7 +40305,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ189">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -41117,7 +41126,7 @@
         <v>1.73</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ193">
         <v>1.44</v>
@@ -41323,7 +41332,7 @@
         <v>0.89</v>
       </c>
       <c r="AP194">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ194">
         <v>0.8100000000000001</v>
@@ -41451,7 +41460,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41657,7 +41666,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -42150,7 +42159,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ198">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR198">
         <v>1.46</v>
@@ -42353,7 +42362,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ199">
         <v>0.88</v>
@@ -42687,7 +42696,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -42765,7 +42774,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ201">
         <v>2.18</v>
@@ -42971,7 +42980,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -43099,7 +43108,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43795,7 +43804,7 @@
         <v>1.75</v>
       </c>
       <c r="AP206">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ206">
         <v>1.69</v>
@@ -44207,7 +44216,7 @@
         <v>0.92</v>
       </c>
       <c r="AP208">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
         <v>0.88</v>
@@ -44413,7 +44422,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209">
         <v>0.8100000000000001</v>
@@ -44541,7 +44550,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44622,7 +44631,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ210">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR210">
         <v>1.09</v>
@@ -44828,7 +44837,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ211">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR211">
         <v>1.27</v>
@@ -45159,7 +45168,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45237,7 +45246,7 @@
         <v>1.38</v>
       </c>
       <c r="AP213">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ213">
         <v>1.41</v>
@@ -45365,7 +45374,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45858,7 +45867,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ216">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR216">
         <v>1.36</v>
@@ -45983,7 +45992,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -47091,7 +47100,7 @@
         <v>1.69</v>
       </c>
       <c r="AP222">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ222">
         <v>1.69</v>
@@ -47219,7 +47228,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47297,7 +47306,7 @@
         <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ223">
         <v>1.25</v>
@@ -47506,7 +47515,7 @@
         <v>1</v>
       </c>
       <c r="AQ224">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR224">
         <v>1.36</v>
@@ -47709,10 +47718,10 @@
         <v>2.5</v>
       </c>
       <c r="AP225">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ225">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR225">
         <v>1.71</v>
@@ -47837,7 +47846,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48043,7 +48052,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48330,7 +48339,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ228">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR228">
         <v>1.44</v>
@@ -48867,7 +48876,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49151,7 +49160,7 @@
         <v>0.86</v>
       </c>
       <c r="AP232">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ232">
         <v>0.88</v>
@@ -49279,7 +49288,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49485,7 +49494,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="Q234">
         <v>6.3</v>
@@ -49897,7 +49906,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -49978,7 +49987,7 @@
         <v>1</v>
       </c>
       <c r="AQ236">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR236">
         <v>1.33</v>
@@ -50181,10 +50190,10 @@
         <v>2.33</v>
       </c>
       <c r="AP237">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ237">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR237">
         <v>1.16</v>
@@ -50387,7 +50396,7 @@
         <v>0.86</v>
       </c>
       <c r="AP238">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ238">
         <v>0.71</v>
@@ -50802,7 +50811,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ240">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR240">
         <v>1.38</v>
@@ -50927,7 +50936,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51211,7 +51220,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ242">
         <v>1.11</v>
@@ -52369,7 +52378,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52447,7 +52456,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ248">
         <v>1.13</v>
@@ -52656,7 +52665,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ249">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR249">
         <v>1.23</v>
@@ -52781,7 +52790,7 @@
         <v>239</v>
       </c>
       <c r="P250" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="Q250">
         <v>2.75</v>
@@ -53068,7 +53077,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ251">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR251">
         <v>1.11</v>
@@ -53271,7 +53280,7 @@
         <v>1.19</v>
       </c>
       <c r="AP252">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ252">
         <v>1.11</v>
@@ -53477,7 +53486,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ253">
         <v>0.9399999999999999</v>
@@ -53683,7 +53692,7 @@
         <v>1.35</v>
       </c>
       <c r="AP254">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ254">
         <v>1.28</v>
@@ -54017,7 +54026,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54304,7 +54313,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54507,7 +54516,7 @@
         <v>1.73</v>
       </c>
       <c r="AP258">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ258">
         <v>1.69</v>
@@ -54716,7 +54725,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ259">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR259">
         <v>1.09</v>
@@ -54841,7 +54850,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -55047,7 +55056,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -56250,7 +56259,7 @@
         <v>69</v>
       </c>
       <c r="E267" s="2">
-        <v>45607.875</v>
+        <v>45608.79166666666</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -56283,7 +56292,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56385,13 +56394,13 @@
         <v>3</v>
       </c>
       <c r="AX267">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY267">
         <v>9</v>
       </c>
       <c r="AZ267">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA267">
         <v>3</v>
@@ -56459,7 +56468,7 @@
         <v>45609.40625</v>
       </c>
       <c r="F268">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G268" t="s">
         <v>77</v>
@@ -56582,22 +56591,22 @@
         <v>2.43</v>
       </c>
       <c r="AU268">
+        <v>5</v>
+      </c>
+      <c r="AV268">
         <v>4</v>
       </c>
-      <c r="AV268">
-        <v>3</v>
-      </c>
       <c r="AW268">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX268">
+        <v>3</v>
+      </c>
+      <c r="AY268">
+        <v>10</v>
+      </c>
+      <c r="AZ268">
         <v>7</v>
-      </c>
-      <c r="AY268">
-        <v>12</v>
-      </c>
-      <c r="AZ268">
-        <v>10</v>
       </c>
       <c r="BA268">
         <v>5</v>
@@ -56665,7 +56674,7 @@
         <v>45609.6875</v>
       </c>
       <c r="F269">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G269" t="s">
         <v>71</v>
@@ -56695,7 +56704,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -56788,22 +56797,22 @@
         <v>2.94</v>
       </c>
       <c r="AU269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV269">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW269">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX269">
         <v>5</v>
       </c>
       <c r="AY269">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ269">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA269">
         <v>4</v>
@@ -56994,22 +57003,22 @@
         <v>2.82</v>
       </c>
       <c r="AU270">
+        <v>4</v>
+      </c>
+      <c r="AV270">
+        <v>2</v>
+      </c>
+      <c r="AW270">
+        <v>3</v>
+      </c>
+      <c r="AX270">
+        <v>3</v>
+      </c>
+      <c r="AY270">
+        <v>7</v>
+      </c>
+      <c r="AZ270">
         <v>5</v>
-      </c>
-      <c r="AV270">
-        <v>4</v>
-      </c>
-      <c r="AW270">
-        <v>8</v>
-      </c>
-      <c r="AX270">
-        <v>4</v>
-      </c>
-      <c r="AY270">
-        <v>13</v>
-      </c>
-      <c r="AZ270">
-        <v>8</v>
       </c>
       <c r="BA270">
         <v>5</v>
@@ -57264,6 +57273,830 @@
       </c>
       <c r="BP271">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7736079</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45610.40625</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" t="s">
+        <v>85</v>
+      </c>
+      <c r="H272" t="s">
+        <v>74</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272" t="s">
+        <v>93</v>
+      </c>
+      <c r="P272" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q272">
+        <v>2.69</v>
+      </c>
+      <c r="R272">
+        <v>1.92</v>
+      </c>
+      <c r="S272">
+        <v>4.45</v>
+      </c>
+      <c r="T272">
+        <v>1.51</v>
+      </c>
+      <c r="U272">
+        <v>2.45</v>
+      </c>
+      <c r="V272">
+        <v>3.46</v>
+      </c>
+      <c r="W272">
+        <v>1.28</v>
+      </c>
+      <c r="X272">
+        <v>10.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.03</v>
+      </c>
+      <c r="Z272">
+        <v>2.96</v>
+      </c>
+      <c r="AA272">
+        <v>2.26</v>
+      </c>
+      <c r="AB272">
+        <v>3.06</v>
+      </c>
+      <c r="AC272">
+        <v>1.1</v>
+      </c>
+      <c r="AD272">
+        <v>7.6</v>
+      </c>
+      <c r="AE272">
+        <v>1.47</v>
+      </c>
+      <c r="AF272">
+        <v>2.78</v>
+      </c>
+      <c r="AG272">
+        <v>2.35</v>
+      </c>
+      <c r="AH272">
+        <v>1.53</v>
+      </c>
+      <c r="AI272">
+        <v>2.03</v>
+      </c>
+      <c r="AJ272">
+        <v>1.67</v>
+      </c>
+      <c r="AK272">
+        <v>1.23</v>
+      </c>
+      <c r="AL272">
+        <v>1.3</v>
+      </c>
+      <c r="AM272">
+        <v>1.7</v>
+      </c>
+      <c r="AN272">
+        <v>1.63</v>
+      </c>
+      <c r="AO272">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP272">
+        <v>1.59</v>
+      </c>
+      <c r="AQ272">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR272">
+        <v>1.16</v>
+      </c>
+      <c r="AS272">
+        <v>0.97</v>
+      </c>
+      <c r="AT272">
+        <v>2.13</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>0</v>
+      </c>
+      <c r="AW272">
+        <v>3</v>
+      </c>
+      <c r="AX272">
+        <v>7</v>
+      </c>
+      <c r="AY272">
+        <v>8</v>
+      </c>
+      <c r="AZ272">
+        <v>7</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>6</v>
+      </c>
+      <c r="BC272">
+        <v>12</v>
+      </c>
+      <c r="BD272">
+        <v>1.83</v>
+      </c>
+      <c r="BE272">
+        <v>7.5</v>
+      </c>
+      <c r="BF272">
+        <v>2.3</v>
+      </c>
+      <c r="BG272">
+        <v>1.37</v>
+      </c>
+      <c r="BH272">
+        <v>2.83</v>
+      </c>
+      <c r="BI272">
+        <v>1.65</v>
+      </c>
+      <c r="BJ272">
+        <v>2.1</v>
+      </c>
+      <c r="BK272">
+        <v>2.08</v>
+      </c>
+      <c r="BL272">
+        <v>1.67</v>
+      </c>
+      <c r="BM272">
+        <v>2.73</v>
+      </c>
+      <c r="BN272">
+        <v>1.4</v>
+      </c>
+      <c r="BO272">
+        <v>3.7</v>
+      </c>
+      <c r="BP272">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7736080</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45610.6875</v>
+      </c>
+      <c r="F273">
+        <v>12</v>
+      </c>
+      <c r="G273" t="s">
+        <v>79</v>
+      </c>
+      <c r="H273" t="s">
+        <v>83</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>246</v>
+      </c>
+      <c r="P273" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q273">
+        <v>2.45</v>
+      </c>
+      <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
+        <v>4.5</v>
+      </c>
+      <c r="T273">
+        <v>1.42</v>
+      </c>
+      <c r="U273">
+        <v>2.65</v>
+      </c>
+      <c r="V273">
+        <v>2.95</v>
+      </c>
+      <c r="W273">
+        <v>1.35</v>
+      </c>
+      <c r="X273">
+        <v>8.4</v>
+      </c>
+      <c r="Y273">
+        <v>1.05</v>
+      </c>
+      <c r="Z273">
+        <v>1.73</v>
+      </c>
+      <c r="AA273">
+        <v>3.5</v>
+      </c>
+      <c r="AB273">
+        <v>4.2</v>
+      </c>
+      <c r="AC273">
+        <v>1.06</v>
+      </c>
+      <c r="AD273">
+        <v>8</v>
+      </c>
+      <c r="AE273">
+        <v>1.33</v>
+      </c>
+      <c r="AF273">
+        <v>3.1</v>
+      </c>
+      <c r="AG273">
+        <v>1.98</v>
+      </c>
+      <c r="AH273">
+        <v>1.72</v>
+      </c>
+      <c r="AI273">
+        <v>1.85</v>
+      </c>
+      <c r="AJ273">
+        <v>1.77</v>
+      </c>
+      <c r="AK273">
+        <v>1.17</v>
+      </c>
+      <c r="AL273">
+        <v>1.25</v>
+      </c>
+      <c r="AM273">
+        <v>1.93</v>
+      </c>
+      <c r="AN273">
+        <v>1.94</v>
+      </c>
+      <c r="AO273">
+        <v>0.89</v>
+      </c>
+      <c r="AP273">
+        <v>2</v>
+      </c>
+      <c r="AQ273">
+        <v>0.84</v>
+      </c>
+      <c r="AR273">
+        <v>1.42</v>
+      </c>
+      <c r="AS273">
+        <v>1.05</v>
+      </c>
+      <c r="AT273">
+        <v>2.47</v>
+      </c>
+      <c r="AU273">
+        <v>3</v>
+      </c>
+      <c r="AV273">
+        <v>2</v>
+      </c>
+      <c r="AW273">
+        <v>7</v>
+      </c>
+      <c r="AX273">
+        <v>11</v>
+      </c>
+      <c r="AY273">
+        <v>10</v>
+      </c>
+      <c r="AZ273">
+        <v>13</v>
+      </c>
+      <c r="BA273">
+        <v>2</v>
+      </c>
+      <c r="BB273">
+        <v>5</v>
+      </c>
+      <c r="BC273">
+        <v>7</v>
+      </c>
+      <c r="BD273">
+        <v>1.67</v>
+      </c>
+      <c r="BE273">
+        <v>8</v>
+      </c>
+      <c r="BF273">
+        <v>2.6</v>
+      </c>
+      <c r="BG273">
+        <v>1.43</v>
+      </c>
+      <c r="BH273">
+        <v>2.6</v>
+      </c>
+      <c r="BI273">
+        <v>1.75</v>
+      </c>
+      <c r="BJ273">
+        <v>1.96</v>
+      </c>
+      <c r="BK273">
+        <v>2.24</v>
+      </c>
+      <c r="BL273">
+        <v>1.57</v>
+      </c>
+      <c r="BM273">
+        <v>2.98</v>
+      </c>
+      <c r="BN273">
+        <v>1.34</v>
+      </c>
+      <c r="BO273">
+        <v>3.78</v>
+      </c>
+      <c r="BP273">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7736081</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45610.8125</v>
+      </c>
+      <c r="F274">
+        <v>12</v>
+      </c>
+      <c r="G274" t="s">
+        <v>78</v>
+      </c>
+      <c r="H274" t="s">
+        <v>80</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>2</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>93</v>
+      </c>
+      <c r="P274" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q274">
+        <v>5.5</v>
+      </c>
+      <c r="R274">
+        <v>2.2</v>
+      </c>
+      <c r="S274">
+        <v>2.3</v>
+      </c>
+      <c r="T274">
+        <v>1.44</v>
+      </c>
+      <c r="U274">
+        <v>2.63</v>
+      </c>
+      <c r="V274">
+        <v>3</v>
+      </c>
+      <c r="W274">
+        <v>1.36</v>
+      </c>
+      <c r="X274">
+        <v>9</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>5</v>
+      </c>
+      <c r="AA274">
+        <v>3.6</v>
+      </c>
+      <c r="AB274">
+        <v>1.6</v>
+      </c>
+      <c r="AC274">
+        <v>1</v>
+      </c>
+      <c r="AD274">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE274">
+        <v>1.28</v>
+      </c>
+      <c r="AF274">
+        <v>2.97</v>
+      </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
+      <c r="AH274">
+        <v>1.7</v>
+      </c>
+      <c r="AI274">
+        <v>2</v>
+      </c>
+      <c r="AJ274">
+        <v>1.73</v>
+      </c>
+      <c r="AK274">
+        <v>2.06</v>
+      </c>
+      <c r="AL274">
+        <v>1.24</v>
+      </c>
+      <c r="AM274">
+        <v>1.14</v>
+      </c>
+      <c r="AN274">
+        <v>1.41</v>
+      </c>
+      <c r="AO274">
+        <v>2.41</v>
+      </c>
+      <c r="AP274">
+        <v>1.33</v>
+      </c>
+      <c r="AQ274">
+        <v>2.44</v>
+      </c>
+      <c r="AR274">
+        <v>1.5</v>
+      </c>
+      <c r="AS274">
+        <v>1.47</v>
+      </c>
+      <c r="AT274">
+        <v>2.97</v>
+      </c>
+      <c r="AU274">
+        <v>2</v>
+      </c>
+      <c r="AV274">
+        <v>4</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
+        <v>4</v>
+      </c>
+      <c r="AY274">
+        <v>5</v>
+      </c>
+      <c r="AZ274">
+        <v>8</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>5</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>3.2</v>
+      </c>
+      <c r="BE274">
+        <v>8.5</v>
+      </c>
+      <c r="BF274">
+        <v>1.5</v>
+      </c>
+      <c r="BG274">
+        <v>1.43</v>
+      </c>
+      <c r="BH274">
+        <v>2.6</v>
+      </c>
+      <c r="BI274">
+        <v>1.75</v>
+      </c>
+      <c r="BJ274">
+        <v>1.96</v>
+      </c>
+      <c r="BK274">
+        <v>2.24</v>
+      </c>
+      <c r="BL274">
+        <v>1.57</v>
+      </c>
+      <c r="BM274">
+        <v>2.98</v>
+      </c>
+      <c r="BN274">
+        <v>1.34</v>
+      </c>
+      <c r="BO274">
+        <v>4.3</v>
+      </c>
+      <c r="BP274">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7743558</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45612.8125</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="H275" t="s">
+        <v>73</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>5</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>7</v>
+      </c>
+      <c r="O275" t="s">
+        <v>247</v>
+      </c>
+      <c r="P275" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q275">
+        <v>1.67</v>
+      </c>
+      <c r="R275">
+        <v>2.5</v>
+      </c>
+      <c r="S275">
+        <v>8.5</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3</v>
+      </c>
+      <c r="V275">
+        <v>2.55</v>
+      </c>
+      <c r="W275">
+        <v>1.45</v>
+      </c>
+      <c r="X275">
+        <v>5.9</v>
+      </c>
+      <c r="Y275">
+        <v>1.11</v>
+      </c>
+      <c r="Z275">
+        <v>1.22</v>
+      </c>
+      <c r="AA275">
+        <v>6</v>
+      </c>
+      <c r="AB275">
+        <v>12</v>
+      </c>
+      <c r="AC275">
+        <v>1.01</v>
+      </c>
+      <c r="AD275">
+        <v>8.1</v>
+      </c>
+      <c r="AE275">
+        <v>1.25</v>
+      </c>
+      <c r="AF275">
+        <v>3.78</v>
+      </c>
+      <c r="AG275">
+        <v>1.75</v>
+      </c>
+      <c r="AH275">
+        <v>2</v>
+      </c>
+      <c r="AI275">
+        <v>2.45</v>
+      </c>
+      <c r="AJ275">
+        <v>1.44</v>
+      </c>
+      <c r="AK275">
+        <v>1.01</v>
+      </c>
+      <c r="AL275">
+        <v>1.1</v>
+      </c>
+      <c r="AM275">
+        <v>3.72</v>
+      </c>
+      <c r="AN275">
+        <v>2.39</v>
+      </c>
+      <c r="AO275">
+        <v>0.88</v>
+      </c>
+      <c r="AP275">
+        <v>2.42</v>
+      </c>
+      <c r="AQ275">
+        <v>0.83</v>
+      </c>
+      <c r="AR275">
+        <v>1.69</v>
+      </c>
+      <c r="AS275">
+        <v>1.27</v>
+      </c>
+      <c r="AT275">
+        <v>2.96</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>6</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>12</v>
+      </c>
+      <c r="AZ275">
+        <v>12</v>
+      </c>
+      <c r="BA275">
+        <v>4</v>
+      </c>
+      <c r="BB275">
+        <v>5</v>
+      </c>
+      <c r="BC275">
+        <v>9</v>
+      </c>
+      <c r="BD275">
+        <v>1.03</v>
+      </c>
+      <c r="BE275">
+        <v>18.5</v>
+      </c>
+      <c r="BF275">
+        <v>17.5</v>
+      </c>
+      <c r="BG275">
+        <v>1.25</v>
+      </c>
+      <c r="BH275">
+        <v>3.45</v>
+      </c>
+      <c r="BI275">
+        <v>1.5</v>
+      </c>
+      <c r="BJ275">
+        <v>2.35</v>
+      </c>
+      <c r="BK275">
+        <v>1.9</v>
+      </c>
+      <c r="BL275">
+        <v>1.78</v>
+      </c>
+      <c r="BM275">
+        <v>2.52</v>
+      </c>
+      <c r="BN275">
+        <v>1.45</v>
+      </c>
+      <c r="BO275">
+        <v>3.65</v>
+      </c>
+      <c r="BP275">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,7 +757,13 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['11', '65', '80', '88', '90+1']</t>
+    <t>['10', '64', '79', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['48', '54']</t>
+  </si>
+  <si>
+    <t>['45+5', '90+3']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1082,6 +1088,9 @@
   </si>
   <si>
     <t>['70', '82']</t>
+  </si>
+  <si>
+    <t>['41', '44']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1711,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1908,7 +1917,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1989,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2114,7 +2123,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2192,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ4">
         <v>0.71</v>
@@ -2320,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2732,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2813,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2938,7 +2947,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3144,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3637,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3840,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
         <v>1.11</v>
@@ -4586,7 +4595,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4792,7 +4801,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4870,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ17">
         <v>1.28</v>
@@ -4998,7 +5007,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5079,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5285,7 +5294,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ19">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5616,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5822,7 +5831,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -6028,7 +6037,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6312,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6440,7 +6449,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6724,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -6852,7 +6861,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6933,7 +6942,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ27">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -7058,7 +7067,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7264,7 +7273,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7963,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -8294,7 +8303,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8500,7 +8509,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8993,7 +9002,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ37">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -9324,7 +9333,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9530,7 +9539,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9736,7 +9745,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10020,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ42">
         <v>2.18</v>
@@ -10641,7 +10650,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ45">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10972,7 +10981,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11050,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ47">
         <v>0.9399999999999999</v>
@@ -11178,7 +11187,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11384,7 +11393,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11465,7 +11474,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11590,7 +11599,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11796,7 +11805,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12620,7 +12629,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12701,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12826,7 +12835,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -14140,10 +14149,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ62">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14268,7 +14277,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14349,7 +14358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14474,7 +14483,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14552,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ64">
         <v>2.18</v>
@@ -14967,7 +14976,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15092,7 +15101,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15298,7 +15307,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15504,7 +15513,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15710,7 +15719,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15916,7 +15925,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16122,7 +16131,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16409,7 +16418,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16946,7 +16955,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17024,10 +17033,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -17233,7 +17242,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ77">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17358,7 +17367,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17564,7 +17573,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18054,7 +18063,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -18182,7 +18191,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18388,7 +18397,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18594,7 +18603,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18800,7 +18809,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19212,7 +19221,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19418,7 +19427,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19499,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19830,7 +19839,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20117,7 +20126,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20320,7 +20329,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ92">
         <v>0.88</v>
@@ -20448,7 +20457,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20732,7 +20741,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20860,7 +20869,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21066,7 +21075,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21272,7 +21281,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21353,7 +21362,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ97">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21684,7 +21693,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21890,7 +21899,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22714,7 +22723,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22920,7 +22929,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23204,7 +23213,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ106">
         <v>0.71</v>
@@ -23332,7 +23341,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23616,7 +23625,7 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -23744,7 +23753,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24031,7 +24040,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ110">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -24156,7 +24165,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24568,7 +24577,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24980,7 +24989,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25186,7 +25195,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25598,7 +25607,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26216,7 +26225,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26422,7 +26431,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -27040,7 +27049,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27121,7 +27130,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ125">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27246,7 +27255,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27327,7 +27336,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -28148,7 +28157,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ130">
         <v>0.9399999999999999</v>
@@ -28563,7 +28572,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -29306,7 +29315,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29384,7 +29393,7 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ136">
         <v>1.61</v>
@@ -29512,7 +29521,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29799,7 +29808,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR138">
         <v>1.12</v>
@@ -29924,7 +29933,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30130,7 +30139,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30211,7 +30220,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30336,7 +30345,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30748,7 +30757,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30954,7 +30963,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31160,7 +31169,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31447,7 +31456,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31856,7 +31865,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -32190,7 +32199,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32602,7 +32611,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32808,7 +32817,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32886,10 +32895,10 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR153">
         <v>1.3</v>
@@ -33220,7 +33229,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33301,7 +33310,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33426,7 +33435,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -34044,7 +34053,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34125,7 +34134,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34250,7 +34259,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34456,7 +34465,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34868,7 +34877,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35074,7 +35083,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35486,7 +35495,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35976,7 +35985,7 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ168">
         <v>1.13</v>
@@ -36104,7 +36113,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36185,7 +36194,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR169">
         <v>1.47</v>
@@ -36388,7 +36397,7 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ170">
         <v>1.28</v>
@@ -36800,10 +36809,10 @@
         <v>2</v>
       </c>
       <c r="AP172">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ172">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR172">
         <v>1.48</v>
@@ -37134,7 +37143,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37627,7 +37636,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ176">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR176">
         <v>1.02</v>
@@ -37752,7 +37761,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38039,7 +38048,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ178">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38370,7 +38379,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38654,7 +38663,7 @@
         <v>1.62</v>
       </c>
       <c r="AP181">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ181">
         <v>1.28</v>
@@ -39400,7 +39409,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39606,7 +39615,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39812,7 +39821,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -40018,7 +40027,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40099,7 +40108,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ188">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR188">
         <v>1.13</v>
@@ -40224,7 +40233,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40302,7 +40311,7 @@
         <v>2.42</v>
       </c>
       <c r="AP189">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ189">
         <v>2.44</v>
@@ -41335,7 +41344,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ194">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR194">
         <v>1.72</v>
@@ -41460,7 +41469,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41666,7 +41675,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -42156,7 +42165,7 @@
         <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ198">
         <v>0.84</v>
@@ -42571,7 +42580,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ200">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR200">
         <v>1.1</v>
@@ -42696,7 +42705,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -43108,7 +43117,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43807,7 +43816,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ206">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR206">
         <v>1.68</v>
@@ -44425,7 +44434,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ209">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR209">
         <v>1.21</v>
@@ -44550,7 +44559,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44834,7 +44843,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ211">
         <v>0.84</v>
@@ -45168,7 +45177,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45249,7 +45258,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ213">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR213">
         <v>1.56</v>
@@ -45374,7 +45383,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45992,7 +46001,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46276,7 +46285,7 @@
         <v>1.54</v>
       </c>
       <c r="AP218">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ218">
         <v>1.61</v>
@@ -46485,7 +46494,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ219">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR219">
         <v>1.49</v>
@@ -47103,7 +47112,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ222">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR222">
         <v>1.18</v>
@@ -47228,7 +47237,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47846,7 +47855,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48052,7 +48061,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48336,7 +48345,7 @@
         <v>1.08</v>
       </c>
       <c r="AP228">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ228">
         <v>0.83</v>
@@ -48545,7 +48554,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ229">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR229">
         <v>1.39</v>
@@ -48876,7 +48885,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49288,7 +49297,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49366,7 +49375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ233">
         <v>1.61</v>
@@ -49906,7 +49915,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50605,7 +50614,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ239">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR239">
         <v>1.49</v>
@@ -50936,7 +50945,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51632,7 +51641,7 @@
         <v>1.64</v>
       </c>
       <c r="AP244">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ244">
         <v>1.44</v>
@@ -51841,7 +51850,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ245">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR245">
         <v>1.39</v>
@@ -52378,7 +52387,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52662,7 +52671,7 @@
         <v>0.93</v>
       </c>
       <c r="AP249">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ249">
         <v>0.83</v>
@@ -52871,7 +52880,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ250">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR250">
         <v>1.39</v>
@@ -54026,7 +54035,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54519,7 +54528,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ258">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR258">
         <v>1.52</v>
@@ -54850,7 +54859,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -55056,7 +55065,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55137,7 +55146,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ261">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR261">
         <v>1.13</v>
@@ -55546,10 +55555,10 @@
         <v>0.86</v>
       </c>
       <c r="AP263">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ263">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR263">
         <v>1.41</v>
@@ -55752,7 +55761,7 @@
         <v>1.53</v>
       </c>
       <c r="AP264">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ264">
         <v>1.44</v>
@@ -56292,7 +56301,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56704,7 +56713,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -56991,7 +57000,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ270">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR270">
         <v>1.44</v>
@@ -57734,7 +57743,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57827,22 +57836,22 @@
         <v>2.97</v>
       </c>
       <c r="AU274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV274">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX274">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ274">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BA274">
         <v>4</v>
@@ -57907,7 +57916,7 @@
         <v>69</v>
       </c>
       <c r="E275" s="2">
-        <v>45612.8125</v>
+        <v>45611.875</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -57940,7 +57949,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58097,6 +58106,624 @@
       </c>
       <c r="BP275">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7743559</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45613.40625</v>
+      </c>
+      <c r="F276">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>72</v>
+      </c>
+      <c r="H276" t="s">
+        <v>81</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>2</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="O276" t="s">
+        <v>248</v>
+      </c>
+      <c r="P276" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q276">
+        <v>3.5</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+      <c r="S276">
+        <v>3</v>
+      </c>
+      <c r="T276">
+        <v>1.45</v>
+      </c>
+      <c r="U276">
+        <v>2.55</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>1.33</v>
+      </c>
+      <c r="X276">
+        <v>7.3</v>
+      </c>
+      <c r="Y276">
+        <v>1.07</v>
+      </c>
+      <c r="Z276">
+        <v>2.6</v>
+      </c>
+      <c r="AA276">
+        <v>2.96</v>
+      </c>
+      <c r="AB276">
+        <v>2.38</v>
+      </c>
+      <c r="AC276">
+        <v>1.07</v>
+      </c>
+      <c r="AD276">
+        <v>7.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.33</v>
+      </c>
+      <c r="AF276">
+        <v>3.18</v>
+      </c>
+      <c r="AG276">
+        <v>2.1</v>
+      </c>
+      <c r="AH276">
+        <v>1.65</v>
+      </c>
+      <c r="AI276">
+        <v>1.77</v>
+      </c>
+      <c r="AJ276">
+        <v>1.85</v>
+      </c>
+      <c r="AK276">
+        <v>1.53</v>
+      </c>
+      <c r="AL276">
+        <v>1.28</v>
+      </c>
+      <c r="AM276">
+        <v>1.38</v>
+      </c>
+      <c r="AN276">
+        <v>1.13</v>
+      </c>
+      <c r="AO276">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP276">
+        <v>1.12</v>
+      </c>
+      <c r="AQ276">
+        <v>0.82</v>
+      </c>
+      <c r="AR276">
+        <v>1.23</v>
+      </c>
+      <c r="AS276">
+        <v>1.35</v>
+      </c>
+      <c r="AT276">
+        <v>2.58</v>
+      </c>
+      <c r="AU276">
+        <v>3</v>
+      </c>
+      <c r="AV276">
+        <v>4</v>
+      </c>
+      <c r="AW276">
+        <v>9</v>
+      </c>
+      <c r="AX276">
+        <v>5</v>
+      </c>
+      <c r="AY276">
+        <v>12</v>
+      </c>
+      <c r="AZ276">
+        <v>9</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>5</v>
+      </c>
+      <c r="BC276">
+        <v>9</v>
+      </c>
+      <c r="BD276">
+        <v>2.28</v>
+      </c>
+      <c r="BE276">
+        <v>6.3</v>
+      </c>
+      <c r="BF276">
+        <v>1.92</v>
+      </c>
+      <c r="BG276">
+        <v>1.18</v>
+      </c>
+      <c r="BH276">
+        <v>3.72</v>
+      </c>
+      <c r="BI276">
+        <v>1.36</v>
+      </c>
+      <c r="BJ276">
+        <v>2.6</v>
+      </c>
+      <c r="BK276">
+        <v>1.7</v>
+      </c>
+      <c r="BL276">
+        <v>2.05</v>
+      </c>
+      <c r="BM276">
+        <v>2.17</v>
+      </c>
+      <c r="BN276">
+        <v>1.67</v>
+      </c>
+      <c r="BO276">
+        <v>2.78</v>
+      </c>
+      <c r="BP276">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7743560</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45613.6875</v>
+      </c>
+      <c r="F277">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>75</v>
+      </c>
+      <c r="H277" t="s">
+        <v>85</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277" t="s">
+        <v>93</v>
+      </c>
+      <c r="P277" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q277">
+        <v>3.1</v>
+      </c>
+      <c r="R277">
+        <v>1.95</v>
+      </c>
+      <c r="S277">
+        <v>4</v>
+      </c>
+      <c r="T277">
+        <v>1.53</v>
+      </c>
+      <c r="U277">
+        <v>2.38</v>
+      </c>
+      <c r="V277">
+        <v>3.75</v>
+      </c>
+      <c r="W277">
+        <v>1.25</v>
+      </c>
+      <c r="X277">
+        <v>11</v>
+      </c>
+      <c r="Y277">
+        <v>1.05</v>
+      </c>
+      <c r="Z277">
+        <v>2.2</v>
+      </c>
+      <c r="AA277">
+        <v>2.9</v>
+      </c>
+      <c r="AB277">
+        <v>3.1</v>
+      </c>
+      <c r="AC277">
+        <v>1.11</v>
+      </c>
+      <c r="AD277">
+        <v>7.38</v>
+      </c>
+      <c r="AE277">
+        <v>1.48</v>
+      </c>
+      <c r="AF277">
+        <v>2.61</v>
+      </c>
+      <c r="AG277">
+        <v>2.3</v>
+      </c>
+      <c r="AH277">
+        <v>1.5</v>
+      </c>
+      <c r="AI277">
+        <v>2.1</v>
+      </c>
+      <c r="AJ277">
+        <v>1.67</v>
+      </c>
+      <c r="AK277">
+        <v>1.33</v>
+      </c>
+      <c r="AL277">
+        <v>1.3</v>
+      </c>
+      <c r="AM277">
+        <v>1.57</v>
+      </c>
+      <c r="AN277">
+        <v>1</v>
+      </c>
+      <c r="AO277">
+        <v>1.41</v>
+      </c>
+      <c r="AP277">
+        <v>1</v>
+      </c>
+      <c r="AQ277">
+        <v>1.39</v>
+      </c>
+      <c r="AR277">
+        <v>1.38</v>
+      </c>
+      <c r="AS277">
+        <v>1.27</v>
+      </c>
+      <c r="AT277">
+        <v>2.65</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>4</v>
+      </c>
+      <c r="AW277">
+        <v>2</v>
+      </c>
+      <c r="AX277">
+        <v>7</v>
+      </c>
+      <c r="AY277">
+        <v>6</v>
+      </c>
+      <c r="AZ277">
+        <v>11</v>
+      </c>
+      <c r="BA277">
+        <v>3</v>
+      </c>
+      <c r="BB277">
+        <v>7</v>
+      </c>
+      <c r="BC277">
+        <v>10</v>
+      </c>
+      <c r="BD277">
+        <v>1.89</v>
+      </c>
+      <c r="BE277">
+        <v>6.35</v>
+      </c>
+      <c r="BF277">
+        <v>2.32</v>
+      </c>
+      <c r="BG277">
+        <v>1.19</v>
+      </c>
+      <c r="BH277">
+        <v>3.62</v>
+      </c>
+      <c r="BI277">
+        <v>1.48</v>
+      </c>
+      <c r="BJ277">
+        <v>2.57</v>
+      </c>
+      <c r="BK277">
+        <v>1.78</v>
+      </c>
+      <c r="BL277">
+        <v>2.01</v>
+      </c>
+      <c r="BM277">
+        <v>2.24</v>
+      </c>
+      <c r="BN277">
+        <v>1.62</v>
+      </c>
+      <c r="BO277">
+        <v>3</v>
+      </c>
+      <c r="BP277">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7743561</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45613.77083333334</v>
+      </c>
+      <c r="F278">
+        <v>13</v>
+      </c>
+      <c r="G278" t="s">
+        <v>80</v>
+      </c>
+      <c r="H278" t="s">
+        <v>82</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>249</v>
+      </c>
+      <c r="P278" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q278">
+        <v>2.1</v>
+      </c>
+      <c r="R278">
+        <v>2.1</v>
+      </c>
+      <c r="S278">
+        <v>8</v>
+      </c>
+      <c r="T278">
+        <v>1.5</v>
+      </c>
+      <c r="U278">
+        <v>2.5</v>
+      </c>
+      <c r="V278">
+        <v>3.5</v>
+      </c>
+      <c r="W278">
+        <v>1.29</v>
+      </c>
+      <c r="X278">
+        <v>11</v>
+      </c>
+      <c r="Y278">
+        <v>1.05</v>
+      </c>
+      <c r="Z278">
+        <v>1.44</v>
+      </c>
+      <c r="AA278">
+        <v>3.8</v>
+      </c>
+      <c r="AB278">
+        <v>6.5</v>
+      </c>
+      <c r="AC278">
+        <v>1.07</v>
+      </c>
+      <c r="AD278">
+        <v>7.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.42</v>
+      </c>
+      <c r="AF278">
+        <v>2.7</v>
+      </c>
+      <c r="AG278">
+        <v>2.25</v>
+      </c>
+      <c r="AH278">
+        <v>1.53</v>
+      </c>
+      <c r="AI278">
+        <v>2.63</v>
+      </c>
+      <c r="AJ278">
+        <v>1.44</v>
+      </c>
+      <c r="AK278">
+        <v>1.06</v>
+      </c>
+      <c r="AL278">
+        <v>1.18</v>
+      </c>
+      <c r="AM278">
+        <v>2.6</v>
+      </c>
+      <c r="AN278">
+        <v>2.41</v>
+      </c>
+      <c r="AO278">
+        <v>1.69</v>
+      </c>
+      <c r="AP278">
+        <v>2.44</v>
+      </c>
+      <c r="AQ278">
+        <v>1.59</v>
+      </c>
+      <c r="AR278">
+        <v>1.45</v>
+      </c>
+      <c r="AS278">
+        <v>1.47</v>
+      </c>
+      <c r="AT278">
+        <v>2.92</v>
+      </c>
+      <c r="AU278">
+        <v>6</v>
+      </c>
+      <c r="AV278">
+        <v>0</v>
+      </c>
+      <c r="AW278">
+        <v>11</v>
+      </c>
+      <c r="AX278">
+        <v>6</v>
+      </c>
+      <c r="AY278">
+        <v>17</v>
+      </c>
+      <c r="AZ278">
+        <v>6</v>
+      </c>
+      <c r="BA278">
+        <v>8</v>
+      </c>
+      <c r="BB278">
+        <v>2</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>1.3</v>
+      </c>
+      <c r="BE278">
+        <v>9.5</v>
+      </c>
+      <c r="BF278">
+        <v>4.33</v>
+      </c>
+      <c r="BG278">
+        <v>1.28</v>
+      </c>
+      <c r="BH278">
+        <v>2.97</v>
+      </c>
+      <c r="BI278">
+        <v>1.53</v>
+      </c>
+      <c r="BJ278">
+        <v>2.15</v>
+      </c>
+      <c r="BK278">
+        <v>1.95</v>
+      </c>
+      <c r="BL278">
+        <v>1.77</v>
+      </c>
+      <c r="BM278">
+        <v>2.51</v>
+      </c>
+      <c r="BN278">
+        <v>1.39</v>
+      </c>
+      <c r="BO278">
+        <v>3.44</v>
+      </c>
+      <c r="BP278">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,10 +760,16 @@
     <t>['10', '64', '79', '88', '90+1']</t>
   </si>
   <si>
-    <t>['48', '54']</t>
+    <t>['49', '54']</t>
   </si>
   <si>
-    <t>['45+5', '90+3']</t>
+    <t>['45+4', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '42', '84', '90']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1090,7 +1096,7 @@
     <t>['70', '82']</t>
   </si>
   <si>
-    <t>['41', '44']</t>
+    <t>['40', '43']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1917,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2123,7 +2129,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2329,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2410,7 +2416,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2613,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2741,7 +2747,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2947,7 +2953,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3025,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
         <v>2.44</v>
@@ -3153,7 +3159,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4055,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4595,7 +4601,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4673,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4801,7 +4807,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -5007,7 +5013,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5500,7 +5506,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5625,7 +5631,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5706,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5831,7 +5837,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -6037,7 +6043,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6324,7 +6330,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6449,7 +6455,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6530,7 +6536,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6861,7 +6867,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7067,7 +7073,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7145,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.61</v>
@@ -7273,7 +7279,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7557,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
         <v>0.84</v>
@@ -8303,7 +8309,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8509,7 +8515,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -9205,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ38">
         <v>1.28</v>
@@ -9333,7 +9339,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9414,7 +9420,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9539,7 +9545,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9617,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -9745,7 +9751,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9823,7 +9829,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
         <v>1.61</v>
@@ -10238,7 +10244,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10853,7 +10859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -10981,7 +10987,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11187,7 +11193,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11268,7 +11274,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11393,7 +11399,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11599,7 +11605,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11680,7 +11686,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11805,7 +11811,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12501,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ54">
         <v>0.84</v>
@@ -12629,7 +12635,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12835,7 +12841,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13119,10 +13125,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13325,10 +13331,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -14277,7 +14283,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14483,7 +14489,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -15101,7 +15107,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15307,7 +15313,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15513,7 +15519,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15719,7 +15725,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15925,7 +15931,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16006,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -16131,7 +16137,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16827,10 +16833,10 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16955,7 +16961,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17239,7 +17245,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
         <v>0.82</v>
@@ -17367,7 +17373,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17445,7 +17451,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ78">
         <v>2.18</v>
@@ -17573,7 +17579,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17654,7 +17660,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17860,7 +17866,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -18191,7 +18197,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18397,7 +18403,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18603,7 +18609,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18809,7 +18815,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19221,7 +19227,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19427,7 +19433,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19839,7 +19845,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19920,7 +19926,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -20123,7 +20129,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -20457,7 +20463,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20744,7 +20750,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20869,7 +20875,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21075,7 +21081,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21156,7 +21162,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -21281,7 +21287,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21359,7 +21365,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
         <v>1.59</v>
@@ -21693,7 +21699,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21899,7 +21905,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22723,7 +22729,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22929,7 +22935,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23341,7 +23347,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23422,7 +23428,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23628,7 +23634,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23753,7 +23759,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24165,7 +24171,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24243,7 +24249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ111">
         <v>0.88</v>
@@ -24577,7 +24583,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24658,7 +24664,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24989,7 +24995,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25195,7 +25201,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25607,7 +25613,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26097,7 +26103,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26225,7 +26231,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26431,7 +26437,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26718,7 +26724,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -27049,7 +27055,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27255,7 +27261,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27333,7 +27339,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126">
         <v>1.39</v>
@@ -27539,7 +27545,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>0.88</v>
@@ -27745,7 +27751,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ128">
         <v>2.18</v>
@@ -27954,7 +27960,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR129">
         <v>1.01</v>
@@ -28984,7 +28990,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
         <v>1.24</v>
@@ -29315,7 +29321,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29521,7 +29527,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29805,7 +29811,7 @@
         <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ138">
         <v>1.39</v>
@@ -29933,7 +29939,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30014,7 +30020,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -30139,7 +30145,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30345,7 +30351,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30423,7 +30429,7 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ141">
         <v>2.44</v>
@@ -30632,7 +30638,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR142">
         <v>1.52</v>
@@ -30757,7 +30763,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30963,7 +30969,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31041,7 +31047,7 @@
         <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144">
         <v>2.18</v>
@@ -31169,7 +31175,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31453,7 +31459,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
         <v>0.82</v>
@@ -32199,7 +32205,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32277,7 +32283,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ150">
         <v>1.61</v>
@@ -32611,7 +32617,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32692,7 +32698,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32817,7 +32823,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33229,7 +33235,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33435,7 +33441,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33925,7 +33931,7 @@
         <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ158">
         <v>1.28</v>
@@ -34053,7 +34059,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34259,7 +34265,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34465,7 +34471,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34877,7 +34883,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34955,7 +34961,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
         <v>0.84</v>
@@ -35083,7 +35089,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35164,7 +35170,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35495,7 +35501,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35779,7 +35785,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167">
         <v>0.83</v>
@@ -35988,7 +35994,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ168">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR168">
         <v>1.42</v>
@@ -36113,7 +36119,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -37143,7 +37149,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37221,7 +37227,7 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ174">
         <v>0.84</v>
@@ -37430,7 +37436,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ175">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR175">
         <v>1.8</v>
@@ -37761,7 +37767,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38379,7 +38385,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -39078,7 +39084,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR183">
         <v>1.12</v>
@@ -39281,7 +39287,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ184">
         <v>1.11</v>
@@ -39409,7 +39415,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39615,7 +39621,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39821,7 +39827,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -39902,7 +39908,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40027,7 +40033,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40105,7 +40111,7 @@
         <v>1.82</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ188">
         <v>1.59</v>
@@ -40233,7 +40239,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -41138,7 +41144,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR193">
         <v>1.2</v>
@@ -41469,7 +41475,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41675,7 +41681,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -41753,7 +41759,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>1.11</v>
@@ -41959,7 +41965,7 @@
         <v>0.73</v>
       </c>
       <c r="AP197">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ197">
         <v>0.9399999999999999</v>
@@ -42705,7 +42711,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -42992,7 +42998,7 @@
         <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43117,7 +43123,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43198,7 +43204,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ203">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -44559,7 +44565,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44637,7 +44643,7 @@
         <v>2.46</v>
       </c>
       <c r="AP210">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ210">
         <v>2.44</v>
@@ -45049,7 +45055,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45177,7 +45183,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45383,7 +45389,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45464,7 +45470,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ214">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45670,7 +45676,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ215">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -46001,7 +46007,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46079,7 +46085,7 @@
         <v>2.08</v>
       </c>
       <c r="AP217">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ217">
         <v>2.18</v>
@@ -46697,7 +46703,7 @@
         <v>1.14</v>
       </c>
       <c r="AP220">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ220">
         <v>1.11</v>
@@ -47237,7 +47243,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47318,7 +47324,7 @@
         <v>2</v>
       </c>
       <c r="AQ223">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR223">
         <v>1.41</v>
@@ -47855,7 +47861,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48061,7 +48067,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48142,7 +48148,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ227">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
         <v>1.39</v>
@@ -48551,7 +48557,7 @@
         <v>1.36</v>
       </c>
       <c r="AP229">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -48885,7 +48891,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -48966,7 +48972,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ231">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR231">
         <v>1.38</v>
@@ -49297,7 +49303,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49581,7 +49587,7 @@
         <v>2.15</v>
       </c>
       <c r="AP234">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ234">
         <v>2.18</v>
@@ -49790,7 +49796,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR235">
         <v>1.36</v>
@@ -49915,7 +49921,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50817,7 +50823,7 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ240">
         <v>0.83</v>
@@ -50945,7 +50951,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51435,7 +51441,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ243">
         <v>0.88</v>
@@ -51644,7 +51650,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ244">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR244">
         <v>1.42</v>
@@ -51847,7 +51853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ245">
         <v>1.39</v>
@@ -52053,7 +52059,7 @@
         <v>1.47</v>
       </c>
       <c r="AP246">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ246">
         <v>1.61</v>
@@ -52387,7 +52393,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52468,7 +52474,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ248">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR248">
         <v>1.5</v>
@@ -54035,7 +54041,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54731,7 +54737,7 @@
         <v>0.88</v>
       </c>
       <c r="AP259">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ259">
         <v>0.83</v>
@@ -54859,7 +54865,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -55065,7 +55071,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55349,7 +55355,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ262">
         <v>0.88</v>
@@ -55764,7 +55770,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ264">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR264">
         <v>1.24</v>
@@ -55967,10 +55973,10 @@
         <v>1.27</v>
       </c>
       <c r="AP265">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AQ265">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR265">
         <v>1.36</v>
@@ -56176,7 +56182,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ266">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR266">
         <v>1.41</v>
@@ -56301,7 +56307,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56713,7 +56719,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -56997,7 +57003,7 @@
         <v>0.8</v>
       </c>
       <c r="AP270">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ270">
         <v>0.82</v>
@@ -57743,7 +57749,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57916,7 +57922,7 @@
         <v>69</v>
       </c>
       <c r="E275" s="2">
-        <v>45611.875</v>
+        <v>45612.8125</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -57949,7 +57955,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58042,10 +58048,10 @@
         <v>2.96</v>
       </c>
       <c r="AU275">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW275">
         <v>6</v>
@@ -58054,10 +58060,10 @@
         <v>8</v>
       </c>
       <c r="AY275">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ275">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA275">
         <v>4</v>
@@ -58122,7 +58128,7 @@
         <v>69</v>
       </c>
       <c r="E276" s="2">
-        <v>45613.40625</v>
+        <v>45612.875</v>
       </c>
       <c r="F276">
         <v>13</v>
@@ -58155,7 +58161,7 @@
         <v>248</v>
       </c>
       <c r="P276" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q276">
         <v>3.5</v>
@@ -58248,10 +58254,10 @@
         <v>2.58</v>
       </c>
       <c r="AU276">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW276">
         <v>9</v>
@@ -58260,10 +58266,10 @@
         <v>5</v>
       </c>
       <c r="AY276">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ276">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA276">
         <v>4</v>
@@ -58328,7 +58334,7 @@
         <v>69</v>
       </c>
       <c r="E277" s="2">
-        <v>45613.6875</v>
+        <v>45612.875</v>
       </c>
       <c r="F277">
         <v>13</v>
@@ -58534,7 +58540,7 @@
         <v>69</v>
       </c>
       <c r="E278" s="2">
-        <v>45613.77083333334</v>
+        <v>45612.875</v>
       </c>
       <c r="F278">
         <v>13</v>
@@ -58724,6 +58730,624 @@
       </c>
       <c r="BP278">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7743562</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45613.875</v>
+      </c>
+      <c r="F279">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>84</v>
+      </c>
+      <c r="H279" t="s">
+        <v>71</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>250</v>
+      </c>
+      <c r="P279" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q279">
+        <v>3.2</v>
+      </c>
+      <c r="R279">
+        <v>1.91</v>
+      </c>
+      <c r="S279">
+        <v>3.58</v>
+      </c>
+      <c r="T279">
+        <v>1.5</v>
+      </c>
+      <c r="U279">
+        <v>2.48</v>
+      </c>
+      <c r="V279">
+        <v>3.26</v>
+      </c>
+      <c r="W279">
+        <v>1.31</v>
+      </c>
+      <c r="X279">
+        <v>9.1</v>
+      </c>
+      <c r="Y279">
+        <v>1.04</v>
+      </c>
+      <c r="Z279">
+        <v>2.46</v>
+      </c>
+      <c r="AA279">
+        <v>2.95</v>
+      </c>
+      <c r="AB279">
+        <v>2.75</v>
+      </c>
+      <c r="AC279">
+        <v>1.02</v>
+      </c>
+      <c r="AD279">
+        <v>7</v>
+      </c>
+      <c r="AE279">
+        <v>1.35</v>
+      </c>
+      <c r="AF279">
+        <v>2.65</v>
+      </c>
+      <c r="AG279">
+        <v>2.2</v>
+      </c>
+      <c r="AH279">
+        <v>1.6</v>
+      </c>
+      <c r="AI279">
+        <v>1.87</v>
+      </c>
+      <c r="AJ279">
+        <v>1.79</v>
+      </c>
+      <c r="AK279">
+        <v>1.37</v>
+      </c>
+      <c r="AL279">
+        <v>1.33</v>
+      </c>
+      <c r="AM279">
+        <v>1.46</v>
+      </c>
+      <c r="AN279">
+        <v>1.59</v>
+      </c>
+      <c r="AO279">
+        <v>1.13</v>
+      </c>
+      <c r="AP279">
+        <v>1.67</v>
+      </c>
+      <c r="AQ279">
+        <v>1.06</v>
+      </c>
+      <c r="AR279">
+        <v>1.41</v>
+      </c>
+      <c r="AS279">
+        <v>1.25</v>
+      </c>
+      <c r="AT279">
+        <v>2.66</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
+      <c r="AW279">
+        <v>4</v>
+      </c>
+      <c r="AX279">
+        <v>4</v>
+      </c>
+      <c r="AY279">
+        <v>9</v>
+      </c>
+      <c r="AZ279">
+        <v>8</v>
+      </c>
+      <c r="BA279">
+        <v>1</v>
+      </c>
+      <c r="BB279">
+        <v>6</v>
+      </c>
+      <c r="BC279">
+        <v>7</v>
+      </c>
+      <c r="BD279">
+        <v>1.86</v>
+      </c>
+      <c r="BE279">
+        <v>8</v>
+      </c>
+      <c r="BF279">
+        <v>2.2</v>
+      </c>
+      <c r="BG279">
+        <v>1.26</v>
+      </c>
+      <c r="BH279">
+        <v>3.08</v>
+      </c>
+      <c r="BI279">
+        <v>1.6</v>
+      </c>
+      <c r="BJ279">
+        <v>2.29</v>
+      </c>
+      <c r="BK279">
+        <v>1.99</v>
+      </c>
+      <c r="BL279">
+        <v>1.81</v>
+      </c>
+      <c r="BM279">
+        <v>2.55</v>
+      </c>
+      <c r="BN279">
+        <v>1.5</v>
+      </c>
+      <c r="BO279">
+        <v>3.35</v>
+      </c>
+      <c r="BP279">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7743563</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45613.875</v>
+      </c>
+      <c r="F280">
+        <v>13</v>
+      </c>
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H280" t="s">
+        <v>79</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>93</v>
+      </c>
+      <c r="P280" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q280">
+        <v>4</v>
+      </c>
+      <c r="R280">
+        <v>2</v>
+      </c>
+      <c r="S280">
+        <v>3</v>
+      </c>
+      <c r="T280">
+        <v>1.5</v>
+      </c>
+      <c r="U280">
+        <v>2.5</v>
+      </c>
+      <c r="V280">
+        <v>3.4</v>
+      </c>
+      <c r="W280">
+        <v>1.3</v>
+      </c>
+      <c r="X280">
+        <v>10</v>
+      </c>
+      <c r="Y280">
+        <v>1.06</v>
+      </c>
+      <c r="Z280">
+        <v>3.68</v>
+      </c>
+      <c r="AA280">
+        <v>3.13</v>
+      </c>
+      <c r="AB280">
+        <v>1.93</v>
+      </c>
+      <c r="AC280">
+        <v>1.08</v>
+      </c>
+      <c r="AD280">
+        <v>7</v>
+      </c>
+      <c r="AE280">
+        <v>1.42</v>
+      </c>
+      <c r="AF280">
+        <v>2.75</v>
+      </c>
+      <c r="AG280">
+        <v>2.37</v>
+      </c>
+      <c r="AH280">
+        <v>1.52</v>
+      </c>
+      <c r="AI280">
+        <v>1.91</v>
+      </c>
+      <c r="AJ280">
+        <v>1.8</v>
+      </c>
+      <c r="AK280">
+        <v>1.65</v>
+      </c>
+      <c r="AL280">
+        <v>1.3</v>
+      </c>
+      <c r="AM280">
+        <v>1.3</v>
+      </c>
+      <c r="AN280">
+        <v>1.29</v>
+      </c>
+      <c r="AO280">
+        <v>1.44</v>
+      </c>
+      <c r="AP280">
+        <v>1.28</v>
+      </c>
+      <c r="AQ280">
+        <v>1.41</v>
+      </c>
+      <c r="AR280">
+        <v>1.12</v>
+      </c>
+      <c r="AS280">
+        <v>1.17</v>
+      </c>
+      <c r="AT280">
+        <v>2.29</v>
+      </c>
+      <c r="AU280">
+        <v>2</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>10</v>
+      </c>
+      <c r="AX280">
+        <v>5</v>
+      </c>
+      <c r="AY280">
+        <v>12</v>
+      </c>
+      <c r="AZ280">
+        <v>8</v>
+      </c>
+      <c r="BA280">
+        <v>3</v>
+      </c>
+      <c r="BB280">
+        <v>6</v>
+      </c>
+      <c r="BC280">
+        <v>9</v>
+      </c>
+      <c r="BD280">
+        <v>2.1</v>
+      </c>
+      <c r="BE280">
+        <v>7.8</v>
+      </c>
+      <c r="BF280">
+        <v>1.95</v>
+      </c>
+      <c r="BG280">
+        <v>1.31</v>
+      </c>
+      <c r="BH280">
+        <v>2.82</v>
+      </c>
+      <c r="BI280">
+        <v>1.67</v>
+      </c>
+      <c r="BJ280">
+        <v>2.18</v>
+      </c>
+      <c r="BK280">
+        <v>2.09</v>
+      </c>
+      <c r="BL280">
+        <v>1.73</v>
+      </c>
+      <c r="BM280">
+        <v>2.61</v>
+      </c>
+      <c r="BN280">
+        <v>1.36</v>
+      </c>
+      <c r="BO280">
+        <v>3.66</v>
+      </c>
+      <c r="BP280">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7743564</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45614.875</v>
+      </c>
+      <c r="F281">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s">
+        <v>78</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>251</v>
+      </c>
+      <c r="P281" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q281">
+        <v>3.1</v>
+      </c>
+      <c r="R281">
+        <v>1.91</v>
+      </c>
+      <c r="S281">
+        <v>4.33</v>
+      </c>
+      <c r="T281">
+        <v>1.57</v>
+      </c>
+      <c r="U281">
+        <v>2.25</v>
+      </c>
+      <c r="V281">
+        <v>3.75</v>
+      </c>
+      <c r="W281">
+        <v>1.25</v>
+      </c>
+      <c r="X281">
+        <v>13</v>
+      </c>
+      <c r="Y281">
+        <v>1.04</v>
+      </c>
+      <c r="Z281">
+        <v>2.06</v>
+      </c>
+      <c r="AA281">
+        <v>3.1</v>
+      </c>
+      <c r="AB281">
+        <v>3.25</v>
+      </c>
+      <c r="AC281">
+        <v>1.1</v>
+      </c>
+      <c r="AD281">
+        <v>6.25</v>
+      </c>
+      <c r="AE281">
+        <v>1.48</v>
+      </c>
+      <c r="AF281">
+        <v>2.37</v>
+      </c>
+      <c r="AG281">
+        <v>2.29</v>
+      </c>
+      <c r="AH281">
+        <v>1.55</v>
+      </c>
+      <c r="AI281">
+        <v>2.2</v>
+      </c>
+      <c r="AJ281">
+        <v>1.62</v>
+      </c>
+      <c r="AK281">
+        <v>1.28</v>
+      </c>
+      <c r="AL281">
+        <v>1.3</v>
+      </c>
+      <c r="AM281">
+        <v>1.65</v>
+      </c>
+      <c r="AN281">
+        <v>1.38</v>
+      </c>
+      <c r="AO281">
+        <v>1.25</v>
+      </c>
+      <c r="AP281">
+        <v>1.47</v>
+      </c>
+      <c r="AQ281">
+        <v>1.18</v>
+      </c>
+      <c r="AR281">
+        <v>1.42</v>
+      </c>
+      <c r="AS281">
+        <v>1.22</v>
+      </c>
+      <c r="AT281">
+        <v>2.64</v>
+      </c>
+      <c r="AU281">
+        <v>16</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>10</v>
+      </c>
+      <c r="AX281">
+        <v>5</v>
+      </c>
+      <c r="AY281">
+        <v>26</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
+        <v>12</v>
+      </c>
+      <c r="BB281">
+        <v>1</v>
+      </c>
+      <c r="BC281">
+        <v>13</v>
+      </c>
+      <c r="BD281">
+        <v>1.69</v>
+      </c>
+      <c r="BE281">
+        <v>7.8</v>
+      </c>
+      <c r="BF281">
+        <v>2.51</v>
+      </c>
+      <c r="BG281">
+        <v>1.34</v>
+      </c>
+      <c r="BH281">
+        <v>2.69</v>
+      </c>
+      <c r="BI281">
+        <v>1.71</v>
+      </c>
+      <c r="BJ281">
+        <v>2.11</v>
+      </c>
+      <c r="BK281">
+        <v>2.16</v>
+      </c>
+      <c r="BL281">
+        <v>1.68</v>
+      </c>
+      <c r="BM281">
+        <v>2.78</v>
+      </c>
+      <c r="BN281">
+        <v>1.32</v>
+      </c>
+      <c r="BO281">
+        <v>4.35</v>
+      </c>
+      <c r="BP281">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,10 +766,10 @@
     <t>['45+4', '90+2']</t>
   </si>
   <si>
-    <t>['16', '90+5']</t>
+    <t>['15', '90+5']</t>
   </si>
   <si>
-    <t>['9', '42', '84', '90']</t>
+    <t>['8', '41', '64', '90']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1097,6 +1097,12 @@
   </si>
   <si>
     <t>['40', '43']</t>
+  </si>
+  <si>
+    <t>['51', '52']</t>
+  </si>
+  <si>
+    <t>['4', '65', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1804,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4064,7 +4070,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -6121,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>2.44</v>
@@ -6330,7 +6336,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -7151,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.61</v>
@@ -8184,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -8593,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>1.11</v>
@@ -9623,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -10241,10 +10247,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10450,7 +10456,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10859,7 +10865,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -13125,7 +13131,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
         <v>1.41</v>
@@ -13334,7 +13340,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ58">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13743,7 +13749,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>1.61</v>
@@ -13952,7 +13958,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -16421,7 +16427,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
         <v>1.59</v>
@@ -16627,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>0.83</v>
@@ -17245,7 +17251,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>0.82</v>
@@ -17866,7 +17872,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -18072,7 +18078,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -19926,7 +19932,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -20338,7 +20344,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -21159,7 +21165,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
         <v>1.41</v>
@@ -21365,7 +21371,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>1.59</v>
@@ -24252,7 +24258,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24664,7 +24670,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ113">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -26103,7 +26109,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26724,7 +26730,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -27545,10 +27551,10 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -27957,7 +27963,7 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>1.41</v>
@@ -30020,7 +30026,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -30429,7 +30435,7 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
         <v>2.44</v>
@@ -30841,7 +30847,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
         <v>1.11</v>
@@ -31256,7 +31262,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -32080,7 +32086,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32283,7 +32289,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
         <v>1.61</v>
@@ -33313,7 +33319,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ155">
         <v>0.82</v>
@@ -34758,7 +34764,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -35785,7 +35791,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ167">
         <v>0.83</v>
@@ -35994,7 +36000,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ168">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR168">
         <v>1.42</v>
@@ -39084,7 +39090,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR183">
         <v>1.12</v>
@@ -39287,7 +39293,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ184">
         <v>1.11</v>
@@ -40526,7 +40532,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ190">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.13</v>
@@ -40729,7 +40735,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ191">
         <v>0.71</v>
@@ -41965,7 +41971,7 @@
         <v>0.73</v>
       </c>
       <c r="AP197">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ197">
         <v>0.9399999999999999</v>
@@ -42380,7 +42386,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ199">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.17</v>
@@ -42998,7 +43004,7 @@
         <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43407,7 +43413,7 @@
         <v>1.47</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ204">
         <v>1.28</v>
@@ -44234,7 +44240,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR208">
         <v>1.42</v>
@@ -45470,7 +45476,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ214">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -46085,7 +46091,7 @@
         <v>2.08</v>
       </c>
       <c r="AP217">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217">
         <v>2.18</v>
@@ -48148,7 +48154,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ227">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR227">
         <v>1.39</v>
@@ -48557,7 +48563,7 @@
         <v>1.36</v>
       </c>
       <c r="AP229">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -48763,7 +48769,7 @@
         <v>0.85</v>
       </c>
       <c r="AP230">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -49178,7 +49184,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ232">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR232">
         <v>1.53</v>
@@ -51441,10 +51447,10 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ243">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR243">
         <v>1.38</v>
@@ -52265,7 +52271,7 @@
         <v>2.21</v>
       </c>
       <c r="AP247">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ247">
         <v>2.18</v>
@@ -52474,7 +52480,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR248">
         <v>1.5</v>
@@ -55149,7 +55155,7 @@
         <v>1.31</v>
       </c>
       <c r="AP261">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261">
         <v>1.39</v>
@@ -55358,7 +55364,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ262">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR262">
         <v>1.42</v>
@@ -55973,7 +55979,7 @@
         <v>1.27</v>
       </c>
       <c r="AP265">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ265">
         <v>1.18</v>
@@ -56182,7 +56188,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ266">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR266">
         <v>1.41</v>
@@ -58128,10 +58134,10 @@
         <v>69</v>
       </c>
       <c r="E276" s="2">
-        <v>45612.875</v>
+        <v>45613.40625</v>
       </c>
       <c r="F276">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G276" t="s">
         <v>72</v>
@@ -58254,10 +58260,10 @@
         <v>2.58</v>
       </c>
       <c r="AU276">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV276">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW276">
         <v>9</v>
@@ -58266,10 +58272,10 @@
         <v>5</v>
       </c>
       <c r="AY276">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ276">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA276">
         <v>4</v>
@@ -58334,7 +58340,7 @@
         <v>69</v>
       </c>
       <c r="E277" s="2">
-        <v>45612.875</v>
+        <v>45613.6875</v>
       </c>
       <c r="F277">
         <v>13</v>
@@ -58460,22 +58466,22 @@
         <v>2.65</v>
       </c>
       <c r="AU277">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV277">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW277">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX277">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY277">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ277">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA277">
         <v>3</v>
@@ -58540,7 +58546,7 @@
         <v>69</v>
       </c>
       <c r="E278" s="2">
-        <v>45612.875</v>
+        <v>45613.77083333334</v>
       </c>
       <c r="F278">
         <v>13</v>
@@ -58666,7 +58672,7 @@
         <v>2.92</v>
       </c>
       <c r="AU278">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV278">
         <v>0</v>
@@ -58675,13 +58681,13 @@
         <v>11</v>
       </c>
       <c r="AX278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY278">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA278">
         <v>8</v>
@@ -58746,7 +58752,7 @@
         <v>69</v>
       </c>
       <c r="E279" s="2">
-        <v>45613.875</v>
+        <v>45614.6875</v>
       </c>
       <c r="F279">
         <v>13</v>
@@ -58770,16 +58776,16 @@
         <v>2</v>
       </c>
       <c r="M279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O279" t="s">
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="Q279">
         <v>3.2</v>
@@ -58857,10 +58863,10 @@
         <v>1.13</v>
       </c>
       <c r="AP279">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ279">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AR279">
         <v>1.41</v>
@@ -58878,16 +58884,16 @@
         <v>4</v>
       </c>
       <c r="AW279">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX279">
         <v>4</v>
       </c>
       <c r="AY279">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ279">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA279">
         <v>1</v>
@@ -58952,10 +58958,10 @@
         <v>69</v>
       </c>
       <c r="E280" s="2">
-        <v>45613.875</v>
+        <v>45614.79166666666</v>
       </c>
       <c r="F280">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G280" t="s">
         <v>74</v>
@@ -59087,13 +59093,13 @@
         <v>10</v>
       </c>
       <c r="AX280">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY280">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ280">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA280">
         <v>3</v>
@@ -59158,7 +59164,7 @@
         <v>69</v>
       </c>
       <c r="E281" s="2">
-        <v>45614.875</v>
+        <v>45614.89583333334</v>
       </c>
       <c r="F281">
         <v>13</v>
@@ -59296,10 +59302,10 @@
         <v>5</v>
       </c>
       <c r="AY281">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AZ281">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA281">
         <v>12</v>
@@ -59348,6 +59354,212 @@
       </c>
       <c r="BP281">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7743565</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45615.6875</v>
+      </c>
+      <c r="F282">
+        <v>13</v>
+      </c>
+      <c r="G282" t="s">
+        <v>83</v>
+      </c>
+      <c r="H282" t="s">
+        <v>77</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>3</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>93</v>
+      </c>
+      <c r="P282" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2.05</v>
+      </c>
+      <c r="S282">
+        <v>4</v>
+      </c>
+      <c r="T282">
+        <v>1.44</v>
+      </c>
+      <c r="U282">
+        <v>2.63</v>
+      </c>
+      <c r="V282">
+        <v>3.4</v>
+      </c>
+      <c r="W282">
+        <v>1.3</v>
+      </c>
+      <c r="X282">
+        <v>10</v>
+      </c>
+      <c r="Y282">
+        <v>1.06</v>
+      </c>
+      <c r="Z282">
+        <v>2.14</v>
+      </c>
+      <c r="AA282">
+        <v>3.22</v>
+      </c>
+      <c r="AB282">
+        <v>3.2</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>8</v>
+      </c>
+      <c r="AE282">
+        <v>1.31</v>
+      </c>
+      <c r="AF282">
+        <v>2.82</v>
+      </c>
+      <c r="AG282">
+        <v>2.1</v>
+      </c>
+      <c r="AH282">
+        <v>1.7</v>
+      </c>
+      <c r="AI282">
+        <v>1.83</v>
+      </c>
+      <c r="AJ282">
+        <v>1.83</v>
+      </c>
+      <c r="AK282">
+        <v>1.29</v>
+      </c>
+      <c r="AL282">
+        <v>1.28</v>
+      </c>
+      <c r="AM282">
+        <v>1.61</v>
+      </c>
+      <c r="AN282">
+        <v>1.47</v>
+      </c>
+      <c r="AO282">
+        <v>0.88</v>
+      </c>
+      <c r="AP282">
+        <v>1.38</v>
+      </c>
+      <c r="AQ282">
+        <v>1</v>
+      </c>
+      <c r="AR282">
+        <v>1.13</v>
+      </c>
+      <c r="AS282">
+        <v>1.08</v>
+      </c>
+      <c r="AT282">
+        <v>2.21</v>
+      </c>
+      <c r="AU282">
+        <v>5</v>
+      </c>
+      <c r="AV282">
+        <v>6</v>
+      </c>
+      <c r="AW282">
+        <v>4</v>
+      </c>
+      <c r="AX282">
+        <v>1</v>
+      </c>
+      <c r="AY282">
+        <v>9</v>
+      </c>
+      <c r="AZ282">
+        <v>7</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>0</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>1.67</v>
+      </c>
+      <c r="BE282">
+        <v>8</v>
+      </c>
+      <c r="BF282">
+        <v>2.62</v>
+      </c>
+      <c r="BG282">
+        <v>1.4</v>
+      </c>
+      <c r="BH282">
+        <v>2.73</v>
+      </c>
+      <c r="BI282">
+        <v>1.69</v>
+      </c>
+      <c r="BJ282">
+        <v>2.04</v>
+      </c>
+      <c r="BK282">
+        <v>2.15</v>
+      </c>
+      <c r="BL282">
+        <v>1.62</v>
+      </c>
+      <c r="BM282">
+        <v>2.83</v>
+      </c>
+      <c r="BN282">
+        <v>1.37</v>
+      </c>
+      <c r="BO282">
+        <v>3.88</v>
+      </c>
+      <c r="BP282">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -1102,7 +1102,7 @@
     <t>['51', '52']</t>
   </si>
   <si>
-    <t>['4', '65', '90+7']</t>
+    <t>['3', '65', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -59155,7 +59155,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7743564</v>
+        <v>7743565</v>
       </c>
       <c r="C281" t="s">
         <v>68</v>
@@ -59164,196 +59164,196 @@
         <v>69</v>
       </c>
       <c r="E281" s="2">
-        <v>45614.89583333334</v>
+        <v>45614.875</v>
       </c>
       <c r="F281">
         <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H281" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>3</v>
+      </c>
+      <c r="O281" t="s">
+        <v>93</v>
+      </c>
+      <c r="P281" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q281">
+        <v>3</v>
+      </c>
+      <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
         <v>4</v>
       </c>
-      <c r="M281">
-        <v>0</v>
-      </c>
-      <c r="N281">
+      <c r="T281">
+        <v>1.44</v>
+      </c>
+      <c r="U281">
+        <v>2.63</v>
+      </c>
+      <c r="V281">
+        <v>3.4</v>
+      </c>
+      <c r="W281">
+        <v>1.3</v>
+      </c>
+      <c r="X281">
+        <v>10</v>
+      </c>
+      <c r="Y281">
+        <v>1.06</v>
+      </c>
+      <c r="Z281">
+        <v>2.14</v>
+      </c>
+      <c r="AA281">
+        <v>3.22</v>
+      </c>
+      <c r="AB281">
+        <v>3.2</v>
+      </c>
+      <c r="AC281">
+        <v>1.01</v>
+      </c>
+      <c r="AD281">
+        <v>8</v>
+      </c>
+      <c r="AE281">
+        <v>1.31</v>
+      </c>
+      <c r="AF281">
+        <v>2.82</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.7</v>
+      </c>
+      <c r="AI281">
+        <v>1.83</v>
+      </c>
+      <c r="AJ281">
+        <v>1.83</v>
+      </c>
+      <c r="AK281">
+        <v>1.29</v>
+      </c>
+      <c r="AL281">
+        <v>1.28</v>
+      </c>
+      <c r="AM281">
+        <v>1.61</v>
+      </c>
+      <c r="AN281">
+        <v>1.47</v>
+      </c>
+      <c r="AO281">
+        <v>0.88</v>
+      </c>
+      <c r="AP281">
+        <v>1.38</v>
+      </c>
+      <c r="AQ281">
+        <v>1</v>
+      </c>
+      <c r="AR281">
+        <v>1.13</v>
+      </c>
+      <c r="AS281">
+        <v>1.08</v>
+      </c>
+      <c r="AT281">
+        <v>2.21</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>6</v>
+      </c>
+      <c r="AW281">
+        <v>5</v>
+      </c>
+      <c r="AX281">
+        <v>1</v>
+      </c>
+      <c r="AY281">
+        <v>13</v>
+      </c>
+      <c r="AZ281">
+        <v>9</v>
+      </c>
+      <c r="BA281">
         <v>4</v>
       </c>
-      <c r="O281" t="s">
-        <v>251</v>
-      </c>
-      <c r="P281" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q281">
-        <v>3.1</v>
-      </c>
-      <c r="R281">
-        <v>1.91</v>
-      </c>
-      <c r="S281">
-        <v>4.33</v>
-      </c>
-      <c r="T281">
-        <v>1.57</v>
-      </c>
-      <c r="U281">
-        <v>2.25</v>
-      </c>
-      <c r="V281">
-        <v>3.75</v>
-      </c>
-      <c r="W281">
-        <v>1.25</v>
-      </c>
-      <c r="X281">
-        <v>13</v>
-      </c>
-      <c r="Y281">
-        <v>1.04</v>
-      </c>
-      <c r="Z281">
-        <v>2.06</v>
-      </c>
-      <c r="AA281">
-        <v>3.1</v>
-      </c>
-      <c r="AB281">
-        <v>3.25</v>
-      </c>
-      <c r="AC281">
-        <v>1.1</v>
-      </c>
-      <c r="AD281">
-        <v>6.25</v>
-      </c>
-      <c r="AE281">
-        <v>1.48</v>
-      </c>
-      <c r="AF281">
-        <v>2.37</v>
-      </c>
-      <c r="AG281">
-        <v>2.29</v>
-      </c>
-      <c r="AH281">
-        <v>1.55</v>
-      </c>
-      <c r="AI281">
-        <v>2.2</v>
-      </c>
-      <c r="AJ281">
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>4</v>
+      </c>
+      <c r="BD281">
+        <v>1.67</v>
+      </c>
+      <c r="BE281">
+        <v>8</v>
+      </c>
+      <c r="BF281">
+        <v>2.62</v>
+      </c>
+      <c r="BG281">
+        <v>1.4</v>
+      </c>
+      <c r="BH281">
+        <v>2.73</v>
+      </c>
+      <c r="BI281">
+        <v>1.69</v>
+      </c>
+      <c r="BJ281">
+        <v>2.04</v>
+      </c>
+      <c r="BK281">
+        <v>2.15</v>
+      </c>
+      <c r="BL281">
         <v>1.62</v>
       </c>
-      <c r="AK281">
-        <v>1.28</v>
-      </c>
-      <c r="AL281">
-        <v>1.3</v>
-      </c>
-      <c r="AM281">
-        <v>1.65</v>
-      </c>
-      <c r="AN281">
-        <v>1.38</v>
-      </c>
-      <c r="AO281">
-        <v>1.25</v>
-      </c>
-      <c r="AP281">
-        <v>1.47</v>
-      </c>
-      <c r="AQ281">
-        <v>1.18</v>
-      </c>
-      <c r="AR281">
-        <v>1.42</v>
-      </c>
-      <c r="AS281">
-        <v>1.22</v>
-      </c>
-      <c r="AT281">
-        <v>2.64</v>
-      </c>
-      <c r="AU281">
-        <v>16</v>
-      </c>
-      <c r="AV281">
-        <v>4</v>
-      </c>
-      <c r="AW281">
-        <v>10</v>
-      </c>
-      <c r="AX281">
-        <v>5</v>
-      </c>
-      <c r="AY281">
-        <v>31</v>
-      </c>
-      <c r="AZ281">
-        <v>12</v>
-      </c>
-      <c r="BA281">
-        <v>12</v>
-      </c>
-      <c r="BB281">
-        <v>1</v>
-      </c>
-      <c r="BC281">
-        <v>13</v>
-      </c>
-      <c r="BD281">
-        <v>1.69</v>
-      </c>
-      <c r="BE281">
-        <v>7.8</v>
-      </c>
-      <c r="BF281">
-        <v>2.51</v>
-      </c>
-      <c r="BG281">
-        <v>1.34</v>
-      </c>
-      <c r="BH281">
-        <v>2.69</v>
-      </c>
-      <c r="BI281">
-        <v>1.71</v>
-      </c>
-      <c r="BJ281">
-        <v>2.11</v>
-      </c>
-      <c r="BK281">
-        <v>2.16</v>
-      </c>
-      <c r="BL281">
-        <v>1.68</v>
-      </c>
       <c r="BM281">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="BN281">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BO281">
-        <v>4.35</v>
+        <v>3.88</v>
       </c>
       <c r="BP281">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -59361,7 +59361,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7743565</v>
+        <v>7743564</v>
       </c>
       <c r="C282" t="s">
         <v>68</v>
@@ -59370,196 +59370,196 @@
         <v>69</v>
       </c>
       <c r="E282" s="2">
-        <v>45615.6875</v>
+        <v>45614.89583333334</v>
       </c>
       <c r="F282">
         <v>13</v>
       </c>
       <c r="G282" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H282" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L282">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M282">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N282">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O282" t="s">
+        <v>251</v>
+      </c>
+      <c r="P282" t="s">
         <v>93</v>
       </c>
-      <c r="P282" t="s">
-        <v>362</v>
-      </c>
       <c r="Q282">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R282">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S282">
+        <v>4.33</v>
+      </c>
+      <c r="T282">
+        <v>1.57</v>
+      </c>
+      <c r="U282">
+        <v>2.25</v>
+      </c>
+      <c r="V282">
+        <v>3.75</v>
+      </c>
+      <c r="W282">
+        <v>1.25</v>
+      </c>
+      <c r="X282">
+        <v>13</v>
+      </c>
+      <c r="Y282">
+        <v>1.04</v>
+      </c>
+      <c r="Z282">
+        <v>2.06</v>
+      </c>
+      <c r="AA282">
+        <v>3.1</v>
+      </c>
+      <c r="AB282">
+        <v>3.25</v>
+      </c>
+      <c r="AC282">
+        <v>1.1</v>
+      </c>
+      <c r="AD282">
+        <v>6.25</v>
+      </c>
+      <c r="AE282">
+        <v>1.48</v>
+      </c>
+      <c r="AF282">
+        <v>2.37</v>
+      </c>
+      <c r="AG282">
+        <v>2.29</v>
+      </c>
+      <c r="AH282">
+        <v>1.55</v>
+      </c>
+      <c r="AI282">
+        <v>2.2</v>
+      </c>
+      <c r="AJ282">
+        <v>1.62</v>
+      </c>
+      <c r="AK282">
+        <v>1.28</v>
+      </c>
+      <c r="AL282">
+        <v>1.3</v>
+      </c>
+      <c r="AM282">
+        <v>1.65</v>
+      </c>
+      <c r="AN282">
+        <v>1.38</v>
+      </c>
+      <c r="AO282">
+        <v>1.25</v>
+      </c>
+      <c r="AP282">
+        <v>1.47</v>
+      </c>
+      <c r="AQ282">
+        <v>1.18</v>
+      </c>
+      <c r="AR282">
+        <v>1.42</v>
+      </c>
+      <c r="AS282">
+        <v>1.22</v>
+      </c>
+      <c r="AT282">
+        <v>2.64</v>
+      </c>
+      <c r="AU282">
+        <v>16</v>
+      </c>
+      <c r="AV282">
         <v>4</v>
       </c>
-      <c r="T282">
-        <v>1.44</v>
-      </c>
-      <c r="U282">
-        <v>2.63</v>
-      </c>
-      <c r="V282">
-        <v>3.4</v>
-      </c>
-      <c r="W282">
-        <v>1.3</v>
-      </c>
-      <c r="X282">
+      <c r="AW282">
         <v>10</v>
       </c>
-      <c r="Y282">
-        <v>1.06</v>
-      </c>
-      <c r="Z282">
-        <v>2.14</v>
-      </c>
-      <c r="AA282">
-        <v>3.22</v>
-      </c>
-      <c r="AB282">
-        <v>3.2</v>
-      </c>
-      <c r="AC282">
-        <v>1.01</v>
-      </c>
-      <c r="AD282">
-        <v>8</v>
-      </c>
-      <c r="AE282">
-        <v>1.31</v>
-      </c>
-      <c r="AF282">
-        <v>2.82</v>
-      </c>
-      <c r="AG282">
-        <v>2.1</v>
-      </c>
-      <c r="AH282">
-        <v>1.7</v>
-      </c>
-      <c r="AI282">
-        <v>1.83</v>
-      </c>
-      <c r="AJ282">
-        <v>1.83</v>
-      </c>
-      <c r="AK282">
-        <v>1.29</v>
-      </c>
-      <c r="AL282">
-        <v>1.28</v>
-      </c>
-      <c r="AM282">
-        <v>1.61</v>
-      </c>
-      <c r="AN282">
-        <v>1.47</v>
-      </c>
-      <c r="AO282">
-        <v>0.88</v>
-      </c>
-      <c r="AP282">
-        <v>1.38</v>
-      </c>
-      <c r="AQ282">
-        <v>1</v>
-      </c>
-      <c r="AR282">
-        <v>1.13</v>
-      </c>
-      <c r="AS282">
-        <v>1.08</v>
-      </c>
-      <c r="AT282">
-        <v>2.21</v>
-      </c>
-      <c r="AU282">
+      <c r="AX282">
         <v>5</v>
       </c>
-      <c r="AV282">
-        <v>6</v>
-      </c>
-      <c r="AW282">
-        <v>4</v>
-      </c>
-      <c r="AX282">
-        <v>1</v>
-      </c>
       <c r="AY282">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AZ282">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA282">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC282">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD282">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="BE282">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF282">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="BG282">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BH282">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="BI282">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="BJ282">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="BK282">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="BL282">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="BM282">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="BN282">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BO282">
-        <v>3.88</v>
+        <v>4.35</v>
       </c>
       <c r="BP282">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -58466,22 +58466,22 @@
         <v>2.65</v>
       </c>
       <c r="AU277">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV277">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW277">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX277">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY277">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ277">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA277">
         <v>3</v>
@@ -59155,7 +59155,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7743565</v>
+        <v>7743564</v>
       </c>
       <c r="C281" t="s">
         <v>68</v>
@@ -59164,196 +59164,196 @@
         <v>69</v>
       </c>
       <c r="E281" s="2">
-        <v>45614.875</v>
+        <v>45614.89583333334</v>
       </c>
       <c r="F281">
         <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H281" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O281" t="s">
+        <v>251</v>
+      </c>
+      <c r="P281" t="s">
         <v>93</v>
       </c>
-      <c r="P281" t="s">
-        <v>362</v>
-      </c>
       <c r="Q281">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R281">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S281">
+        <v>4.33</v>
+      </c>
+      <c r="T281">
+        <v>1.57</v>
+      </c>
+      <c r="U281">
+        <v>2.25</v>
+      </c>
+      <c r="V281">
+        <v>3.75</v>
+      </c>
+      <c r="W281">
+        <v>1.25</v>
+      </c>
+      <c r="X281">
+        <v>13</v>
+      </c>
+      <c r="Y281">
+        <v>1.04</v>
+      </c>
+      <c r="Z281">
+        <v>2.06</v>
+      </c>
+      <c r="AA281">
+        <v>3.1</v>
+      </c>
+      <c r="AB281">
+        <v>3.25</v>
+      </c>
+      <c r="AC281">
+        <v>1.1</v>
+      </c>
+      <c r="AD281">
+        <v>6.25</v>
+      </c>
+      <c r="AE281">
+        <v>1.48</v>
+      </c>
+      <c r="AF281">
+        <v>2.37</v>
+      </c>
+      <c r="AG281">
+        <v>2.29</v>
+      </c>
+      <c r="AH281">
+        <v>1.55</v>
+      </c>
+      <c r="AI281">
+        <v>2.2</v>
+      </c>
+      <c r="AJ281">
+        <v>1.62</v>
+      </c>
+      <c r="AK281">
+        <v>1.28</v>
+      </c>
+      <c r="AL281">
+        <v>1.3</v>
+      </c>
+      <c r="AM281">
+        <v>1.65</v>
+      </c>
+      <c r="AN281">
+        <v>1.38</v>
+      </c>
+      <c r="AO281">
+        <v>1.25</v>
+      </c>
+      <c r="AP281">
+        <v>1.47</v>
+      </c>
+      <c r="AQ281">
+        <v>1.18</v>
+      </c>
+      <c r="AR281">
+        <v>1.42</v>
+      </c>
+      <c r="AS281">
+        <v>1.22</v>
+      </c>
+      <c r="AT281">
+        <v>2.64</v>
+      </c>
+      <c r="AU281">
+        <v>16</v>
+      </c>
+      <c r="AV281">
         <v>4</v>
       </c>
-      <c r="T281">
-        <v>1.44</v>
-      </c>
-      <c r="U281">
-        <v>2.63</v>
-      </c>
-      <c r="V281">
-        <v>3.4</v>
-      </c>
-      <c r="W281">
-        <v>1.3</v>
-      </c>
-      <c r="X281">
+      <c r="AW281">
         <v>10</v>
       </c>
-      <c r="Y281">
-        <v>1.06</v>
-      </c>
-      <c r="Z281">
-        <v>2.14</v>
-      </c>
-      <c r="AA281">
-        <v>3.22</v>
-      </c>
-      <c r="AB281">
-        <v>3.2</v>
-      </c>
-      <c r="AC281">
-        <v>1.01</v>
-      </c>
-      <c r="AD281">
-        <v>8</v>
-      </c>
-      <c r="AE281">
-        <v>1.31</v>
-      </c>
-      <c r="AF281">
-        <v>2.82</v>
-      </c>
-      <c r="AG281">
-        <v>2.1</v>
-      </c>
-      <c r="AH281">
-        <v>1.7</v>
-      </c>
-      <c r="AI281">
-        <v>1.83</v>
-      </c>
-      <c r="AJ281">
-        <v>1.83</v>
-      </c>
-      <c r="AK281">
-        <v>1.29</v>
-      </c>
-      <c r="AL281">
-        <v>1.28</v>
-      </c>
-      <c r="AM281">
-        <v>1.61</v>
-      </c>
-      <c r="AN281">
-        <v>1.47</v>
-      </c>
-      <c r="AO281">
-        <v>0.88</v>
-      </c>
-      <c r="AP281">
-        <v>1.38</v>
-      </c>
-      <c r="AQ281">
-        <v>1</v>
-      </c>
-      <c r="AR281">
-        <v>1.13</v>
-      </c>
-      <c r="AS281">
-        <v>1.08</v>
-      </c>
-      <c r="AT281">
-        <v>2.21</v>
-      </c>
-      <c r="AU281">
+      <c r="AX281">
         <v>5</v>
       </c>
-      <c r="AV281">
-        <v>6</v>
-      </c>
-      <c r="AW281">
-        <v>5</v>
-      </c>
-      <c r="AX281">
-        <v>1</v>
-      </c>
       <c r="AY281">
+        <v>31</v>
+      </c>
+      <c r="AZ281">
+        <v>12</v>
+      </c>
+      <c r="BA281">
+        <v>12</v>
+      </c>
+      <c r="BB281">
+        <v>1</v>
+      </c>
+      <c r="BC281">
         <v>13</v>
       </c>
-      <c r="AZ281">
-        <v>9</v>
-      </c>
-      <c r="BA281">
-        <v>4</v>
-      </c>
-      <c r="BB281">
-        <v>0</v>
-      </c>
-      <c r="BC281">
-        <v>4</v>
-      </c>
       <c r="BD281">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="BE281">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF281">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="BG281">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BH281">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="BI281">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="BJ281">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="BK281">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="BL281">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="BM281">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="BN281">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BO281">
-        <v>3.88</v>
+        <v>4.35</v>
       </c>
       <c r="BP281">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -59361,7 +59361,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7743564</v>
+        <v>7743565</v>
       </c>
       <c r="C282" t="s">
         <v>68</v>
@@ -59370,196 +59370,196 @@
         <v>69</v>
       </c>
       <c r="E282" s="2">
-        <v>45614.89583333334</v>
+        <v>45615.6875</v>
       </c>
       <c r="F282">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H282" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>3</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>93</v>
+      </c>
+      <c r="P282" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2.05</v>
+      </c>
+      <c r="S282">
         <v>4</v>
       </c>
-      <c r="M282">
-        <v>0</v>
-      </c>
-      <c r="N282">
+      <c r="T282">
+        <v>1.44</v>
+      </c>
+      <c r="U282">
+        <v>2.63</v>
+      </c>
+      <c r="V282">
+        <v>3.4</v>
+      </c>
+      <c r="W282">
+        <v>1.3</v>
+      </c>
+      <c r="X282">
+        <v>10</v>
+      </c>
+      <c r="Y282">
+        <v>1.06</v>
+      </c>
+      <c r="Z282">
+        <v>2.14</v>
+      </c>
+      <c r="AA282">
+        <v>3.22</v>
+      </c>
+      <c r="AB282">
+        <v>3.2</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>8</v>
+      </c>
+      <c r="AE282">
+        <v>1.31</v>
+      </c>
+      <c r="AF282">
+        <v>2.82</v>
+      </c>
+      <c r="AG282">
+        <v>2.1</v>
+      </c>
+      <c r="AH282">
+        <v>1.7</v>
+      </c>
+      <c r="AI282">
+        <v>1.83</v>
+      </c>
+      <c r="AJ282">
+        <v>1.83</v>
+      </c>
+      <c r="AK282">
+        <v>1.29</v>
+      </c>
+      <c r="AL282">
+        <v>1.28</v>
+      </c>
+      <c r="AM282">
+        <v>1.61</v>
+      </c>
+      <c r="AN282">
+        <v>1.47</v>
+      </c>
+      <c r="AO282">
+        <v>0.88</v>
+      </c>
+      <c r="AP282">
+        <v>1.38</v>
+      </c>
+      <c r="AQ282">
+        <v>1</v>
+      </c>
+      <c r="AR282">
+        <v>1.13</v>
+      </c>
+      <c r="AS282">
+        <v>1.08</v>
+      </c>
+      <c r="AT282">
+        <v>2.21</v>
+      </c>
+      <c r="AU282">
         <v>4</v>
       </c>
-      <c r="O282" t="s">
-        <v>251</v>
-      </c>
-      <c r="P282" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q282">
-        <v>3.1</v>
-      </c>
-      <c r="R282">
-        <v>1.91</v>
-      </c>
-      <c r="S282">
-        <v>4.33</v>
-      </c>
-      <c r="T282">
-        <v>1.57</v>
-      </c>
-      <c r="U282">
-        <v>2.25</v>
-      </c>
-      <c r="V282">
-        <v>3.75</v>
-      </c>
-      <c r="W282">
-        <v>1.25</v>
-      </c>
-      <c r="X282">
-        <v>13</v>
-      </c>
-      <c r="Y282">
-        <v>1.04</v>
-      </c>
-      <c r="Z282">
-        <v>2.06</v>
-      </c>
-      <c r="AA282">
-        <v>3.1</v>
-      </c>
-      <c r="AB282">
-        <v>3.25</v>
-      </c>
-      <c r="AC282">
-        <v>1.1</v>
-      </c>
-      <c r="AD282">
-        <v>6.25</v>
-      </c>
-      <c r="AE282">
-        <v>1.48</v>
-      </c>
-      <c r="AF282">
-        <v>2.37</v>
-      </c>
-      <c r="AG282">
-        <v>2.29</v>
-      </c>
-      <c r="AH282">
-        <v>1.55</v>
-      </c>
-      <c r="AI282">
-        <v>2.2</v>
-      </c>
-      <c r="AJ282">
+      <c r="AV282">
+        <v>0</v>
+      </c>
+      <c r="AW282">
+        <v>7</v>
+      </c>
+      <c r="AX282">
+        <v>2</v>
+      </c>
+      <c r="AY282">
+        <v>11</v>
+      </c>
+      <c r="AZ282">
+        <v>2</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>0</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>1.67</v>
+      </c>
+      <c r="BE282">
+        <v>8</v>
+      </c>
+      <c r="BF282">
+        <v>2.62</v>
+      </c>
+      <c r="BG282">
+        <v>1.4</v>
+      </c>
+      <c r="BH282">
+        <v>2.73</v>
+      </c>
+      <c r="BI282">
+        <v>1.69</v>
+      </c>
+      <c r="BJ282">
+        <v>2.04</v>
+      </c>
+      <c r="BK282">
+        <v>2.15</v>
+      </c>
+      <c r="BL282">
         <v>1.62</v>
       </c>
-      <c r="AK282">
-        <v>1.28</v>
-      </c>
-      <c r="AL282">
-        <v>1.3</v>
-      </c>
-      <c r="AM282">
-        <v>1.65</v>
-      </c>
-      <c r="AN282">
-        <v>1.38</v>
-      </c>
-      <c r="AO282">
-        <v>1.25</v>
-      </c>
-      <c r="AP282">
-        <v>1.47</v>
-      </c>
-      <c r="AQ282">
-        <v>1.18</v>
-      </c>
-      <c r="AR282">
-        <v>1.42</v>
-      </c>
-      <c r="AS282">
-        <v>1.22</v>
-      </c>
-      <c r="AT282">
-        <v>2.64</v>
-      </c>
-      <c r="AU282">
-        <v>16</v>
-      </c>
-      <c r="AV282">
-        <v>4</v>
-      </c>
-      <c r="AW282">
-        <v>10</v>
-      </c>
-      <c r="AX282">
-        <v>5</v>
-      </c>
-      <c r="AY282">
-        <v>31</v>
-      </c>
-      <c r="AZ282">
-        <v>12</v>
-      </c>
-      <c r="BA282">
-        <v>12</v>
-      </c>
-      <c r="BB282">
-        <v>1</v>
-      </c>
-      <c r="BC282">
-        <v>13</v>
-      </c>
-      <c r="BD282">
-        <v>1.69</v>
-      </c>
-      <c r="BE282">
-        <v>7.8</v>
-      </c>
-      <c r="BF282">
-        <v>2.51</v>
-      </c>
-      <c r="BG282">
-        <v>1.34</v>
-      </c>
-      <c r="BH282">
-        <v>2.69</v>
-      </c>
-      <c r="BI282">
-        <v>1.71</v>
-      </c>
-      <c r="BJ282">
-        <v>2.11</v>
-      </c>
-      <c r="BK282">
-        <v>2.16</v>
-      </c>
-      <c r="BL282">
-        <v>1.68</v>
-      </c>
       <c r="BM282">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="BN282">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BO282">
-        <v>4.35</v>
+        <v>3.88</v>
       </c>
       <c r="BP282">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1464,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -4482,7 +4482,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
         <v>1.39</v>
@@ -6539,7 +6539,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ25">
         <v>1.41</v>
@@ -6748,7 +6748,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -11074,7 +11074,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ47">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -11689,7 +11689,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
         <v>1.18</v>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>0.71</v>
@@ -19311,7 +19311,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>1.28</v>
@@ -19726,7 +19726,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ89">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -21783,7 +21783,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ99">
         <v>0.84</v>
@@ -22404,7 +22404,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -25079,7 +25079,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ115">
         <v>1.61</v>
@@ -25700,7 +25700,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ118">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -28172,7 +28172,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28375,7 +28375,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
         <v>0.83</v>
@@ -31674,7 +31674,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -34349,7 +34349,7 @@
         <v>2.5</v>
       </c>
       <c r="AP160">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ160">
         <v>2.44</v>
@@ -35588,7 +35588,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
         <v>1.47</v>
@@ -37851,7 +37851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ177">
         <v>1.61</v>
@@ -38266,7 +38266,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR179">
         <v>1.57</v>
@@ -39499,7 +39499,7 @@
         <v>2.1</v>
       </c>
       <c r="AP185">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ185">
         <v>2.18</v>
@@ -41974,7 +41974,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ197">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -45064,7 +45064,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR212">
         <v>1.38</v>
@@ -45473,7 +45473,7 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ214">
         <v>1.12</v>
@@ -46503,7 +46503,7 @@
         <v>0.92</v>
       </c>
       <c r="AP219">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ219">
         <v>0.82</v>
@@ -48772,7 +48772,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR230">
         <v>1.15</v>
@@ -50623,7 +50623,7 @@
         <v>1.64</v>
       </c>
       <c r="AP239">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ239">
         <v>1.59</v>
@@ -51038,7 +51038,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR241">
         <v>1.4</v>
@@ -53510,7 +53510,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ253">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR253">
         <v>1.69</v>
@@ -54331,7 +54331,7 @@
         <v>2.38</v>
       </c>
       <c r="AP257">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ257">
         <v>2.44</v>
@@ -56597,7 +56597,7 @@
         <v>1.12</v>
       </c>
       <c r="AP268">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ268">
         <v>1.11</v>
@@ -57424,7 +57424,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ272">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR272">
         <v>1.16</v>
@@ -59560,6 +59560,212 @@
       </c>
       <c r="BP282">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7747053</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45622.40625</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="s">
+        <v>77</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>203</v>
+      </c>
+      <c r="P283" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q283">
+        <v>3.1</v>
+      </c>
+      <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>3.75</v>
+      </c>
+      <c r="T283">
+        <v>1.5</v>
+      </c>
+      <c r="U283">
+        <v>2.5</v>
+      </c>
+      <c r="V283">
+        <v>3.4</v>
+      </c>
+      <c r="W283">
+        <v>1.3</v>
+      </c>
+      <c r="X283">
+        <v>10</v>
+      </c>
+      <c r="Y283">
+        <v>1.06</v>
+      </c>
+      <c r="Z283">
+        <v>2.17</v>
+      </c>
+      <c r="AA283">
+        <v>3</v>
+      </c>
+      <c r="AB283">
+        <v>2.9</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>8</v>
+      </c>
+      <c r="AE283">
+        <v>1.35</v>
+      </c>
+      <c r="AF283">
+        <v>2.85</v>
+      </c>
+      <c r="AG283">
+        <v>2.05</v>
+      </c>
+      <c r="AH283">
+        <v>1.61</v>
+      </c>
+      <c r="AI283">
+        <v>1.83</v>
+      </c>
+      <c r="AJ283">
+        <v>1.83</v>
+      </c>
+      <c r="AK283">
+        <v>1.3</v>
+      </c>
+      <c r="AL283">
+        <v>1.33</v>
+      </c>
+      <c r="AM283">
+        <v>1.6</v>
+      </c>
+      <c r="AN283">
+        <v>1.12</v>
+      </c>
+      <c r="AO283">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP283">
+        <v>1.22</v>
+      </c>
+      <c r="AQ283">
+        <v>0.89</v>
+      </c>
+      <c r="AR283">
+        <v>1.42</v>
+      </c>
+      <c r="AS283">
+        <v>0.96</v>
+      </c>
+      <c r="AT283">
+        <v>2.38</v>
+      </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>8</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>13</v>
+      </c>
+      <c r="AZ283">
+        <v>11</v>
+      </c>
+      <c r="BA283">
+        <v>5</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>9</v>
+      </c>
+      <c r="BD283">
+        <v>1.95</v>
+      </c>
+      <c r="BE283">
+        <v>7.5</v>
+      </c>
+      <c r="BF283">
+        <v>2.1</v>
+      </c>
+      <c r="BG283">
+        <v>1.37</v>
+      </c>
+      <c r="BH283">
+        <v>2.83</v>
+      </c>
+      <c r="BI283">
+        <v>1.65</v>
+      </c>
+      <c r="BJ283">
+        <v>2.1</v>
+      </c>
+      <c r="BK283">
+        <v>2.08</v>
+      </c>
+      <c r="BL283">
+        <v>1.67</v>
+      </c>
+      <c r="BM283">
+        <v>2.73</v>
+      </c>
+      <c r="BN283">
+        <v>1.4</v>
+      </c>
+      <c r="BO283">
+        <v>3.7</v>
+      </c>
+      <c r="BP283">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,15 @@
     <t>['8', '41', '64', '90']</t>
   </si>
   <si>
+    <t>['51', '74']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['22', '43', '81']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -908,9 +917,6 @@
   </si>
   <si>
     <t>['7', '11', '18', '32']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -1103,6 +1109,15 @@
   </si>
   <si>
     <t>['3', '65', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '42', '63', '68', '85']</t>
+  </si>
+  <si>
+    <t>['69', '90+3']</t>
+  </si>
+  <si>
+    <t>['89', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1929,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2007,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ3">
         <v>1.39</v>
@@ -2135,7 +2150,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2341,7 +2356,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2753,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2834,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2959,7 +2974,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3037,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3165,7 +3180,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3246,7 +3261,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3449,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ10">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3655,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>1.39</v>
@@ -3864,7 +3879,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4067,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.12</v>
@@ -4607,7 +4622,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4813,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -5019,7 +5034,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5100,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5637,7 +5652,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5715,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ21">
         <v>1.41</v>
@@ -5843,7 +5858,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5924,7 +5939,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -6049,7 +6064,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6127,10 +6142,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6461,7 +6476,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6873,7 +6888,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7079,7 +7094,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7157,10 +7172,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7285,7 +7300,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7569,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>0.84</v>
@@ -7775,10 +7790,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7981,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ32">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -8187,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8315,7 +8330,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8396,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8521,7 +8536,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8599,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -9014,7 +9029,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ37">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -9345,7 +9360,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9551,7 +9566,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9629,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -9757,7 +9772,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9835,10 +9850,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -10247,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>1.12</v>
@@ -10865,10 +10880,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10993,7 +11008,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11199,7 +11214,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11277,7 +11292,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
         <v>1.41</v>
@@ -11405,7 +11420,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11483,10 +11498,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11611,7 +11626,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11817,7 +11832,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11898,7 +11913,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -12641,7 +12656,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12719,10 +12734,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ55">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12847,7 +12862,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12928,7 +12943,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ56">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13131,7 +13146,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>1.41</v>
@@ -13749,10 +13764,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -14289,7 +14304,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14367,10 +14382,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14495,7 +14510,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14988,7 +15003,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15113,7 +15128,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15319,7 +15334,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15397,10 +15412,10 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ68">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15525,7 +15540,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15731,7 +15746,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15812,7 +15827,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15937,7 +15952,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16015,7 +16030,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -16143,7 +16158,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16427,10 +16442,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16633,10 +16648,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16839,7 +16854,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75">
         <v>1.41</v>
@@ -16967,7 +16982,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17251,10 +17266,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17379,7 +17394,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17585,7 +17600,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18203,7 +18218,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18409,7 +18424,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18490,7 +18505,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18615,7 +18630,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18696,7 +18711,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ84">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18821,7 +18836,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18899,10 +18914,10 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -19105,7 +19120,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -19233,7 +19248,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19439,7 +19454,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19517,10 +19532,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ88">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19851,7 +19866,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20469,7 +20484,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20550,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20881,7 +20896,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21087,7 +21102,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21165,7 +21180,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
         <v>1.41</v>
@@ -21293,7 +21308,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21371,10 +21386,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ97">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21577,7 +21592,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ98">
         <v>0.71</v>
@@ -21705,7 +21720,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21911,7 +21926,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21992,7 +22007,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22198,7 +22213,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ101">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22401,7 +22416,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ102">
         <v>0.89</v>
@@ -22607,7 +22622,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ103">
         <v>1.28</v>
@@ -22735,7 +22750,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22816,7 +22831,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ104">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22941,7 +22956,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23353,7 +23368,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23765,7 +23780,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24177,7 +24192,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24589,7 +24604,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24873,7 +24888,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114">
         <v>0.84</v>
@@ -25001,7 +25016,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25082,7 +25097,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ115">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25207,7 +25222,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25285,10 +25300,10 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ116">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25494,7 +25509,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ117">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25619,7 +25634,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25906,7 +25921,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -26109,7 +26124,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26237,7 +26252,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26315,7 +26330,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ121">
         <v>2.18</v>
@@ -26443,7 +26458,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26524,7 +26539,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ122">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR122">
         <v>1.55</v>
@@ -26933,10 +26948,10 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ124">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27061,7 +27076,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27142,7 +27157,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ125">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27267,7 +27282,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27345,7 +27360,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
         <v>1.39</v>
@@ -27551,7 +27566,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27963,7 +27978,7 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
         <v>1.41</v>
@@ -28378,7 +28393,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28584,7 +28599,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28993,7 +29008,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ134">
         <v>1.18</v>
@@ -29327,7 +29342,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29408,7 +29423,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ136">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29533,7 +29548,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29611,7 +29626,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ137">
         <v>1.28</v>
@@ -29945,7 +29960,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30151,7 +30166,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30232,7 +30247,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30357,7 +30372,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30435,10 +30450,10 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30769,7 +30784,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30847,10 +30862,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR143">
         <v>1.03</v>
@@ -30975,7 +30990,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31053,7 +31068,7 @@
         <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>2.18</v>
@@ -31181,7 +31196,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31259,7 +31274,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31465,10 +31480,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31671,7 +31686,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ147">
         <v>0.89</v>
@@ -31880,7 +31895,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32083,7 +32098,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32211,7 +32226,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32289,10 +32304,10 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR150">
         <v>1.51</v>
@@ -32623,7 +32638,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32829,7 +32844,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33116,7 +33131,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ154">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR154">
         <v>1.13</v>
@@ -33241,7 +33256,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33319,10 +33334,10 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33447,7 +33462,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33731,10 +33746,10 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ157">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -34065,7 +34080,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34143,10 +34158,10 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ159">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34271,7 +34286,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34352,7 +34367,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -34477,7 +34492,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34555,7 +34570,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ161">
         <v>0.71</v>
@@ -34889,7 +34904,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34967,7 +34982,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ163">
         <v>0.84</v>
@@ -35095,7 +35110,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35382,7 +35397,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ165">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR165">
         <v>1.76</v>
@@ -35507,7 +35522,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35791,10 +35806,10 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ167">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR167">
         <v>1.51</v>
@@ -36125,7 +36140,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36203,7 +36218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ169">
         <v>1.39</v>
@@ -36615,7 +36630,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ171">
         <v>0.71</v>
@@ -36824,7 +36839,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ172">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR172">
         <v>1.48</v>
@@ -37027,10 +37042,10 @@
         <v>1.4</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ173">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR173">
         <v>1.58</v>
@@ -37155,7 +37170,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37648,7 +37663,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ176">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>1.02</v>
@@ -37773,7 +37788,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37854,7 +37869,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ177">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR177">
         <v>1.41</v>
@@ -38060,7 +38075,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ178">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38263,7 +38278,7 @@
         <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ179">
         <v>0.89</v>
@@ -38391,7 +38406,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38472,7 +38487,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ180">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR180">
         <v>1.42</v>
@@ -38881,10 +38896,10 @@
         <v>1.27</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ182">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR182">
         <v>1.47</v>
@@ -39293,10 +39308,10 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR184">
         <v>1.48</v>
@@ -39421,7 +39436,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39627,7 +39642,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39833,7 +39848,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -40039,7 +40054,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40120,7 +40135,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ188">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR188">
         <v>1.13</v>
@@ -40245,7 +40260,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40326,7 +40341,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ189">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -40735,7 +40750,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ191">
         <v>0.71</v>
@@ -40941,7 +40956,7 @@
         <v>1.57</v>
       </c>
       <c r="AP192">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ192">
         <v>1.28</v>
@@ -41356,7 +41371,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ194">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR194">
         <v>1.72</v>
@@ -41481,7 +41496,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41562,7 +41577,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ195">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR195">
         <v>1.36</v>
@@ -41687,7 +41702,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -41765,10 +41780,10 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR196">
         <v>1.42</v>
@@ -41971,7 +41986,7 @@
         <v>0.73</v>
       </c>
       <c r="AP197">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197">
         <v>0.89</v>
@@ -42592,7 +42607,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ200">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR200">
         <v>1.1</v>
@@ -42717,7 +42732,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -42795,7 +42810,7 @@
         <v>2</v>
       </c>
       <c r="AP201">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ201">
         <v>2.18</v>
@@ -43001,7 +43016,7 @@
         <v>1.09</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ202">
         <v>1.12</v>
@@ -43129,7 +43144,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43413,7 +43428,7 @@
         <v>1.47</v>
       </c>
       <c r="AP204">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204">
         <v>1.28</v>
@@ -43828,7 +43843,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ206">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR206">
         <v>1.68</v>
@@ -44031,10 +44046,10 @@
         <v>1.15</v>
       </c>
       <c r="AP207">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ207">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR207">
         <v>1.36</v>
@@ -44237,7 +44252,7 @@
         <v>0.92</v>
       </c>
       <c r="AP208">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44446,7 +44461,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ209">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209">
         <v>1.21</v>
@@ -44571,7 +44586,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44652,7 +44667,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ210">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR210">
         <v>1.09</v>
@@ -45061,7 +45076,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ212">
         <v>0.89</v>
@@ -45189,7 +45204,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45267,7 +45282,7 @@
         <v>1.38</v>
       </c>
       <c r="AP213">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ213">
         <v>1.39</v>
@@ -45395,7 +45410,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45888,7 +45903,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ216">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.36</v>
@@ -46013,7 +46028,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46091,7 +46106,7 @@
         <v>2.08</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>2.18</v>
@@ -46300,7 +46315,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ218">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR218">
         <v>1.46</v>
@@ -46506,7 +46521,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ219">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR219">
         <v>1.49</v>
@@ -46712,7 +46727,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ220">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR220">
         <v>1.07</v>
@@ -47124,7 +47139,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ222">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
         <v>1.18</v>
@@ -47249,7 +47264,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47327,7 +47342,7 @@
         <v>1.38</v>
       </c>
       <c r="AP223">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ223">
         <v>1.18</v>
@@ -47533,7 +47548,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ224">
         <v>0.84</v>
@@ -47742,7 +47757,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ225">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR225">
         <v>1.71</v>
@@ -47867,7 +47882,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48073,7 +48088,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48360,7 +48375,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ228">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR228">
         <v>1.44</v>
@@ -48563,7 +48578,7 @@
         <v>1.36</v>
       </c>
       <c r="AP229">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -48769,7 +48784,7 @@
         <v>0.85</v>
       </c>
       <c r="AP230">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ230">
         <v>0.89</v>
@@ -48897,7 +48912,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49181,7 +49196,7 @@
         <v>0.86</v>
       </c>
       <c r="AP232">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ232">
         <v>1</v>
@@ -49309,7 +49324,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49390,7 +49405,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ233">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR233">
         <v>1.24</v>
@@ -49593,7 +49608,7 @@
         <v>2.15</v>
       </c>
       <c r="AP234">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ234">
         <v>2.18</v>
@@ -49927,7 +49942,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50214,7 +50229,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ237">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR237">
         <v>1.16</v>
@@ -50417,7 +50432,7 @@
         <v>0.86</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ238">
         <v>0.71</v>
@@ -50626,7 +50641,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ239">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR239">
         <v>1.49</v>
@@ -50829,10 +50844,10 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR240">
         <v>1.38</v>
@@ -50957,7 +50972,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51035,7 +51050,7 @@
         <v>0.86</v>
       </c>
       <c r="AP241">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ241">
         <v>0.89</v>
@@ -51244,7 +51259,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ242">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR242">
         <v>1.68</v>
@@ -51447,7 +51462,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -51859,7 +51874,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ245">
         <v>1.39</v>
@@ -52068,7 +52083,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ246">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR246">
         <v>1.08</v>
@@ -52271,7 +52286,7 @@
         <v>2.21</v>
       </c>
       <c r="AP247">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ247">
         <v>2.18</v>
@@ -52399,7 +52414,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52477,7 +52492,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ248">
         <v>1.12</v>
@@ -52686,7 +52701,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ249">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR249">
         <v>1.23</v>
@@ -52892,7 +52907,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ250">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.39</v>
@@ -53304,7 +53319,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ252">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR252">
         <v>1.15</v>
@@ -53713,7 +53728,7 @@
         <v>1.35</v>
       </c>
       <c r="AP254">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ254">
         <v>1.28</v>
@@ -54047,7 +54062,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54125,10 +54140,10 @@
         <v>1.44</v>
       </c>
       <c r="AP256">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ256">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR256">
         <v>1.4</v>
@@ -54334,7 +54349,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ257">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54537,10 +54552,10 @@
         <v>1.73</v>
       </c>
       <c r="AP258">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ258">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR258">
         <v>1.52</v>
@@ -54746,7 +54761,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ259">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR259">
         <v>1.09</v>
@@ -54871,7 +54886,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -55077,7 +55092,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55155,7 +55170,7 @@
         <v>1.31</v>
       </c>
       <c r="AP261">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ261">
         <v>1.39</v>
@@ -55361,7 +55376,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ262">
         <v>1</v>
@@ -55570,7 +55585,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ263">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR263">
         <v>1.41</v>
@@ -55979,7 +55994,7 @@
         <v>1.27</v>
       </c>
       <c r="AP265">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ265">
         <v>1.18</v>
@@ -56313,7 +56328,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56394,7 +56409,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ267">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR267">
         <v>1.11</v>
@@ -56600,7 +56615,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ268">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR268">
         <v>1.41</v>
@@ -56725,7 +56740,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -56803,7 +56818,7 @@
         <v>2.13</v>
       </c>
       <c r="AP269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ269">
         <v>2.18</v>
@@ -57009,10 +57024,10 @@
         <v>0.8</v>
       </c>
       <c r="AP270">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ270">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR270">
         <v>1.44</v>
@@ -57627,7 +57642,7 @@
         <v>0.89</v>
       </c>
       <c r="AP273">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ273">
         <v>0.84</v>
@@ -57755,7 +57770,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57833,10 +57848,10 @@
         <v>2.41</v>
       </c>
       <c r="AP274">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ274">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR274">
         <v>1.5</v>
@@ -57961,7 +57976,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58042,7 +58057,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ275">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR275">
         <v>1.69</v>
@@ -58167,7 +58182,7 @@
         <v>248</v>
       </c>
       <c r="P276" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q276">
         <v>3.5</v>
@@ -58248,7 +58263,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ276">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR276">
         <v>1.23</v>
@@ -58660,7 +58675,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ278">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR278">
         <v>1.45</v>
@@ -58785,7 +58800,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q279">
         <v>3.2</v>
@@ -58863,7 +58878,7 @@
         <v>1.13</v>
       </c>
       <c r="AP279">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ279">
         <v>1.12</v>
@@ -59275,7 +59290,7 @@
         <v>1.25</v>
       </c>
       <c r="AP281">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ281">
         <v>1.18</v>
@@ -59403,7 +59418,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59481,7 +59496,7 @@
         <v>0.88</v>
       </c>
       <c r="AP282">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59606,7 +59621,7 @@
         <v>1</v>
       </c>
       <c r="O283" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="P283" t="s">
         <v>93</v>
@@ -59714,10 +59729,10 @@
         <v>6</v>
       </c>
       <c r="AY283">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ283">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA283">
         <v>5</v>
@@ -59766,6 +59781,1242 @@
       </c>
       <c r="BP283">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7747054</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45622.6875</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>83</v>
+      </c>
+      <c r="H284" t="s">
+        <v>81</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>93</v>
+      </c>
+      <c r="P284" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q284">
+        <v>3.6</v>
+      </c>
+      <c r="R284">
+        <v>2.1</v>
+      </c>
+      <c r="S284">
+        <v>3.1</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.63</v>
+      </c>
+      <c r="V284">
+        <v>3.25</v>
+      </c>
+      <c r="W284">
+        <v>1.33</v>
+      </c>
+      <c r="X284">
+        <v>9</v>
+      </c>
+      <c r="Y284">
+        <v>1.07</v>
+      </c>
+      <c r="Z284">
+        <v>3.1</v>
+      </c>
+      <c r="AA284">
+        <v>3.2</v>
+      </c>
+      <c r="AB284">
+        <v>2.15</v>
+      </c>
+      <c r="AC284">
+        <v>1.05</v>
+      </c>
+      <c r="AD284">
+        <v>8</v>
+      </c>
+      <c r="AE284">
+        <v>1.3</v>
+      </c>
+      <c r="AF284">
+        <v>3.1</v>
+      </c>
+      <c r="AG284">
+        <v>1.95</v>
+      </c>
+      <c r="AH284">
+        <v>1.73</v>
+      </c>
+      <c r="AI284">
+        <v>1.8</v>
+      </c>
+      <c r="AJ284">
+        <v>1.91</v>
+      </c>
+      <c r="AK284">
+        <v>1.57</v>
+      </c>
+      <c r="AL284">
+        <v>1.3</v>
+      </c>
+      <c r="AM284">
+        <v>1.36</v>
+      </c>
+      <c r="AN284">
+        <v>1.38</v>
+      </c>
+      <c r="AO284">
+        <v>0.82</v>
+      </c>
+      <c r="AP284">
+        <v>1.29</v>
+      </c>
+      <c r="AQ284">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR284">
+        <v>1.16</v>
+      </c>
+      <c r="AS284">
+        <v>1.34</v>
+      </c>
+      <c r="AT284">
+        <v>2.5</v>
+      </c>
+      <c r="AU284">
+        <v>5</v>
+      </c>
+      <c r="AV284">
+        <v>2</v>
+      </c>
+      <c r="AW284">
+        <v>8</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>13</v>
+      </c>
+      <c r="AZ284">
+        <v>6</v>
+      </c>
+      <c r="BA284">
+        <v>3</v>
+      </c>
+      <c r="BB284">
+        <v>3</v>
+      </c>
+      <c r="BC284">
+        <v>6</v>
+      </c>
+      <c r="BD284">
+        <v>2.05</v>
+      </c>
+      <c r="BE284">
+        <v>7.5</v>
+      </c>
+      <c r="BF284">
+        <v>2.05</v>
+      </c>
+      <c r="BG284">
+        <v>1.37</v>
+      </c>
+      <c r="BH284">
+        <v>2.83</v>
+      </c>
+      <c r="BI284">
+        <v>1.65</v>
+      </c>
+      <c r="BJ284">
+        <v>2.1</v>
+      </c>
+      <c r="BK284">
+        <v>2.08</v>
+      </c>
+      <c r="BL284">
+        <v>1.67</v>
+      </c>
+      <c r="BM284">
+        <v>2.73</v>
+      </c>
+      <c r="BN284">
+        <v>1.4</v>
+      </c>
+      <c r="BO284">
+        <v>3.7</v>
+      </c>
+      <c r="BP284">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7747056</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45622.78125</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>78</v>
+      </c>
+      <c r="H285" t="s">
+        <v>72</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>252</v>
+      </c>
+      <c r="P285" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q285">
+        <v>3</v>
+      </c>
+      <c r="R285">
+        <v>2.2</v>
+      </c>
+      <c r="S285">
+        <v>3.6</v>
+      </c>
+      <c r="T285">
+        <v>1.36</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>2.75</v>
+      </c>
+      <c r="W285">
+        <v>1.4</v>
+      </c>
+      <c r="X285">
+        <v>7</v>
+      </c>
+      <c r="Y285">
+        <v>1.1</v>
+      </c>
+      <c r="Z285">
+        <v>2.1</v>
+      </c>
+      <c r="AA285">
+        <v>3.2</v>
+      </c>
+      <c r="AB285">
+        <v>3.25</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>9</v>
+      </c>
+      <c r="AE285">
+        <v>1.29</v>
+      </c>
+      <c r="AF285">
+        <v>3.4</v>
+      </c>
+      <c r="AG285">
+        <v>1.98</v>
+      </c>
+      <c r="AH285">
+        <v>1.71</v>
+      </c>
+      <c r="AI285">
+        <v>1.73</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>1.34</v>
+      </c>
+      <c r="AL285">
+        <v>1.27</v>
+      </c>
+      <c r="AM285">
+        <v>1.45</v>
+      </c>
+      <c r="AN285">
+        <v>1.33</v>
+      </c>
+      <c r="AO285">
+        <v>1.11</v>
+      </c>
+      <c r="AP285">
+        <v>1.42</v>
+      </c>
+      <c r="AQ285">
+        <v>1.05</v>
+      </c>
+      <c r="AR285">
+        <v>1.47</v>
+      </c>
+      <c r="AS285">
+        <v>1.03</v>
+      </c>
+      <c r="AT285">
+        <v>2.5</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>8</v>
+      </c>
+      <c r="AX285">
+        <v>5</v>
+      </c>
+      <c r="AY285">
+        <v>12</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>6</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>1.9</v>
+      </c>
+      <c r="BE285">
+        <v>7.5</v>
+      </c>
+      <c r="BF285">
+        <v>2.28</v>
+      </c>
+      <c r="BG285">
+        <v>1.37</v>
+      </c>
+      <c r="BH285">
+        <v>3.1</v>
+      </c>
+      <c r="BI285">
+        <v>1.65</v>
+      </c>
+      <c r="BJ285">
+        <v>2.24</v>
+      </c>
+      <c r="BK285">
+        <v>2.04</v>
+      </c>
+      <c r="BL285">
+        <v>1.72</v>
+      </c>
+      <c r="BM285">
+        <v>2.69</v>
+      </c>
+      <c r="BN285">
+        <v>1.47</v>
+      </c>
+      <c r="BO285">
+        <v>3.77</v>
+      </c>
+      <c r="BP285">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7747473</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45622.875</v>
+      </c>
+      <c r="F286">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>84</v>
+      </c>
+      <c r="H286" t="s">
+        <v>80</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>5</v>
+      </c>
+      <c r="N286">
+        <v>6</v>
+      </c>
+      <c r="O286" t="s">
+        <v>197</v>
+      </c>
+      <c r="P286" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q286">
+        <v>9.5</v>
+      </c>
+      <c r="R286">
+        <v>2.2</v>
+      </c>
+      <c r="S286">
+        <v>1.95</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.25</v>
+      </c>
+      <c r="W286">
+        <v>1.33</v>
+      </c>
+      <c r="X286">
+        <v>10</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>7</v>
+      </c>
+      <c r="AA286">
+        <v>4.5</v>
+      </c>
+      <c r="AB286">
+        <v>1.33</v>
+      </c>
+      <c r="AC286">
+        <v>1.06</v>
+      </c>
+      <c r="AD286">
+        <v>8</v>
+      </c>
+      <c r="AE286">
+        <v>1.38</v>
+      </c>
+      <c r="AF286">
+        <v>2.9</v>
+      </c>
+      <c r="AG286">
+        <v>1.85</v>
+      </c>
+      <c r="AH286">
+        <v>1.8</v>
+      </c>
+      <c r="AI286">
+        <v>2.63</v>
+      </c>
+      <c r="AJ286">
+        <v>1.44</v>
+      </c>
+      <c r="AK286">
+        <v>2.49</v>
+      </c>
+      <c r="AL286">
+        <v>1.15</v>
+      </c>
+      <c r="AM286">
+        <v>1.06</v>
+      </c>
+      <c r="AN286">
+        <v>1.56</v>
+      </c>
+      <c r="AO286">
+        <v>2.44</v>
+      </c>
+      <c r="AP286">
+        <v>1.47</v>
+      </c>
+      <c r="AQ286">
+        <v>2.47</v>
+      </c>
+      <c r="AR286">
+        <v>1.43</v>
+      </c>
+      <c r="AS286">
+        <v>1.5</v>
+      </c>
+      <c r="AT286">
+        <v>2.93</v>
+      </c>
+      <c r="AU286">
+        <v>4</v>
+      </c>
+      <c r="AV286">
+        <v>11</v>
+      </c>
+      <c r="AW286">
+        <v>3</v>
+      </c>
+      <c r="AX286">
+        <v>5</v>
+      </c>
+      <c r="AY286">
+        <v>7</v>
+      </c>
+      <c r="AZ286">
+        <v>16</v>
+      </c>
+      <c r="BA286">
+        <v>3</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>5</v>
+      </c>
+      <c r="BD286">
+        <v>5.5</v>
+      </c>
+      <c r="BE286">
+        <v>8.1</v>
+      </c>
+      <c r="BF286">
+        <v>1.23</v>
+      </c>
+      <c r="BG286">
+        <v>1.28</v>
+      </c>
+      <c r="BH286">
+        <v>2.97</v>
+      </c>
+      <c r="BI286">
+        <v>1.53</v>
+      </c>
+      <c r="BJ286">
+        <v>2.16</v>
+      </c>
+      <c r="BK286">
+        <v>2.05</v>
+      </c>
+      <c r="BL286">
+        <v>1.7</v>
+      </c>
+      <c r="BM286">
+        <v>2.51</v>
+      </c>
+      <c r="BN286">
+        <v>1.39</v>
+      </c>
+      <c r="BO286">
+        <v>3.44</v>
+      </c>
+      <c r="BP286">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7747057</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45623.40625</v>
+      </c>
+      <c r="F287">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s">
+        <v>71</v>
+      </c>
+      <c r="H287" t="s">
+        <v>73</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>253</v>
+      </c>
+      <c r="P287" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q287">
+        <v>2.63</v>
+      </c>
+      <c r="R287">
+        <v>1.91</v>
+      </c>
+      <c r="S287">
+        <v>4.5</v>
+      </c>
+      <c r="T287">
+        <v>1.46</v>
+      </c>
+      <c r="U287">
+        <v>2.68</v>
+      </c>
+      <c r="V287">
+        <v>3.35</v>
+      </c>
+      <c r="W287">
+        <v>1.32</v>
+      </c>
+      <c r="X287">
+        <v>8.6</v>
+      </c>
+      <c r="Y287">
+        <v>1.05</v>
+      </c>
+      <c r="Z287">
+        <v>1.94</v>
+      </c>
+      <c r="AA287">
+        <v>3.3</v>
+      </c>
+      <c r="AB287">
+        <v>3.3</v>
+      </c>
+      <c r="AC287">
+        <v>1.06</v>
+      </c>
+      <c r="AD287">
+        <v>7.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.36</v>
+      </c>
+      <c r="AF287">
+        <v>2.88</v>
+      </c>
+      <c r="AG287">
+        <v>2.23</v>
+      </c>
+      <c r="AH287">
+        <v>1.62</v>
+      </c>
+      <c r="AI287">
+        <v>2</v>
+      </c>
+      <c r="AJ287">
+        <v>1.73</v>
+      </c>
+      <c r="AK287">
+        <v>1.23</v>
+      </c>
+      <c r="AL287">
+        <v>1.29</v>
+      </c>
+      <c r="AM287">
+        <v>1.77</v>
+      </c>
+      <c r="AN287">
+        <v>1</v>
+      </c>
+      <c r="AO287">
+        <v>0.83</v>
+      </c>
+      <c r="AP287">
+        <v>0.95</v>
+      </c>
+      <c r="AQ287">
+        <v>0.95</v>
+      </c>
+      <c r="AR287">
+        <v>1.4</v>
+      </c>
+      <c r="AS287">
+        <v>1.29</v>
+      </c>
+      <c r="AT287">
+        <v>2.69</v>
+      </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
+      <c r="AW287">
+        <v>12</v>
+      </c>
+      <c r="AX287">
+        <v>10</v>
+      </c>
+      <c r="AY287">
+        <v>17</v>
+      </c>
+      <c r="AZ287">
+        <v>15</v>
+      </c>
+      <c r="BA287">
+        <v>6</v>
+      </c>
+      <c r="BB287">
+        <v>5</v>
+      </c>
+      <c r="BC287">
+        <v>11</v>
+      </c>
+      <c r="BD287">
+        <v>1.5</v>
+      </c>
+      <c r="BE287">
+        <v>8.5</v>
+      </c>
+      <c r="BF287">
+        <v>3.1</v>
+      </c>
+      <c r="BG287">
+        <v>1.35</v>
+      </c>
+      <c r="BH287">
+        <v>2.97</v>
+      </c>
+      <c r="BI287">
+        <v>1.61</v>
+      </c>
+      <c r="BJ287">
+        <v>2.18</v>
+      </c>
+      <c r="BK287">
+        <v>2.05</v>
+      </c>
+      <c r="BL287">
+        <v>1.7</v>
+      </c>
+      <c r="BM287">
+        <v>2.62</v>
+      </c>
+      <c r="BN287">
+        <v>1.43</v>
+      </c>
+      <c r="BO287">
+        <v>3.52</v>
+      </c>
+      <c r="BP287">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7747058</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45623.6875</v>
+      </c>
+      <c r="F288">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s">
+        <v>79</v>
+      </c>
+      <c r="H288" t="s">
+        <v>75</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>116</v>
+      </c>
+      <c r="P288" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q288">
+        <v>3.15</v>
+      </c>
+      <c r="R288">
+        <v>1.93</v>
+      </c>
+      <c r="S288">
+        <v>3.75</v>
+      </c>
+      <c r="T288">
+        <v>1.53</v>
+      </c>
+      <c r="U288">
+        <v>2.37</v>
+      </c>
+      <c r="V288">
+        <v>3.42</v>
+      </c>
+      <c r="W288">
+        <v>1.28</v>
+      </c>
+      <c r="X288">
+        <v>8.6</v>
+      </c>
+      <c r="Y288">
+        <v>1.05</v>
+      </c>
+      <c r="Z288">
+        <v>2.4</v>
+      </c>
+      <c r="AA288">
+        <v>3.01</v>
+      </c>
+      <c r="AB288">
+        <v>3.14</v>
+      </c>
+      <c r="AC288">
+        <v>1.08</v>
+      </c>
+      <c r="AD288">
+        <v>7.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.44</v>
+      </c>
+      <c r="AF288">
+        <v>2.65</v>
+      </c>
+      <c r="AG288">
+        <v>2.3</v>
+      </c>
+      <c r="AH288">
+        <v>1.53</v>
+      </c>
+      <c r="AI288">
+        <v>2.01</v>
+      </c>
+      <c r="AJ288">
+        <v>1.75</v>
+      </c>
+      <c r="AK288">
+        <v>1.31</v>
+      </c>
+      <c r="AL288">
+        <v>1.31</v>
+      </c>
+      <c r="AM288">
+        <v>1.44</v>
+      </c>
+      <c r="AN288">
+        <v>2</v>
+      </c>
+      <c r="AO288">
+        <v>1.61</v>
+      </c>
+      <c r="AP288">
+        <v>1.89</v>
+      </c>
+      <c r="AQ288">
+        <v>1.68</v>
+      </c>
+      <c r="AR288">
+        <v>1.41</v>
+      </c>
+      <c r="AS288">
+        <v>1.32</v>
+      </c>
+      <c r="AT288">
+        <v>2.73</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>8</v>
+      </c>
+      <c r="AW288">
+        <v>13</v>
+      </c>
+      <c r="AX288">
+        <v>5</v>
+      </c>
+      <c r="AY288">
+        <v>17</v>
+      </c>
+      <c r="AZ288">
+        <v>13</v>
+      </c>
+      <c r="BA288">
+        <v>10</v>
+      </c>
+      <c r="BB288">
+        <v>2</v>
+      </c>
+      <c r="BC288">
+        <v>12</v>
+      </c>
+      <c r="BD288">
+        <v>1.65</v>
+      </c>
+      <c r="BE288">
+        <v>7.7</v>
+      </c>
+      <c r="BF288">
+        <v>2.75</v>
+      </c>
+      <c r="BG288">
+        <v>1.31</v>
+      </c>
+      <c r="BH288">
+        <v>3.12</v>
+      </c>
+      <c r="BI288">
+        <v>1.55</v>
+      </c>
+      <c r="BJ288">
+        <v>2.28</v>
+      </c>
+      <c r="BK288">
+        <v>1.95</v>
+      </c>
+      <c r="BL288">
+        <v>1.77</v>
+      </c>
+      <c r="BM288">
+        <v>2.48</v>
+      </c>
+      <c r="BN288">
+        <v>1.48</v>
+      </c>
+      <c r="BO288">
+        <v>3.32</v>
+      </c>
+      <c r="BP288">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7747055</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45623.78125</v>
+      </c>
+      <c r="F289">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" t="s">
+        <v>82</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>3</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>254</v>
+      </c>
+      <c r="P289" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q289">
+        <v>3.75</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>3.25</v>
+      </c>
+      <c r="T289">
+        <v>1.53</v>
+      </c>
+      <c r="U289">
+        <v>2.38</v>
+      </c>
+      <c r="V289">
+        <v>3.5</v>
+      </c>
+      <c r="W289">
+        <v>1.29</v>
+      </c>
+      <c r="X289">
+        <v>11</v>
+      </c>
+      <c r="Y289">
+        <v>1.05</v>
+      </c>
+      <c r="Z289">
+        <v>2.78</v>
+      </c>
+      <c r="AA289">
+        <v>3.06</v>
+      </c>
+      <c r="AB289">
+        <v>2.64</v>
+      </c>
+      <c r="AC289">
+        <v>1.07</v>
+      </c>
+      <c r="AD289">
+        <v>8</v>
+      </c>
+      <c r="AE289">
+        <v>1.4</v>
+      </c>
+      <c r="AF289">
+        <v>2.88</v>
+      </c>
+      <c r="AG289">
+        <v>2.34</v>
+      </c>
+      <c r="AH289">
+        <v>1.56</v>
+      </c>
+      <c r="AI289">
+        <v>1.91</v>
+      </c>
+      <c r="AJ289">
+        <v>1.8</v>
+      </c>
+      <c r="AK289">
+        <v>1.53</v>
+      </c>
+      <c r="AL289">
+        <v>1.36</v>
+      </c>
+      <c r="AM289">
+        <v>1.33</v>
+      </c>
+      <c r="AN289">
+        <v>1.47</v>
+      </c>
+      <c r="AO289">
+        <v>1.59</v>
+      </c>
+      <c r="AP289">
+        <v>1.56</v>
+      </c>
+      <c r="AQ289">
+        <v>1.5</v>
+      </c>
+      <c r="AR289">
+        <v>1.54</v>
+      </c>
+      <c r="AS289">
+        <v>1.42</v>
+      </c>
+      <c r="AT289">
+        <v>2.96</v>
+      </c>
+      <c r="AU289">
+        <v>11</v>
+      </c>
+      <c r="AV289">
+        <v>0</v>
+      </c>
+      <c r="AW289">
+        <v>6</v>
+      </c>
+      <c r="AX289">
+        <v>10</v>
+      </c>
+      <c r="AY289">
+        <v>17</v>
+      </c>
+      <c r="AZ289">
+        <v>10</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>3</v>
+      </c>
+      <c r="BE289">
+        <v>7.8</v>
+      </c>
+      <c r="BF289">
+        <v>1.57</v>
+      </c>
+      <c r="BG289">
+        <v>1.33</v>
+      </c>
+      <c r="BH289">
+        <v>3.02</v>
+      </c>
+      <c r="BI289">
+        <v>1.59</v>
+      </c>
+      <c r="BJ289">
+        <v>2.22</v>
+      </c>
+      <c r="BK289">
+        <v>1.97</v>
+      </c>
+      <c r="BL289">
+        <v>1.74</v>
+      </c>
+      <c r="BM289">
+        <v>2.55</v>
+      </c>
+      <c r="BN289">
+        <v>1.45</v>
+      </c>
+      <c r="BO289">
+        <v>3.45</v>
+      </c>
+      <c r="BP289">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -616,10 +616,10 @@
     <t>['1', '22', '50', '67']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['16']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -778,7 +778,10 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['22', '43', '81']</t>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['21', '42', '81']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1111,10 +1114,7 @@
     <t>['3', '65', '90+6']</t>
   </si>
   <si>
-    <t>['37', '42', '63', '68', '85']</t>
-  </si>
-  <si>
-    <t>['69', '90+3']</t>
+    <t>['68', '90+3']</t>
   </si>
   <si>
     <t>['89', '90+5']</t>
@@ -1738,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1944,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2150,7 +2150,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2356,7 +2356,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2768,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2974,7 +2974,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3055,7 +3055,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4291,7 +4291,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ14">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4828,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -5034,7 +5034,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5652,7 +5652,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5858,7 +5858,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -6064,7 +6064,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6145,7 +6145,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6888,7 +6888,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7094,7 +7094,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7172,7 +7172,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.68</v>
@@ -7300,7 +7300,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7381,7 +7381,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ29">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -8330,7 +8330,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8536,7 +8536,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -9360,7 +9360,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9438,7 +9438,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9566,7 +9566,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -9772,7 +9772,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10059,7 +10059,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ42">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -10880,7 +10880,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>0.95</v>
@@ -11008,7 +11008,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11214,7 +11214,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11420,7 +11420,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11626,7 +11626,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11832,7 +11832,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12116,7 +12116,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12656,7 +12656,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12862,7 +12862,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12943,7 +12943,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ56">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13146,7 +13146,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
         <v>1.41</v>
@@ -14304,7 +14304,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14510,7 +14510,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14591,7 +14591,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ64">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -15128,7 +15128,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15206,7 +15206,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>1.28</v>
@@ -15334,7 +15334,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15415,7 +15415,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ68">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15540,7 +15540,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15746,7 +15746,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15952,7 +15952,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16158,7 +16158,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16982,7 +16982,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17266,7 +17266,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>0.9399999999999999</v>
@@ -17394,7 +17394,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17475,7 +17475,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ78">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17600,7 +17600,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18218,7 +18218,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18296,7 +18296,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>0.84</v>
@@ -18424,7 +18424,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18505,7 +18505,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18630,7 +18630,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19248,7 +19248,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19454,7 +19454,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19866,7 +19866,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20896,7 +20896,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21102,7 +21102,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21308,7 +21308,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21386,7 +21386,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>1.5</v>
@@ -21720,7 +21720,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21926,7 +21926,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22007,7 +22007,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22210,7 +22210,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ101">
         <v>1.68</v>
@@ -22750,7 +22750,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22956,7 +22956,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23037,7 +23037,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ105">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -23368,7 +23368,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23780,7 +23780,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24192,7 +24192,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -25016,7 +25016,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25222,7 +25222,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25303,7 +25303,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ116">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25634,7 +25634,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25918,7 +25918,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>0.95</v>
@@ -26124,7 +26124,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26252,7 +26252,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26333,7 +26333,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ121">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26458,7 +26458,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26951,7 +26951,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ124">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27076,7 +27076,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27282,7 +27282,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27566,7 +27566,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27775,7 +27775,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ128">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR128">
         <v>1.14</v>
@@ -29214,7 +29214,7 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
         <v>0.84</v>
@@ -29342,7 +29342,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29548,7 +29548,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29960,7 +29960,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30166,7 +30166,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30372,7 +30372,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30450,10 +30450,10 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30784,7 +30784,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30990,7 +30990,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31071,7 +31071,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR144">
         <v>1.53</v>
@@ -31196,7 +31196,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -32226,7 +32226,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32304,7 +32304,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
         <v>1.68</v>
@@ -32638,7 +32638,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32844,7 +32844,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33256,7 +33256,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33462,7 +33462,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33540,10 +33540,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR156">
         <v>1.07</v>
@@ -34080,7 +34080,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34286,7 +34286,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34367,7 +34367,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -34492,7 +34492,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34904,7 +34904,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35110,7 +35110,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35522,7 +35522,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35806,7 +35806,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ167">
         <v>0.95</v>
@@ -36140,7 +36140,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -37170,7 +37170,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37334,7 +37334,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37349,10 +37349,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37364,13 +37364,13 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>200</v>
@@ -37379,160 +37379,160 @@
         <v>93</v>
       </c>
       <c r="Q175">
+        <v>3.6</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>3.2</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>2.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.45</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>7.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.35</v>
+      </c>
+      <c r="AF175">
+        <v>2.84</v>
+      </c>
+      <c r="AG175">
         <v>2.1</v>
       </c>
-      <c r="R175">
-        <v>2.3</v>
-      </c>
-      <c r="S175">
-        <v>6</v>
-      </c>
-      <c r="T175">
+      <c r="AH175">
+        <v>1.65</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.52</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
         <v>1.36</v>
       </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>7</v>
-      </c>
-      <c r="Y175">
-        <v>1.1</v>
-      </c>
-      <c r="Z175">
-        <v>1.5</v>
-      </c>
-      <c r="AA175">
-        <v>4.1</v>
-      </c>
-      <c r="AB175">
-        <v>6</v>
-      </c>
-      <c r="AC175">
-        <v>1.01</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.25</v>
-      </c>
-      <c r="AF175">
-        <v>3.42</v>
-      </c>
-      <c r="AG175">
-        <v>1.85</v>
-      </c>
-      <c r="AH175">
-        <v>1.85</v>
-      </c>
-      <c r="AI175">
-        <v>1.91</v>
-      </c>
-      <c r="AJ175">
+      <c r="AN175">
+        <v>0.88</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.56</v>
+      </c>
+      <c r="AQ175">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR175">
+        <v>1.02</v>
+      </c>
+      <c r="AS175">
+        <v>1.59</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>11</v>
+      </c>
+      <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>16</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.41</v>
+      </c>
+      <c r="BH175">
+        <v>2.6</v>
+      </c>
+      <c r="BI175">
         <v>1.8</v>
       </c>
-      <c r="AK175">
-        <v>1.1</v>
-      </c>
-      <c r="AL175">
-        <v>1.19</v>
-      </c>
-      <c r="AM175">
-        <v>2.4</v>
-      </c>
-      <c r="AN175">
-        <v>2.36</v>
-      </c>
-      <c r="AO175">
-        <v>1.9</v>
-      </c>
-      <c r="AP175">
-        <v>2.42</v>
-      </c>
-      <c r="AQ175">
-        <v>1.41</v>
-      </c>
-      <c r="AR175">
-        <v>1.8</v>
-      </c>
-      <c r="AS175">
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>2.27</v>
+      </c>
+      <c r="BL175">
+        <v>1.53</v>
+      </c>
+      <c r="BM175">
+        <v>3.08</v>
+      </c>
+      <c r="BN175">
+        <v>1.3</v>
+      </c>
+      <c r="BO175">
+        <v>4.6</v>
+      </c>
+      <c r="BP175">
         <v>1.18</v>
-      </c>
-      <c r="AT175">
-        <v>2.98</v>
-      </c>
-      <c r="AU175">
-        <v>4</v>
-      </c>
-      <c r="AV175">
-        <v>3</v>
-      </c>
-      <c r="AW175">
-        <v>4</v>
-      </c>
-      <c r="AX175">
-        <v>1</v>
-      </c>
-      <c r="AY175">
-        <v>8</v>
-      </c>
-      <c r="AZ175">
-        <v>4</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>7</v>
-      </c>
-      <c r="BC175">
-        <v>15</v>
-      </c>
-      <c r="BD175">
-        <v>1.19</v>
-      </c>
-      <c r="BE175">
-        <v>10.5</v>
-      </c>
-      <c r="BF175">
-        <v>5.4</v>
-      </c>
-      <c r="BG175">
-        <v>1.32</v>
-      </c>
-      <c r="BH175">
-        <v>2.98</v>
-      </c>
-      <c r="BI175">
-        <v>1.59</v>
-      </c>
-      <c r="BJ175">
-        <v>2.16</v>
-      </c>
-      <c r="BK175">
-        <v>1.95</v>
-      </c>
-      <c r="BL175">
-        <v>1.77</v>
-      </c>
-      <c r="BM175">
-        <v>2.64</v>
-      </c>
-      <c r="BN175">
-        <v>1.4</v>
-      </c>
-      <c r="BO175">
-        <v>3.65</v>
-      </c>
-      <c r="BP175">
-        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37540,7 +37540,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37555,10 +37555,10 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H176" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -37570,13 +37570,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O176" t="s">
         <v>201</v>
@@ -37585,160 +37585,160 @@
         <v>93</v>
       </c>
       <c r="Q176">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S176">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T176">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U176">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W176">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y176">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z176">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA176">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB176">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD176">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE176">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF176">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH176">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI176">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ176">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK176">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL176">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM176">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN176">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP176">
+        <v>2.42</v>
+      </c>
+      <c r="AQ176">
+        <v>1.41</v>
+      </c>
+      <c r="AR176">
+        <v>1.8</v>
+      </c>
+      <c r="AS176">
+        <v>1.18</v>
+      </c>
+      <c r="AT176">
+        <v>2.98</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>1</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>4</v>
+      </c>
+      <c r="BA176">
+        <v>8</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>15</v>
+      </c>
+      <c r="BD176">
+        <v>1.19</v>
+      </c>
+      <c r="BE176">
+        <v>10.5</v>
+      </c>
+      <c r="BF176">
+        <v>5.4</v>
+      </c>
+      <c r="BG176">
+        <v>1.32</v>
+      </c>
+      <c r="BH176">
+        <v>2.98</v>
+      </c>
+      <c r="BI176">
         <v>1.59</v>
       </c>
-      <c r="AQ176">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR176">
-        <v>1.02</v>
-      </c>
-      <c r="AS176">
-        <v>1.59</v>
-      </c>
-      <c r="AT176">
-        <v>2.61</v>
-      </c>
-      <c r="AU176">
-        <v>11</v>
-      </c>
-      <c r="AV176">
-        <v>0</v>
-      </c>
-      <c r="AW176">
-        <v>5</v>
-      </c>
-      <c r="AX176">
-        <v>8</v>
-      </c>
-      <c r="AY176">
-        <v>16</v>
-      </c>
-      <c r="AZ176">
-        <v>8</v>
-      </c>
-      <c r="BA176">
-        <v>3</v>
-      </c>
-      <c r="BB176">
-        <v>5</v>
-      </c>
-      <c r="BC176">
-        <v>8</v>
-      </c>
-      <c r="BD176">
-        <v>2</v>
-      </c>
-      <c r="BE176">
-        <v>7.5</v>
-      </c>
-      <c r="BF176">
-        <v>2.1</v>
-      </c>
-      <c r="BG176">
-        <v>1.41</v>
-      </c>
-      <c r="BH176">
-        <v>2.6</v>
-      </c>
-      <c r="BI176">
-        <v>1.8</v>
-      </c>
       <c r="BJ176">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK176">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL176">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM176">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN176">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO176">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP176">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37788,7 +37788,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38072,10 +38072,10 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="AQ178">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38406,7 +38406,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -39102,7 +39102,7 @@
         <v>1.2</v>
       </c>
       <c r="AP183">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
         <v>1.12</v>
@@ -39308,7 +39308,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ184">
         <v>1.05</v>
@@ -39436,7 +39436,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39517,7 +39517,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ185">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39642,7 +39642,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39848,7 +39848,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -40054,7 +40054,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40260,7 +40260,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40341,7 +40341,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ189">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -41162,7 +41162,7 @@
         <v>1.73</v>
       </c>
       <c r="AP193">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ193">
         <v>1.41</v>
@@ -41496,7 +41496,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41702,7 +41702,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -41986,7 +41986,7 @@
         <v>0.73</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ197">
         <v>0.89</v>
@@ -42398,7 +42398,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42732,7 +42732,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -42813,7 +42813,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ201">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -43144,7 +43144,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -44458,7 +44458,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ209">
         <v>0.9399999999999999</v>
@@ -44586,7 +44586,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44667,7 +44667,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ210">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR210">
         <v>1.09</v>
@@ -45204,7 +45204,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45410,7 +45410,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -46028,7 +46028,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46106,10 +46106,10 @@
         <v>2.08</v>
       </c>
       <c r="AP217">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR217">
         <v>1.47</v>
@@ -47136,7 +47136,7 @@
         <v>1.69</v>
       </c>
       <c r="AP222">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222">
         <v>1.5</v>
@@ -47264,7 +47264,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47757,7 +47757,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ225">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR225">
         <v>1.71</v>
@@ -47882,7 +47882,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48088,7 +48088,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48578,7 +48578,7 @@
         <v>1.36</v>
       </c>
       <c r="AP229">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -48912,7 +48912,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49324,7 +49324,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49611,7 +49611,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ234">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR234">
         <v>1.41</v>
@@ -49942,7 +49942,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50226,10 +50226,10 @@
         <v>2.33</v>
       </c>
       <c r="AP237">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ237">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR237">
         <v>1.16</v>
@@ -50972,7 +50972,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51462,7 +51462,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -52289,7 +52289,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ247">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR247">
         <v>1.17</v>
@@ -52414,7 +52414,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -53029,7 +53029,7 @@
         <v>2</v>
       </c>
       <c r="O251" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P251" t="s">
         <v>104</v>
@@ -53316,7 +53316,7 @@
         <v>1.19</v>
       </c>
       <c r="AP252">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ252">
         <v>1.05</v>
@@ -54062,7 +54062,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54349,7 +54349,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ257">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54886,7 +54886,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -54967,7 +54967,7 @@
         <v>1</v>
       </c>
       <c r="AQ260">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR260">
         <v>1.41</v>
@@ -55092,7 +55092,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55994,7 +55994,7 @@
         <v>1.27</v>
       </c>
       <c r="AP265">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ265">
         <v>1.18</v>
@@ -56328,7 +56328,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56740,7 +56740,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -56821,7 +56821,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ269">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR269">
         <v>1.38</v>
@@ -57436,7 +57436,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP272">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ272">
         <v>0.89</v>
@@ -57770,7 +57770,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57851,7 +57851,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ274">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AR274">
         <v>1.5</v>
@@ -57976,7 +57976,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58182,7 +58182,7 @@
         <v>248</v>
       </c>
       <c r="P276" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q276">
         <v>3.5</v>
@@ -58800,7 +58800,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q279">
         <v>3.2</v>
@@ -58878,7 +58878,7 @@
         <v>1.13</v>
       </c>
       <c r="AP279">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ279">
         <v>1.12</v>
@@ -59418,7 +59418,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59923,22 +59923,22 @@
         <v>2.5</v>
       </c>
       <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
         <v>5</v>
       </c>
-      <c r="AV284">
-        <v>2</v>
-      </c>
       <c r="AW284">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX284">
         <v>4</v>
       </c>
       <c r="AY284">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ284">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA284">
         <v>3</v>
@@ -60129,7 +60129,7 @@
         <v>2.5</v>
       </c>
       <c r="AU285">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV285">
         <v>4</v>
@@ -60138,13 +60138,13 @@
         <v>8</v>
       </c>
       <c r="AX285">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY285">
+        <v>20</v>
+      </c>
+      <c r="AZ285">
         <v>12</v>
-      </c>
-      <c r="AZ285">
-        <v>9</v>
       </c>
       <c r="BA285">
         <v>6</v>
@@ -60200,7 +60200,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>7747473</v>
+        <v>7747057</v>
       </c>
       <c r="C286" t="s">
         <v>68</v>
@@ -60209,178 +60209,178 @@
         <v>69</v>
       </c>
       <c r="E286" s="2">
-        <v>45622.875</v>
+        <v>45623.40625</v>
       </c>
       <c r="F286">
         <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H286" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
       <c r="M286">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N286">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O286" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="P286" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q286">
-        <v>9.5</v>
+        <v>2.63</v>
       </c>
       <c r="R286">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S286">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="T286">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="U286">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="V286">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W286">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X286">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y286">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z286">
-        <v>7</v>
+        <v>1.94</v>
       </c>
       <c r="AA286">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB286">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="AC286">
         <v>1.06</v>
       </c>
       <c r="AD286">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE286">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF286">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AG286">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="AH286">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AI286">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AJ286">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AK286">
-        <v>2.49</v>
+        <v>1.23</v>
       </c>
       <c r="AL286">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AM286">
-        <v>1.06</v>
+        <v>1.77</v>
       </c>
       <c r="AN286">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO286">
-        <v>2.44</v>
+        <v>0.83</v>
       </c>
       <c r="AP286">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
       <c r="AQ286">
-        <v>2.47</v>
+        <v>0.95</v>
       </c>
       <c r="AR286">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS286">
+        <v>1.29</v>
+      </c>
+      <c r="AT286">
+        <v>2.69</v>
+      </c>
+      <c r="AU286">
+        <v>6</v>
+      </c>
+      <c r="AV286">
+        <v>6</v>
+      </c>
+      <c r="AW286">
+        <v>12</v>
+      </c>
+      <c r="AX286">
+        <v>10</v>
+      </c>
+      <c r="AY286">
+        <v>27</v>
+      </c>
+      <c r="AZ286">
+        <v>17</v>
+      </c>
+      <c r="BA286">
+        <v>6</v>
+      </c>
+      <c r="BB286">
+        <v>5</v>
+      </c>
+      <c r="BC286">
+        <v>11</v>
+      </c>
+      <c r="BD286">
         <v>1.5</v>
       </c>
-      <c r="AT286">
-        <v>2.93</v>
-      </c>
-      <c r="AU286">
-        <v>4</v>
-      </c>
-      <c r="AV286">
-        <v>11</v>
-      </c>
-      <c r="AW286">
-        <v>3</v>
-      </c>
-      <c r="AX286">
-        <v>5</v>
-      </c>
-      <c r="AY286">
-        <v>7</v>
-      </c>
-      <c r="AZ286">
-        <v>16</v>
-      </c>
-      <c r="BA286">
-        <v>3</v>
-      </c>
-      <c r="BB286">
-        <v>2</v>
-      </c>
-      <c r="BC286">
-        <v>5</v>
-      </c>
-      <c r="BD286">
-        <v>5.5</v>
-      </c>
       <c r="BE286">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="BF286">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="BG286">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BH286">
         <v>2.97</v>
       </c>
       <c r="BI286">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="BJ286">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="BK286">
         <v>2.05</v>
@@ -60389,16 +60389,16 @@
         <v>1.7</v>
       </c>
       <c r="BM286">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="BN286">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="BO286">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="BP286">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="287" spans="1:68">
@@ -60406,7 +60406,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>7747057</v>
+        <v>7747058</v>
       </c>
       <c r="C287" t="s">
         <v>68</v>
@@ -60415,25 +60415,25 @@
         <v>69</v>
       </c>
       <c r="E287" s="2">
-        <v>45623.40625</v>
+        <v>45623.6875</v>
       </c>
       <c r="F287">
         <v>14</v>
       </c>
       <c r="G287" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H287" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
       <c r="K287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L287">
         <v>1</v>
@@ -60445,31 +60445,31 @@
         <v>3</v>
       </c>
       <c r="O287" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P287" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q287">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="R287">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S287">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T287">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U287">
-        <v>2.68</v>
+        <v>2.37</v>
       </c>
       <c r="V287">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="W287">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X287">
         <v>8.6</v>
@@ -60478,133 +60478,133 @@
         <v>1.05</v>
       </c>
       <c r="Z287">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="AA287">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="AB287">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="AC287">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD287">
         <v>7.5</v>
       </c>
       <c r="AE287">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AF287">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="AG287">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AH287">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AI287">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AJ287">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AK287">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AL287">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AM287">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AN287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO287">
-        <v>0.83</v>
+        <v>1.61</v>
       </c>
       <c r="AP287">
-        <v>0.95</v>
+        <v>1.89</v>
       </c>
       <c r="AQ287">
-        <v>0.95</v>
+        <v>1.68</v>
       </c>
       <c r="AR287">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS287">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT287">
-        <v>2.69</v>
+        <v>2.73</v>
       </c>
       <c r="AU287">
+        <v>4</v>
+      </c>
+      <c r="AV287">
+        <v>8</v>
+      </c>
+      <c r="AW287">
+        <v>13</v>
+      </c>
+      <c r="AX287">
         <v>5</v>
-      </c>
-      <c r="AV287">
-        <v>5</v>
-      </c>
-      <c r="AW287">
-        <v>12</v>
-      </c>
-      <c r="AX287">
-        <v>10</v>
       </c>
       <c r="AY287">
         <v>17</v>
       </c>
       <c r="AZ287">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA287">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB287">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC287">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD287">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BE287">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="BF287">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BG287">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BH287">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="BI287">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="BJ287">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="BK287">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BL287">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BM287">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="BN287">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BO287">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="BP287">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="288" spans="1:68">
@@ -60612,7 +60612,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>7747058</v>
+        <v>7747055</v>
       </c>
       <c r="C288" t="s">
         <v>68</v>
@@ -60621,196 +60621,196 @@
         <v>69</v>
       </c>
       <c r="E288" s="2">
-        <v>45623.6875</v>
+        <v>45623.78125</v>
       </c>
       <c r="F288">
         <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H288" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288">
         <v>0</v>
       </c>
       <c r="K288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N288">
         <v>3</v>
       </c>
       <c r="O288" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="P288" t="s">
-        <v>367</v>
+        <v>93</v>
       </c>
       <c r="Q288">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="R288">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T288">
         <v>1.53</v>
       </c>
       <c r="U288">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V288">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="W288">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X288">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Y288">
         <v>1.05</v>
       </c>
       <c r="Z288">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="AA288">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="AB288">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="AC288">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD288">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE288">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AF288">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AG288">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AH288">
+        <v>1.56</v>
+      </c>
+      <c r="AI288">
+        <v>1.91</v>
+      </c>
+      <c r="AJ288">
+        <v>1.8</v>
+      </c>
+      <c r="AK288">
         <v>1.53</v>
       </c>
-      <c r="AI288">
-        <v>2.01</v>
-      </c>
-      <c r="AJ288">
-        <v>1.75</v>
-      </c>
-      <c r="AK288">
-        <v>1.31</v>
-      </c>
       <c r="AL288">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AM288">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AN288">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AO288">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AP288">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AQ288">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AR288">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS288">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AT288">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AU288">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV288">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW288">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX288">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY288">
         <v>17</v>
       </c>
       <c r="AZ288">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA288">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC288">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD288">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="BE288">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="BF288">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="BG288">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BH288">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="BI288">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BJ288">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="BK288">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="BL288">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BM288">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BN288">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BO288">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="BP288">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="289" spans="1:68">
@@ -60818,7 +60818,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>7747055</v>
+        <v>7747472</v>
       </c>
       <c r="C289" t="s">
         <v>68</v>
@@ -60827,196 +60827,196 @@
         <v>69</v>
       </c>
       <c r="E289" s="2">
-        <v>45623.78125</v>
+        <v>45623.88541666666</v>
       </c>
       <c r="F289">
         <v>14</v>
       </c>
       <c r="G289" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H289" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J289">
         <v>0</v>
       </c>
       <c r="K289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L289">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
       <c r="N289">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O289" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="P289" t="s">
         <v>93</v>
       </c>
       <c r="Q289">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="R289">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="S289">
-        <v>3.25</v>
+        <v>1.97</v>
       </c>
       <c r="T289">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U289">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="V289">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="W289">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X289">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y289">
         <v>1.05</v>
       </c>
       <c r="Z289">
-        <v>2.78</v>
+        <v>5.81</v>
       </c>
       <c r="AA289">
-        <v>3.06</v>
+        <v>4.17</v>
       </c>
       <c r="AB289">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="AC289">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD289">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE289">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF289">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AG289">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="AH289">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AI289">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="AJ289">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AK289">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="AL289">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AM289">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AN289">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AO289">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="AP289">
         <v>1.56</v>
       </c>
       <c r="AQ289">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AR289">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="AS289">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AT289">
-        <v>2.96</v>
+        <v>2.73</v>
       </c>
       <c r="AU289">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AV289">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW289">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX289">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AY289">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AZ289">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC289">
         <v>9</v>
       </c>
       <c r="BD289">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="BE289">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="BF289">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="BG289">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BH289">
-        <v>3.02</v>
+        <v>3.45</v>
       </c>
       <c r="BI289">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="BJ289">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="BK289">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="BL289">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BM289">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="BN289">
         <v>1.45</v>
       </c>
       <c r="BO289">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP289">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -60553,10 +60553,10 @@
         <v>5</v>
       </c>
       <c r="AY287">
+        <v>20</v>
+      </c>
+      <c r="AZ287">
         <v>17</v>
-      </c>
-      <c r="AZ287">
-        <v>13</v>
       </c>
       <c r="BA287">
         <v>10</v>
@@ -60953,22 +60953,22 @@
         <v>2.73</v>
       </c>
       <c r="AU289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV289">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY289">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ289">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA289">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,12 @@
     <t>['21', '42', '81']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['11', '71']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -1015,9 +1021,6 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['79', '90']</t>
   </si>
   <si>
@@ -1118,6 +1121,9 @@
   </si>
   <si>
     <t>['89', '90+5']</t>
+  </si>
+  <si>
+    <t>['60', '84', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1744,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1944,7 +1950,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2150,7 +2156,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2228,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2356,7 +2362,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2640,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ6">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2768,7 +2774,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2849,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2974,7 +2980,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>2.44</v>
@@ -3180,7 +3186,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4082,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.12</v>
@@ -4622,7 +4628,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4700,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4828,7 +4834,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4906,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>1.28</v>
@@ -5034,7 +5040,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5115,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5527,7 +5533,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5652,7 +5658,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5858,7 +5864,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -6064,7 +6070,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6142,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ23">
         <v>2.44</v>
@@ -6348,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24">
         <v>1.12</v>
@@ -6476,7 +6482,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6888,7 +6894,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7094,7 +7100,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7300,7 +7306,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7584,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>0.84</v>
@@ -7999,7 +8005,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -8330,7 +8336,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8536,7 +8542,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8614,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ35">
         <v>1.05</v>
@@ -8823,7 +8829,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -9029,7 +9035,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -9232,7 +9238,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ38">
         <v>1.28</v>
@@ -9360,7 +9366,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9441,7 +9447,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9566,7 +9572,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9772,7 +9778,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9850,7 +9856,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>1.68</v>
@@ -10262,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ43">
         <v>1.12</v>
@@ -11008,7 +11014,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11086,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
         <v>0.89</v>
@@ -11214,7 +11220,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11420,7 +11426,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11501,7 +11507,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11626,7 +11632,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11707,7 +11713,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11832,7 +11838,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12119,7 +12125,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ54">
         <v>0.84</v>
@@ -12656,7 +12662,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12737,7 +12743,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12862,7 +12868,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13352,7 +13358,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ58">
         <v>1.12</v>
@@ -13764,7 +13770,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ60">
         <v>1.68</v>
@@ -14304,7 +14310,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14385,7 +14391,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14510,7 +14516,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14588,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
         <v>2.11</v>
@@ -15003,7 +15009,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15128,7 +15134,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15334,7 +15340,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15540,7 +15546,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15746,7 +15752,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15952,7 +15958,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16033,7 +16039,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -16158,7 +16164,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16239,7 +16245,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -16442,10 +16448,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16648,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ74">
         <v>0.95</v>
@@ -16854,7 +16860,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>1.41</v>
@@ -16982,7 +16988,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17060,7 +17066,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>1.39</v>
@@ -17269,7 +17275,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17394,7 +17400,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17472,7 +17478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ78">
         <v>2.11</v>
@@ -17600,7 +17606,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17681,7 +17687,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -18218,7 +18224,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18424,7 +18430,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18630,7 +18636,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18836,7 +18842,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19123,7 +19129,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -19248,7 +19254,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19454,7 +19460,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19535,7 +19541,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19866,7 +19872,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20150,7 +20156,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -20356,7 +20362,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20771,7 +20777,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20896,7 +20902,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21102,7 +21108,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21180,7 +21186,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ96">
         <v>1.41</v>
@@ -21308,7 +21314,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21389,7 +21395,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21595,7 +21601,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21720,7 +21726,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21926,7 +21932,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22750,7 +22756,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22956,7 +22962,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23243,7 +23249,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23368,7 +23374,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23652,10 +23658,10 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23780,7 +23786,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24192,7 +24198,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24270,7 +24276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -25016,7 +25022,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25222,7 +25228,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25634,7 +25640,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26252,7 +26258,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26458,7 +26464,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -27076,7 +27082,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27157,7 +27163,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ125">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27282,7 +27288,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27360,7 +27366,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ126">
         <v>1.39</v>
@@ -27772,7 +27778,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ128">
         <v>2.11</v>
@@ -27978,7 +27984,7 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ129">
         <v>1.41</v>
@@ -28184,7 +28190,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
         <v>0.89</v>
@@ -28599,7 +28605,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28805,7 +28811,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.43</v>
@@ -29011,7 +29017,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ134">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR134">
         <v>1.24</v>
@@ -29342,7 +29348,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29548,7 +29554,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29832,7 +29838,7 @@
         <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ138">
         <v>1.39</v>
@@ -29960,7 +29966,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30166,7 +30172,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30247,7 +30253,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30372,7 +30378,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30784,7 +30790,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30862,7 +30868,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143">
         <v>1.05</v>
@@ -30990,7 +30996,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31068,7 +31074,7 @@
         <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144">
         <v>2.11</v>
@@ -31196,7 +31202,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31480,10 +31486,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -32226,7 +32232,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32638,7 +32644,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32719,7 +32725,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ152">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32844,7 +32850,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32922,7 +32928,7 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ153">
         <v>1.39</v>
@@ -33256,7 +33262,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33334,10 +33340,10 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33462,7 +33468,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33952,7 +33958,7 @@
         <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ158">
         <v>1.28</v>
@@ -34080,7 +34086,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34161,7 +34167,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34286,7 +34292,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34492,7 +34498,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34573,7 +34579,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ161">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR161">
         <v>1.57</v>
@@ -34904,7 +34910,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34982,7 +34988,7 @@
         <v>0.8</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
         <v>0.84</v>
@@ -35110,7 +35116,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35191,7 +35197,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35522,7 +35528,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -36140,7 +36146,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36424,7 +36430,7 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170">
         <v>1.28</v>
@@ -36633,7 +36639,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36839,7 +36845,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ172">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR172">
         <v>1.48</v>
@@ -37170,7 +37176,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37248,7 +37254,7 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ174">
         <v>0.84</v>
@@ -37457,7 +37463,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR175">
         <v>1.02</v>
@@ -37788,7 +37794,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38406,7 +38412,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -39436,7 +39442,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39642,7 +39648,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39848,7 +39854,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -39929,7 +39935,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR187">
         <v>1.35</v>
@@ -40054,7 +40060,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40132,10 +40138,10 @@
         <v>1.82</v>
       </c>
       <c r="AP188">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR188">
         <v>1.13</v>
@@ -40260,7 +40266,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40338,7 +40344,7 @@
         <v>2.42</v>
       </c>
       <c r="AP189">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ189">
         <v>2.44</v>
@@ -40750,10 +40756,10 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ191">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR191">
         <v>1.09</v>
@@ -41371,7 +41377,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ194">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR194">
         <v>1.72</v>
@@ -41496,7 +41502,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41702,7 +41708,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -41780,7 +41786,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ196">
         <v>1.05</v>
@@ -42607,7 +42613,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ200">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR200">
         <v>1.1</v>
@@ -42732,7 +42738,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -43144,7 +43150,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43225,7 +43231,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ203">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43428,7 +43434,7 @@
         <v>1.47</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ204">
         <v>1.28</v>
@@ -43637,7 +43643,7 @@
         <v>1</v>
       </c>
       <c r="AQ205">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR205">
         <v>1.37</v>
@@ -43843,7 +43849,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ206">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR206">
         <v>1.68</v>
@@ -44461,7 +44467,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ209">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR209">
         <v>1.21</v>
@@ -44586,7 +44592,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -44664,7 +44670,7 @@
         <v>2.46</v>
       </c>
       <c r="AP210">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ210">
         <v>2.44</v>
@@ -44870,7 +44876,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ211">
         <v>0.84</v>
@@ -45076,7 +45082,7 @@
         <v>0.92</v>
       </c>
       <c r="AP212">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ212">
         <v>0.89</v>
@@ -45204,7 +45210,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45410,7 +45416,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -46028,7 +46034,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46521,7 +46527,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ219">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR219">
         <v>1.49</v>
@@ -46724,7 +46730,7 @@
         <v>1.14</v>
       </c>
       <c r="AP220">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ220">
         <v>1.05</v>
@@ -47139,7 +47145,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR222">
         <v>1.18</v>
@@ -47264,7 +47270,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47345,7 +47351,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ223">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR223">
         <v>1.41</v>
@@ -47882,7 +47888,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -47963,7 +47969,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR226">
         <v>1.08</v>
@@ -48088,7 +48094,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48784,7 +48790,7 @@
         <v>0.85</v>
       </c>
       <c r="AP230">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ230">
         <v>0.89</v>
@@ -48912,7 +48918,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49324,7 +49330,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49402,7 +49408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ233">
         <v>1.68</v>
@@ -49608,7 +49614,7 @@
         <v>2.15</v>
       </c>
       <c r="AP234">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ234">
         <v>2.11</v>
@@ -49817,7 +49823,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR235">
         <v>1.36</v>
@@ -49942,7 +49948,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50435,7 +50441,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ238">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50641,7 +50647,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ239">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR239">
         <v>1.49</v>
@@ -50844,7 +50850,7 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ240">
         <v>0.95</v>
@@ -50972,7 +50978,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51874,7 +51880,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ245">
         <v>1.39</v>
@@ -52080,7 +52086,7 @@
         <v>1.47</v>
       </c>
       <c r="AP246">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ246">
         <v>1.68</v>
@@ -52286,7 +52292,7 @@
         <v>2.21</v>
       </c>
       <c r="AP247">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ247">
         <v>2.11</v>
@@ -52414,7 +52420,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52698,7 +52704,7 @@
         <v>0.93</v>
       </c>
       <c r="AP249">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ249">
         <v>0.95</v>
@@ -52907,7 +52913,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR250">
         <v>1.39</v>
@@ -53937,7 +53943,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ255">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR255">
         <v>1.37</v>
@@ -54062,7 +54068,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54555,7 +54561,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ258">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR258">
         <v>1.52</v>
@@ -54758,7 +54764,7 @@
         <v>0.88</v>
       </c>
       <c r="AP259">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ259">
         <v>0.95</v>
@@ -54886,7 +54892,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -55092,7 +55098,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55170,7 +55176,7 @@
         <v>1.31</v>
       </c>
       <c r="AP261">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ261">
         <v>1.39</v>
@@ -55376,7 +55382,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ262">
         <v>1</v>
@@ -55585,7 +55591,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ263">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR263">
         <v>1.41</v>
@@ -55788,7 +55794,7 @@
         <v>1.53</v>
       </c>
       <c r="AP264">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ264">
         <v>1.41</v>
@@ -55997,7 +56003,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ265">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR265">
         <v>1.36</v>
@@ -56328,7 +56334,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56740,7 +56746,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -57024,10 +57030,10 @@
         <v>0.8</v>
       </c>
       <c r="AP270">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ270">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR270">
         <v>1.44</v>
@@ -57233,7 +57239,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ271">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR271">
         <v>1.41</v>
@@ -57770,7 +57776,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57976,7 +57982,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58182,7 +58188,7 @@
         <v>248</v>
       </c>
       <c r="P276" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q276">
         <v>3.5</v>
@@ -58260,10 +58266,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP276">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ276">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR276">
         <v>1.23</v>
@@ -58675,7 +58681,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ278">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR278">
         <v>1.45</v>
@@ -58800,7 +58806,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q279">
         <v>3.2</v>
@@ -59084,7 +59090,7 @@
         <v>1.44</v>
       </c>
       <c r="AP280">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ280">
         <v>1.41</v>
@@ -59290,10 +59296,10 @@
         <v>1.25</v>
       </c>
       <c r="AP281">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ281">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR281">
         <v>1.42</v>
@@ -59418,7 +59424,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59496,7 +59502,7 @@
         <v>0.88</v>
       </c>
       <c r="AP282">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59908,10 +59914,10 @@
         <v>0.82</v>
       </c>
       <c r="AP284">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ284">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR284">
         <v>1.16</v>
@@ -60242,7 +60248,7 @@
         <v>253</v>
       </c>
       <c r="P286" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60448,7 +60454,7 @@
         <v>254</v>
       </c>
       <c r="P287" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q287">
         <v>3.15</v>
@@ -60732,10 +60738,10 @@
         <v>1.59</v>
       </c>
       <c r="AP288">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ288">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR288">
         <v>1.54</v>
@@ -60759,10 +60765,10 @@
         <v>10</v>
       </c>
       <c r="AY288">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ288">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA288">
         <v>6</v>
@@ -61017,6 +61023,830 @@
       </c>
       <c r="BP289">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7754636</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45626.40625</v>
+      </c>
+      <c r="F290">
+        <v>15</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>81</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
+        <v>4</v>
+      </c>
+      <c r="O290" t="s">
+        <v>256</v>
+      </c>
+      <c r="P290" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q290">
+        <v>3.6</v>
+      </c>
+      <c r="R290">
+        <v>2</v>
+      </c>
+      <c r="S290">
+        <v>3.25</v>
+      </c>
+      <c r="T290">
+        <v>1.5</v>
+      </c>
+      <c r="U290">
+        <v>2.5</v>
+      </c>
+      <c r="V290">
+        <v>3.4</v>
+      </c>
+      <c r="W290">
+        <v>1.3</v>
+      </c>
+      <c r="X290">
+        <v>10</v>
+      </c>
+      <c r="Y290">
+        <v>1.06</v>
+      </c>
+      <c r="Z290">
+        <v>2.7</v>
+      </c>
+      <c r="AA290">
+        <v>3</v>
+      </c>
+      <c r="AB290">
+        <v>2.4</v>
+      </c>
+      <c r="AC290">
+        <v>1.11</v>
+      </c>
+      <c r="AD290">
+        <v>7.25</v>
+      </c>
+      <c r="AE290">
+        <v>1.4</v>
+      </c>
+      <c r="AF290">
+        <v>3.02</v>
+      </c>
+      <c r="AG290">
+        <v>2.1</v>
+      </c>
+      <c r="AH290">
+        <v>1.6</v>
+      </c>
+      <c r="AI290">
+        <v>1.8</v>
+      </c>
+      <c r="AJ290">
+        <v>1.91</v>
+      </c>
+      <c r="AK290">
+        <v>1.37</v>
+      </c>
+      <c r="AL290">
+        <v>1.36</v>
+      </c>
+      <c r="AM290">
+        <v>1.32</v>
+      </c>
+      <c r="AN290">
+        <v>1.28</v>
+      </c>
+      <c r="AO290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP290">
+        <v>1.21</v>
+      </c>
+      <c r="AQ290">
+        <v>1.05</v>
+      </c>
+      <c r="AR290">
+        <v>1.14</v>
+      </c>
+      <c r="AS290">
+        <v>1.34</v>
+      </c>
+      <c r="AT290">
+        <v>2.48</v>
+      </c>
+      <c r="AU290">
+        <v>5</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>7</v>
+      </c>
+      <c r="AX290">
+        <v>7</v>
+      </c>
+      <c r="AY290">
+        <v>12</v>
+      </c>
+      <c r="AZ290">
+        <v>12</v>
+      </c>
+      <c r="BA290">
+        <v>6</v>
+      </c>
+      <c r="BB290">
+        <v>1</v>
+      </c>
+      <c r="BC290">
+        <v>7</v>
+      </c>
+      <c r="BD290">
+        <v>2.1</v>
+      </c>
+      <c r="BE290">
+        <v>5.85</v>
+      </c>
+      <c r="BF290">
+        <v>2.05</v>
+      </c>
+      <c r="BG290">
+        <v>1.23</v>
+      </c>
+      <c r="BH290">
+        <v>3.7</v>
+      </c>
+      <c r="BI290">
+        <v>1.44</v>
+      </c>
+      <c r="BJ290">
+        <v>2.55</v>
+      </c>
+      <c r="BK290">
+        <v>1.78</v>
+      </c>
+      <c r="BL290">
+        <v>1.9</v>
+      </c>
+      <c r="BM290">
+        <v>2.32</v>
+      </c>
+      <c r="BN290">
+        <v>1.52</v>
+      </c>
+      <c r="BO290">
+        <v>3.3</v>
+      </c>
+      <c r="BP290">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7754637</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F291">
+        <v>15</v>
+      </c>
+      <c r="G291" t="s">
+        <v>83</v>
+      </c>
+      <c r="H291" t="s">
+        <v>78</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>187</v>
+      </c>
+      <c r="P291" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q291">
+        <v>3</v>
+      </c>
+      <c r="R291">
+        <v>2.1</v>
+      </c>
+      <c r="S291">
+        <v>3.75</v>
+      </c>
+      <c r="T291">
+        <v>1.44</v>
+      </c>
+      <c r="U291">
+        <v>2.63</v>
+      </c>
+      <c r="V291">
+        <v>3.25</v>
+      </c>
+      <c r="W291">
+        <v>1.33</v>
+      </c>
+      <c r="X291">
+        <v>9</v>
+      </c>
+      <c r="Y291">
+        <v>1.07</v>
+      </c>
+      <c r="Z291">
+        <v>2.5</v>
+      </c>
+      <c r="AA291">
+        <v>3.1</v>
+      </c>
+      <c r="AB291">
+        <v>2.75</v>
+      </c>
+      <c r="AC291">
+        <v>1.01</v>
+      </c>
+      <c r="AD291">
+        <v>7.8</v>
+      </c>
+      <c r="AE291">
+        <v>1.33</v>
+      </c>
+      <c r="AF291">
+        <v>3.35</v>
+      </c>
+      <c r="AG291">
+        <v>2</v>
+      </c>
+      <c r="AH291">
+        <v>1.7</v>
+      </c>
+      <c r="AI291">
+        <v>1.8</v>
+      </c>
+      <c r="AJ291">
+        <v>1.91</v>
+      </c>
+      <c r="AK291">
+        <v>1.3</v>
+      </c>
+      <c r="AL291">
+        <v>1.29</v>
+      </c>
+      <c r="AM291">
+        <v>1.49</v>
+      </c>
+      <c r="AN291">
+        <v>1.29</v>
+      </c>
+      <c r="AO291">
+        <v>1.18</v>
+      </c>
+      <c r="AP291">
+        <v>1.28</v>
+      </c>
+      <c r="AQ291">
+        <v>1.17</v>
+      </c>
+      <c r="AR291">
+        <v>1.2</v>
+      </c>
+      <c r="AS291">
+        <v>1.22</v>
+      </c>
+      <c r="AT291">
+        <v>2.42</v>
+      </c>
+      <c r="AU291">
+        <v>7</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>5</v>
+      </c>
+      <c r="AX291">
+        <v>9</v>
+      </c>
+      <c r="AY291">
+        <v>12</v>
+      </c>
+      <c r="AZ291">
+        <v>13</v>
+      </c>
+      <c r="BA291">
+        <v>8</v>
+      </c>
+      <c r="BB291">
+        <v>1</v>
+      </c>
+      <c r="BC291">
+        <v>9</v>
+      </c>
+      <c r="BD291">
+        <v>1.58</v>
+      </c>
+      <c r="BE291">
+        <v>7</v>
+      </c>
+      <c r="BF291">
+        <v>2.82</v>
+      </c>
+      <c r="BG291">
+        <v>1.31</v>
+      </c>
+      <c r="BH291">
+        <v>3.1</v>
+      </c>
+      <c r="BI291">
+        <v>1.55</v>
+      </c>
+      <c r="BJ291">
+        <v>2.22</v>
+      </c>
+      <c r="BK291">
+        <v>2.02</v>
+      </c>
+      <c r="BL291">
+        <v>1.68</v>
+      </c>
+      <c r="BM291">
+        <v>2.72</v>
+      </c>
+      <c r="BN291">
+        <v>1.4</v>
+      </c>
+      <c r="BO291">
+        <v>4</v>
+      </c>
+      <c r="BP291">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7754638</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F292">
+        <v>15</v>
+      </c>
+      <c r="G292" t="s">
+        <v>76</v>
+      </c>
+      <c r="H292" t="s">
+        <v>84</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>257</v>
+      </c>
+      <c r="P292" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q292">
+        <v>2.88</v>
+      </c>
+      <c r="R292">
+        <v>1.91</v>
+      </c>
+      <c r="S292">
+        <v>4.5</v>
+      </c>
+      <c r="T292">
+        <v>1.57</v>
+      </c>
+      <c r="U292">
+        <v>2.25</v>
+      </c>
+      <c r="V292">
+        <v>3.75</v>
+      </c>
+      <c r="W292">
+        <v>1.25</v>
+      </c>
+      <c r="X292">
+        <v>13</v>
+      </c>
+      <c r="Y292">
+        <v>1.04</v>
+      </c>
+      <c r="Z292">
+        <v>1.7</v>
+      </c>
+      <c r="AA292">
+        <v>3.35</v>
+      </c>
+      <c r="AB292">
+        <v>5.5</v>
+      </c>
+      <c r="AC292">
+        <v>1.11</v>
+      </c>
+      <c r="AD292">
+        <v>6.9</v>
+      </c>
+      <c r="AE292">
+        <v>1.51</v>
+      </c>
+      <c r="AF292">
+        <v>2.47</v>
+      </c>
+      <c r="AG292">
+        <v>2.35</v>
+      </c>
+      <c r="AH292">
+        <v>1.53</v>
+      </c>
+      <c r="AI292">
+        <v>2.2</v>
+      </c>
+      <c r="AJ292">
+        <v>1.62</v>
+      </c>
+      <c r="AK292">
+        <v>1.21</v>
+      </c>
+      <c r="AL292">
+        <v>1.31</v>
+      </c>
+      <c r="AM292">
+        <v>1.59</v>
+      </c>
+      <c r="AN292">
+        <v>1.56</v>
+      </c>
+      <c r="AO292">
+        <v>0.71</v>
+      </c>
+      <c r="AP292">
+        <v>1.63</v>
+      </c>
+      <c r="AQ292">
+        <v>0.67</v>
+      </c>
+      <c r="AR292">
+        <v>1.57</v>
+      </c>
+      <c r="AS292">
+        <v>1.25</v>
+      </c>
+      <c r="AT292">
+        <v>2.82</v>
+      </c>
+      <c r="AU292">
+        <v>4</v>
+      </c>
+      <c r="AV292">
+        <v>4</v>
+      </c>
+      <c r="AW292">
+        <v>7</v>
+      </c>
+      <c r="AX292">
+        <v>7</v>
+      </c>
+      <c r="AY292">
+        <v>11</v>
+      </c>
+      <c r="AZ292">
+        <v>11</v>
+      </c>
+      <c r="BA292">
+        <v>3</v>
+      </c>
+      <c r="BB292">
+        <v>6</v>
+      </c>
+      <c r="BC292">
+        <v>9</v>
+      </c>
+      <c r="BD292">
+        <v>1.58</v>
+      </c>
+      <c r="BE292">
+        <v>7.5</v>
+      </c>
+      <c r="BF292">
+        <v>3</v>
+      </c>
+      <c r="BG292">
+        <v>1.36</v>
+      </c>
+      <c r="BH292">
+        <v>2.88</v>
+      </c>
+      <c r="BI292">
+        <v>1.64</v>
+      </c>
+      <c r="BJ292">
+        <v>2.2</v>
+      </c>
+      <c r="BK292">
+        <v>2.05</v>
+      </c>
+      <c r="BL292">
+        <v>1.7</v>
+      </c>
+      <c r="BM292">
+        <v>2.68</v>
+      </c>
+      <c r="BN292">
+        <v>1.41</v>
+      </c>
+      <c r="BO292">
+        <v>3.62</v>
+      </c>
+      <c r="BP292">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7754639</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F293">
+        <v>15</v>
+      </c>
+      <c r="G293" t="s">
+        <v>72</v>
+      </c>
+      <c r="H293" t="s">
+        <v>82</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293" t="s">
+        <v>93</v>
+      </c>
+      <c r="P293" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q293">
+        <v>4</v>
+      </c>
+      <c r="R293">
+        <v>2.1</v>
+      </c>
+      <c r="S293">
+        <v>2.88</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.63</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="W293">
+        <v>1.36</v>
+      </c>
+      <c r="X293">
+        <v>9</v>
+      </c>
+      <c r="Y293">
+        <v>1.07</v>
+      </c>
+      <c r="Z293">
+        <v>3.35</v>
+      </c>
+      <c r="AA293">
+        <v>3.3</v>
+      </c>
+      <c r="AB293">
+        <v>2.05</v>
+      </c>
+      <c r="AC293">
+        <v>1.03</v>
+      </c>
+      <c r="AD293">
+        <v>6.95</v>
+      </c>
+      <c r="AE293">
+        <v>1.33</v>
+      </c>
+      <c r="AF293">
+        <v>3.37</v>
+      </c>
+      <c r="AG293">
+        <v>1.95</v>
+      </c>
+      <c r="AH293">
+        <v>1.75</v>
+      </c>
+      <c r="AI293">
+        <v>1.8</v>
+      </c>
+      <c r="AJ293">
+        <v>1.91</v>
+      </c>
+      <c r="AK293">
+        <v>1.55</v>
+      </c>
+      <c r="AL293">
+        <v>1.26</v>
+      </c>
+      <c r="AM293">
+        <v>1.28</v>
+      </c>
+      <c r="AN293">
+        <v>1.12</v>
+      </c>
+      <c r="AO293">
+        <v>1.5</v>
+      </c>
+      <c r="AP293">
+        <v>1.11</v>
+      </c>
+      <c r="AQ293">
+        <v>1.47</v>
+      </c>
+      <c r="AR293">
+        <v>1.24</v>
+      </c>
+      <c r="AS293">
+        <v>1.39</v>
+      </c>
+      <c r="AT293">
+        <v>2.63</v>
+      </c>
+      <c r="AU293">
+        <v>11</v>
+      </c>
+      <c r="AV293">
+        <v>4</v>
+      </c>
+      <c r="AW293">
+        <v>8</v>
+      </c>
+      <c r="AX293">
+        <v>3</v>
+      </c>
+      <c r="AY293">
+        <v>19</v>
+      </c>
+      <c r="AZ293">
+        <v>7</v>
+      </c>
+      <c r="BA293">
+        <v>7</v>
+      </c>
+      <c r="BB293">
+        <v>2</v>
+      </c>
+      <c r="BC293">
+        <v>9</v>
+      </c>
+      <c r="BD293">
+        <v>2.55</v>
+      </c>
+      <c r="BE293">
+        <v>5.95</v>
+      </c>
+      <c r="BF293">
+        <v>1.75</v>
+      </c>
+      <c r="BG293">
+        <v>1.22</v>
+      </c>
+      <c r="BH293">
+        <v>3.75</v>
+      </c>
+      <c r="BI293">
+        <v>1.46</v>
+      </c>
+      <c r="BJ293">
+        <v>2.5</v>
+      </c>
+      <c r="BK293">
+        <v>1.82</v>
+      </c>
+      <c r="BL293">
+        <v>1.85</v>
+      </c>
+      <c r="BM293">
+        <v>2.38</v>
+      </c>
+      <c r="BN293">
+        <v>1.5</v>
+      </c>
+      <c r="BO293">
+        <v>3.35</v>
+      </c>
+      <c r="BP293">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1117,6 +1117,9 @@
     <t>['3', '65', '90+6']</t>
   </si>
   <si>
+    <t>['37', '42', '63', '68', '85']</t>
+  </si>
+  <si>
     <t>['68', '90+3']</t>
   </si>
   <si>
@@ -1485,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3061,7 +3064,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -6151,7 +6154,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ23">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -7178,7 +7181,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
         <v>1.68</v>
@@ -8417,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -9650,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -10886,7 +10889,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ46">
         <v>0.95</v>
@@ -12949,7 +12952,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ56">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13152,7 +13155,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>1.41</v>
@@ -15421,7 +15424,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ68">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -17272,7 +17275,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
         <v>1.05</v>
@@ -18511,7 +18514,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ83">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -21392,7 +21395,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ97">
         <v>1.47</v>
@@ -22013,7 +22016,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -25309,7 +25312,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ116">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -26130,7 +26133,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26957,7 +26960,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ124">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27572,7 +27575,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -30456,10 +30459,10 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -32310,7 +32313,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
         <v>1.68</v>
@@ -34373,7 +34376,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -35812,7 +35815,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ167">
         <v>0.95</v>
@@ -38081,7 +38084,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ178">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -39314,7 +39317,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
         <v>1.05</v>
@@ -40347,7 +40350,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -41992,7 +41995,7 @@
         <v>0.73</v>
       </c>
       <c r="AP197">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197">
         <v>0.89</v>
@@ -44673,7 +44676,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ210">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR210">
         <v>1.09</v>
@@ -46112,7 +46115,7 @@
         <v>2.08</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217">
         <v>2.11</v>
@@ -47763,7 +47766,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ225">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR225">
         <v>1.71</v>
@@ -48584,7 +48587,7 @@
         <v>1.36</v>
       </c>
       <c r="AP229">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>1.39</v>
@@ -50235,7 +50238,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ237">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR237">
         <v>1.16</v>
@@ -51468,7 +51471,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -54355,7 +54358,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ257">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -56000,7 +56003,7 @@
         <v>1.27</v>
       </c>
       <c r="AP265">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ265">
         <v>1.17</v>
@@ -57857,7 +57860,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ274">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AR274">
         <v>1.5</v>
@@ -58884,7 +58887,7 @@
         <v>1.13</v>
       </c>
       <c r="AP279">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ279">
         <v>1.12</v>
@@ -60206,7 +60209,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>7747057</v>
+        <v>7747473</v>
       </c>
       <c r="C286" t="s">
         <v>68</v>
@@ -60215,178 +60218,178 @@
         <v>69</v>
       </c>
       <c r="E286" s="2">
-        <v>45623.40625</v>
+        <v>45622.875</v>
       </c>
       <c r="F286">
         <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H286" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
       <c r="M286">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N286">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O286" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="P286" t="s">
         <v>367</v>
       </c>
       <c r="Q286">
+        <v>9.5</v>
+      </c>
+      <c r="R286">
+        <v>2.2</v>
+      </c>
+      <c r="S286">
+        <v>1.95</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
         <v>2.63</v>
       </c>
-      <c r="R286">
-        <v>1.91</v>
-      </c>
-      <c r="S286">
-        <v>4.5</v>
-      </c>
-      <c r="T286">
-        <v>1.46</v>
-      </c>
-      <c r="U286">
-        <v>2.68</v>
-      </c>
       <c r="V286">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="W286">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X286">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Y286">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z286">
-        <v>1.94</v>
+        <v>3.44</v>
       </c>
       <c r="AA286">
-        <v>3.3</v>
+        <v>3.06</v>
       </c>
       <c r="AB286">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
       <c r="AC286">
         <v>1.06</v>
       </c>
       <c r="AD286">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE286">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF286">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AG286">
-        <v>2.23</v>
+        <v>2.56</v>
       </c>
       <c r="AH286">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AI286">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AJ286">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AK286">
+        <v>2.49</v>
+      </c>
+      <c r="AL286">
+        <v>1.15</v>
+      </c>
+      <c r="AM286">
+        <v>1.06</v>
+      </c>
+      <c r="AN286">
+        <v>1.56</v>
+      </c>
+      <c r="AO286">
+        <v>2.44</v>
+      </c>
+      <c r="AP286">
+        <v>1.47</v>
+      </c>
+      <c r="AQ286">
+        <v>2.47</v>
+      </c>
+      <c r="AR286">
+        <v>1.43</v>
+      </c>
+      <c r="AS286">
+        <v>1.5</v>
+      </c>
+      <c r="AT286">
+        <v>2.93</v>
+      </c>
+      <c r="AU286">
+        <v>4</v>
+      </c>
+      <c r="AV286">
+        <v>14</v>
+      </c>
+      <c r="AW286">
+        <v>5</v>
+      </c>
+      <c r="AX286">
+        <v>8</v>
+      </c>
+      <c r="AY286">
+        <v>12</v>
+      </c>
+      <c r="AZ286">
+        <v>26</v>
+      </c>
+      <c r="BA286">
+        <v>3</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>5</v>
+      </c>
+      <c r="BD286">
+        <v>5.5</v>
+      </c>
+      <c r="BE286">
+        <v>8.1</v>
+      </c>
+      <c r="BF286">
         <v>1.23</v>
       </c>
-      <c r="AL286">
-        <v>1.29</v>
-      </c>
-      <c r="AM286">
-        <v>1.77</v>
-      </c>
-      <c r="AN286">
-        <v>1</v>
-      </c>
-      <c r="AO286">
-        <v>0.83</v>
-      </c>
-      <c r="AP286">
-        <v>0.95</v>
-      </c>
-      <c r="AQ286">
-        <v>0.95</v>
-      </c>
-      <c r="AR286">
-        <v>1.4</v>
-      </c>
-      <c r="AS286">
-        <v>1.29</v>
-      </c>
-      <c r="AT286">
-        <v>2.69</v>
-      </c>
-      <c r="AU286">
-        <v>6</v>
-      </c>
-      <c r="AV286">
-        <v>6</v>
-      </c>
-      <c r="AW286">
-        <v>12</v>
-      </c>
-      <c r="AX286">
-        <v>10</v>
-      </c>
-      <c r="AY286">
-        <v>27</v>
-      </c>
-      <c r="AZ286">
-        <v>17</v>
-      </c>
-      <c r="BA286">
-        <v>6</v>
-      </c>
-      <c r="BB286">
-        <v>5</v>
-      </c>
-      <c r="BC286">
-        <v>11</v>
-      </c>
-      <c r="BD286">
-        <v>1.5</v>
-      </c>
-      <c r="BE286">
-        <v>8.5</v>
-      </c>
-      <c r="BF286">
-        <v>3.1</v>
-      </c>
       <c r="BG286">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BH286">
         <v>2.97</v>
       </c>
       <c r="BI286">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="BJ286">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="BK286">
         <v>2.05</v>
@@ -60395,16 +60398,16 @@
         <v>1.7</v>
       </c>
       <c r="BM286">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="BN286">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="BO286">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="BP286">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="287" spans="1:68">
@@ -60412,7 +60415,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>7747058</v>
+        <v>7747057</v>
       </c>
       <c r="C287" t="s">
         <v>68</v>
@@ -60421,25 +60424,25 @@
         <v>69</v>
       </c>
       <c r="E287" s="2">
-        <v>45623.6875</v>
+        <v>45623.40625</v>
       </c>
       <c r="F287">
         <v>14</v>
       </c>
       <c r="G287" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H287" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
       <c r="K287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L287">
         <v>1</v>
@@ -60451,31 +60454,31 @@
         <v>3</v>
       </c>
       <c r="O287" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P287" t="s">
         <v>368</v>
       </c>
       <c r="Q287">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="R287">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S287">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T287">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="U287">
-        <v>2.37</v>
+        <v>2.68</v>
       </c>
       <c r="V287">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="W287">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X287">
         <v>8.6</v>
@@ -60484,133 +60487,133 @@
         <v>1.05</v>
       </c>
       <c r="Z287">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="AA287">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="AB287">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="AC287">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD287">
         <v>7.5</v>
       </c>
       <c r="AE287">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AF287">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AG287">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AH287">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AI287">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AJ287">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AK287">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AL287">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AM287">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AN287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO287">
-        <v>1.61</v>
+        <v>0.83</v>
       </c>
       <c r="AP287">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="AQ287">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="AR287">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS287">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT287">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="AU287">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV287">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW287">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY287">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AZ287">
         <v>17</v>
       </c>
       <c r="BA287">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB287">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC287">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD287">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BE287">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="BF287">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BG287">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BH287">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="BI287">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="BJ287">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="BK287">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BL287">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BM287">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="BN287">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BO287">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="BP287">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="288" spans="1:68">
@@ -60618,7 +60621,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>7747055</v>
+        <v>7747058</v>
       </c>
       <c r="C288" t="s">
         <v>68</v>
@@ -60627,196 +60630,196 @@
         <v>69</v>
       </c>
       <c r="E288" s="2">
-        <v>45623.78125</v>
+        <v>45623.6875</v>
       </c>
       <c r="F288">
         <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H288" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288">
         <v>0</v>
       </c>
       <c r="K288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N288">
         <v>3</v>
       </c>
       <c r="O288" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P288" t="s">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="Q288">
+        <v>3.15</v>
+      </c>
+      <c r="R288">
+        <v>1.93</v>
+      </c>
+      <c r="S288">
         <v>3.75</v>
-      </c>
-      <c r="R288">
-        <v>2</v>
-      </c>
-      <c r="S288">
-        <v>3.25</v>
       </c>
       <c r="T288">
         <v>1.53</v>
       </c>
       <c r="U288">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V288">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="W288">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X288">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Y288">
         <v>1.05</v>
       </c>
       <c r="Z288">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AA288">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="AB288">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AC288">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD288">
+        <v>7.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.44</v>
+      </c>
+      <c r="AF288">
+        <v>2.65</v>
+      </c>
+      <c r="AG288">
+        <v>2.3</v>
+      </c>
+      <c r="AH288">
+        <v>1.53</v>
+      </c>
+      <c r="AI288">
+        <v>2.01</v>
+      </c>
+      <c r="AJ288">
+        <v>1.75</v>
+      </c>
+      <c r="AK288">
+        <v>1.31</v>
+      </c>
+      <c r="AL288">
+        <v>1.31</v>
+      </c>
+      <c r="AM288">
+        <v>1.44</v>
+      </c>
+      <c r="AN288">
+        <v>2</v>
+      </c>
+      <c r="AO288">
+        <v>1.61</v>
+      </c>
+      <c r="AP288">
+        <v>1.89</v>
+      </c>
+      <c r="AQ288">
+        <v>1.68</v>
+      </c>
+      <c r="AR288">
+        <v>1.41</v>
+      </c>
+      <c r="AS288">
+        <v>1.32</v>
+      </c>
+      <c r="AT288">
+        <v>2.73</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
         <v>8</v>
       </c>
-      <c r="AE288">
-        <v>1.4</v>
-      </c>
-      <c r="AF288">
-        <v>2.88</v>
-      </c>
-      <c r="AG288">
-        <v>2.34</v>
-      </c>
-      <c r="AH288">
-        <v>1.56</v>
-      </c>
-      <c r="AI288">
-        <v>1.91</v>
-      </c>
-      <c r="AJ288">
-        <v>1.8</v>
-      </c>
-      <c r="AK288">
-        <v>1.53</v>
-      </c>
-      <c r="AL288">
-        <v>1.36</v>
-      </c>
-      <c r="AM288">
-        <v>1.33</v>
-      </c>
-      <c r="AN288">
-        <v>1.47</v>
-      </c>
-      <c r="AO288">
-        <v>1.59</v>
-      </c>
-      <c r="AP288">
-        <v>1.63</v>
-      </c>
-      <c r="AQ288">
-        <v>1.47</v>
-      </c>
-      <c r="AR288">
-        <v>1.54</v>
-      </c>
-      <c r="AS288">
-        <v>1.42</v>
-      </c>
-      <c r="AT288">
-        <v>2.96</v>
-      </c>
-      <c r="AU288">
-        <v>11</v>
-      </c>
-      <c r="AV288">
-        <v>0</v>
-      </c>
       <c r="AW288">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX288">
+        <v>5</v>
+      </c>
+      <c r="AY288">
+        <v>20</v>
+      </c>
+      <c r="AZ288">
+        <v>17</v>
+      </c>
+      <c r="BA288">
         <v>10</v>
       </c>
-      <c r="AY288">
-        <v>21</v>
-      </c>
-      <c r="AZ288">
-        <v>13</v>
-      </c>
-      <c r="BA288">
-        <v>6</v>
-      </c>
       <c r="BB288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC288">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD288">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="BE288">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="BF288">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="BG288">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BH288">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="BI288">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BJ288">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="BK288">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="BL288">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BM288">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BN288">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BO288">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="BP288">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="289" spans="1:68">
@@ -60824,7 +60827,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>7747472</v>
+        <v>7747055</v>
       </c>
       <c r="C289" t="s">
         <v>68</v>
@@ -60833,196 +60836,196 @@
         <v>69</v>
       </c>
       <c r="E289" s="2">
-        <v>45623.88541666666</v>
+        <v>45623.78125</v>
       </c>
       <c r="F289">
         <v>14</v>
       </c>
       <c r="G289" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H289" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J289">
         <v>0</v>
       </c>
       <c r="K289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L289">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
       <c r="N289">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O289" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="P289" t="s">
         <v>93</v>
       </c>
       <c r="Q289">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="R289">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="S289">
-        <v>1.97</v>
+        <v>3.25</v>
       </c>
       <c r="T289">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U289">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="V289">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="W289">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="X289">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y289">
         <v>1.05</v>
       </c>
       <c r="Z289">
-        <v>5.81</v>
+        <v>2.78</v>
       </c>
       <c r="AA289">
-        <v>4.17</v>
+        <v>3.06</v>
       </c>
       <c r="AB289">
-        <v>1.51</v>
+        <v>2.64</v>
       </c>
       <c r="AC289">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD289">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE289">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF289">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AG289">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="AH289">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AI289">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="AJ289">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AK289">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="AL289">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AM289">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AN289">
+        <v>1.47</v>
+      </c>
+      <c r="AO289">
         <v>1.59</v>
       </c>
-      <c r="AO289">
-        <v>2.18</v>
-      </c>
       <c r="AP289">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ289">
-        <v>2.11</v>
+        <v>1.47</v>
       </c>
       <c r="AR289">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="AS289">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AT289">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AU289">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AV289">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW289">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX289">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY289">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ289">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA289">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC289">
         <v>9</v>
       </c>
       <c r="BD289">
-        <v>4.35</v>
+        <v>3</v>
       </c>
       <c r="BE289">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="BF289">
+        <v>1.57</v>
+      </c>
+      <c r="BG289">
         <v>1.33</v>
       </c>
-      <c r="BG289">
-        <v>1.25</v>
-      </c>
       <c r="BH289">
-        <v>3.45</v>
+        <v>3.02</v>
       </c>
       <c r="BI289">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="BJ289">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="BK289">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="BL289">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BM289">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="BN289">
         <v>1.45</v>
       </c>
       <c r="BO289">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="BP289">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="290" spans="1:68">
@@ -61030,7 +61033,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>7754636</v>
+        <v>7747472</v>
       </c>
       <c r="C290" t="s">
         <v>68</v>
@@ -61039,16 +61042,16 @@
         <v>69</v>
       </c>
       <c r="E290" s="2">
-        <v>45626.40625</v>
+        <v>45623.88541666666</v>
       </c>
       <c r="F290">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H290" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -61060,175 +61063,175 @@
         <v>0</v>
       </c>
       <c r="L290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M290">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290" t="s">
+        <v>93</v>
+      </c>
+      <c r="P290" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q290">
+        <v>8</v>
+      </c>
+      <c r="R290">
+        <v>2.14</v>
+      </c>
+      <c r="S290">
+        <v>1.97</v>
+      </c>
+      <c r="T290">
+        <v>1.46</v>
+      </c>
+      <c r="U290">
+        <v>2.55</v>
+      </c>
+      <c r="V290">
+        <v>3.23</v>
+      </c>
+      <c r="W290">
+        <v>1.34</v>
+      </c>
+      <c r="X290">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y290">
+        <v>1.05</v>
+      </c>
+      <c r="Z290">
+        <v>5.81</v>
+      </c>
+      <c r="AA290">
+        <v>4.17</v>
+      </c>
+      <c r="AB290">
+        <v>1.51</v>
+      </c>
+      <c r="AC290">
+        <v>1.06</v>
+      </c>
+      <c r="AD290">
+        <v>8.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.38</v>
+      </c>
+      <c r="AF290">
+        <v>2.9</v>
+      </c>
+      <c r="AG290">
+        <v>1.95</v>
+      </c>
+      <c r="AH290">
+        <v>1.73</v>
+      </c>
+      <c r="AI290">
+        <v>2.55</v>
+      </c>
+      <c r="AJ290">
+        <v>1.48</v>
+      </c>
+      <c r="AK290">
+        <v>2.35</v>
+      </c>
+      <c r="AL290">
+        <v>1.15</v>
+      </c>
+      <c r="AM290">
+        <v>1.08</v>
+      </c>
+      <c r="AN290">
+        <v>1.59</v>
+      </c>
+      <c r="AO290">
+        <v>2.18</v>
+      </c>
+      <c r="AP290">
+        <v>1.56</v>
+      </c>
+      <c r="AQ290">
+        <v>2.11</v>
+      </c>
+      <c r="AR290">
+        <v>1.17</v>
+      </c>
+      <c r="AS290">
+        <v>1.56</v>
+      </c>
+      <c r="AT290">
+        <v>2.73</v>
+      </c>
+      <c r="AU290">
+        <v>3</v>
+      </c>
+      <c r="AV290">
+        <v>7</v>
+      </c>
+      <c r="AW290">
         <v>4</v>
       </c>
-      <c r="O290" t="s">
-        <v>256</v>
-      </c>
-      <c r="P290" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q290">
-        <v>3.6</v>
-      </c>
-      <c r="R290">
-        <v>2</v>
-      </c>
-      <c r="S290">
-        <v>3.25</v>
-      </c>
-      <c r="T290">
+      <c r="AX290">
+        <v>3</v>
+      </c>
+      <c r="AY290">
+        <v>10</v>
+      </c>
+      <c r="AZ290">
+        <v>17</v>
+      </c>
+      <c r="BA290">
+        <v>5</v>
+      </c>
+      <c r="BB290">
+        <v>4</v>
+      </c>
+      <c r="BC290">
+        <v>9</v>
+      </c>
+      <c r="BD290">
+        <v>4.35</v>
+      </c>
+      <c r="BE290">
+        <v>6.9</v>
+      </c>
+      <c r="BF290">
+        <v>1.33</v>
+      </c>
+      <c r="BG290">
+        <v>1.25</v>
+      </c>
+      <c r="BH290">
+        <v>3.45</v>
+      </c>
+      <c r="BI290">
         <v>1.5</v>
       </c>
-      <c r="U290">
-        <v>2.5</v>
-      </c>
-      <c r="V290">
-        <v>3.4</v>
-      </c>
-      <c r="W290">
-        <v>1.3</v>
-      </c>
-      <c r="X290">
-        <v>10</v>
-      </c>
-      <c r="Y290">
-        <v>1.06</v>
-      </c>
-      <c r="Z290">
-        <v>2.7</v>
-      </c>
-      <c r="AA290">
-        <v>3</v>
-      </c>
-      <c r="AB290">
-        <v>2.4</v>
-      </c>
-      <c r="AC290">
-        <v>1.11</v>
-      </c>
-      <c r="AD290">
-        <v>7.25</v>
-      </c>
-      <c r="AE290">
-        <v>1.4</v>
-      </c>
-      <c r="AF290">
-        <v>3.02</v>
-      </c>
-      <c r="AG290">
-        <v>2.1</v>
-      </c>
-      <c r="AH290">
-        <v>1.6</v>
-      </c>
-      <c r="AI290">
-        <v>1.8</v>
-      </c>
-      <c r="AJ290">
-        <v>1.91</v>
-      </c>
-      <c r="AK290">
-        <v>1.37</v>
-      </c>
-      <c r="AL290">
-        <v>1.36</v>
-      </c>
-      <c r="AM290">
-        <v>1.32</v>
-      </c>
-      <c r="AN290">
-        <v>1.28</v>
-      </c>
-      <c r="AO290">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP290">
-        <v>1.21</v>
-      </c>
-      <c r="AQ290">
-        <v>1.05</v>
-      </c>
-      <c r="AR290">
-        <v>1.14</v>
-      </c>
-      <c r="AS290">
-        <v>1.34</v>
-      </c>
-      <c r="AT290">
-        <v>2.48</v>
-      </c>
-      <c r="AU290">
-        <v>5</v>
-      </c>
-      <c r="AV290">
-        <v>5</v>
-      </c>
-      <c r="AW290">
-        <v>7</v>
-      </c>
-      <c r="AX290">
-        <v>7</v>
-      </c>
-      <c r="AY290">
-        <v>12</v>
-      </c>
-      <c r="AZ290">
-        <v>12</v>
-      </c>
-      <c r="BA290">
-        <v>6</v>
-      </c>
-      <c r="BB290">
-        <v>1</v>
-      </c>
-      <c r="BC290">
-        <v>7</v>
-      </c>
-      <c r="BD290">
-        <v>2.1</v>
-      </c>
-      <c r="BE290">
-        <v>5.85</v>
-      </c>
-      <c r="BF290">
-        <v>2.05</v>
-      </c>
-      <c r="BG290">
+      <c r="BJ290">
+        <v>2.35</v>
+      </c>
+      <c r="BK290">
+        <v>1.9</v>
+      </c>
+      <c r="BL290">
+        <v>1.78</v>
+      </c>
+      <c r="BM290">
+        <v>2.52</v>
+      </c>
+      <c r="BN290">
+        <v>1.45</v>
+      </c>
+      <c r="BO290">
+        <v>3.65</v>
+      </c>
+      <c r="BP290">
         <v>1.23</v>
-      </c>
-      <c r="BH290">
-        <v>3.7</v>
-      </c>
-      <c r="BI290">
-        <v>1.44</v>
-      </c>
-      <c r="BJ290">
-        <v>2.55</v>
-      </c>
-      <c r="BK290">
-        <v>1.78</v>
-      </c>
-      <c r="BL290">
-        <v>1.9</v>
-      </c>
-      <c r="BM290">
-        <v>2.32</v>
-      </c>
-      <c r="BN290">
-        <v>1.52</v>
-      </c>
-      <c r="BO290">
-        <v>3.3</v>
-      </c>
-      <c r="BP290">
-        <v>1.28</v>
       </c>
     </row>
     <row r="291" spans="1:68">
@@ -61236,7 +61239,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>7754637</v>
+        <v>7754636</v>
       </c>
       <c r="C291" t="s">
         <v>68</v>
@@ -61245,16 +61248,16 @@
         <v>69</v>
       </c>
       <c r="E291" s="2">
-        <v>45626.70833333334</v>
+        <v>45626.40625</v>
       </c>
       <c r="F291">
         <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H291" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -61269,70 +61272,70 @@
         <v>1</v>
       </c>
       <c r="M291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O291" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="P291" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="Q291">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>3.25</v>
+      </c>
+      <c r="T291">
+        <v>1.5</v>
+      </c>
+      <c r="U291">
+        <v>2.5</v>
+      </c>
+      <c r="V291">
+        <v>3.4</v>
+      </c>
+      <c r="W291">
+        <v>1.3</v>
+      </c>
+      <c r="X291">
+        <v>10</v>
+      </c>
+      <c r="Y291">
+        <v>1.06</v>
+      </c>
+      <c r="Z291">
+        <v>2.7</v>
+      </c>
+      <c r="AA291">
+        <v>3</v>
+      </c>
+      <c r="AB291">
+        <v>2.4</v>
+      </c>
+      <c r="AC291">
+        <v>1.11</v>
+      </c>
+      <c r="AD291">
+        <v>7.25</v>
+      </c>
+      <c r="AE291">
+        <v>1.4</v>
+      </c>
+      <c r="AF291">
+        <v>3.02</v>
+      </c>
+      <c r="AG291">
         <v>2.1</v>
       </c>
-      <c r="S291">
-        <v>3.75</v>
-      </c>
-      <c r="T291">
-        <v>1.44</v>
-      </c>
-      <c r="U291">
-        <v>2.63</v>
-      </c>
-      <c r="V291">
-        <v>3.25</v>
-      </c>
-      <c r="W291">
-        <v>1.33</v>
-      </c>
-      <c r="X291">
-        <v>9</v>
-      </c>
-      <c r="Y291">
-        <v>1.07</v>
-      </c>
-      <c r="Z291">
-        <v>2.5</v>
-      </c>
-      <c r="AA291">
-        <v>3.1</v>
-      </c>
-      <c r="AB291">
-        <v>2.75</v>
-      </c>
-      <c r="AC291">
-        <v>1.01</v>
-      </c>
-      <c r="AD291">
-        <v>7.8</v>
-      </c>
-      <c r="AE291">
-        <v>1.33</v>
-      </c>
-      <c r="AF291">
-        <v>3.35</v>
-      </c>
-      <c r="AG291">
-        <v>2</v>
-      </c>
       <c r="AH291">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AI291">
         <v>1.8</v>
@@ -61341,100 +61344,100 @@
         <v>1.91</v>
       </c>
       <c r="AK291">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AL291">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AM291">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AN291">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AO291">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP291">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ291">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AR291">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS291">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AT291">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>5</v>
+      </c>
+      <c r="AW291">
         <v>7</v>
       </c>
-      <c r="AV291">
-        <v>4</v>
-      </c>
-      <c r="AW291">
-        <v>5</v>
-      </c>
       <c r="AX291">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY291">
         <v>12</v>
       </c>
       <c r="AZ291">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA291">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB291">
         <v>1</v>
       </c>
       <c r="BC291">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD291">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="BE291">
-        <v>7</v>
+        <v>5.85</v>
       </c>
       <c r="BF291">
-        <v>2.82</v>
+        <v>2.05</v>
       </c>
       <c r="BG291">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="BH291">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="BI291">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BJ291">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="BK291">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="BL291">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="BM291">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="BN291">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BO291">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BP291">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="292" spans="1:68">
@@ -61442,7 +61445,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>7754638</v>
+        <v>7754637</v>
       </c>
       <c r="C292" t="s">
         <v>68</v>
@@ -61457,148 +61460,148 @@
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H292" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292">
         <v>0</v>
       </c>
       <c r="K292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M292">
         <v>1</v>
       </c>
       <c r="N292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O292" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="Q292">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R292">
+        <v>2.1</v>
+      </c>
+      <c r="S292">
+        <v>3.75</v>
+      </c>
+      <c r="T292">
+        <v>1.44</v>
+      </c>
+      <c r="U292">
+        <v>2.63</v>
+      </c>
+      <c r="V292">
+        <v>3.25</v>
+      </c>
+      <c r="W292">
+        <v>1.33</v>
+      </c>
+      <c r="X292">
+        <v>9</v>
+      </c>
+      <c r="Y292">
+        <v>1.07</v>
+      </c>
+      <c r="Z292">
+        <v>2.5</v>
+      </c>
+      <c r="AA292">
+        <v>3.1</v>
+      </c>
+      <c r="AB292">
+        <v>2.75</v>
+      </c>
+      <c r="AC292">
+        <v>1.01</v>
+      </c>
+      <c r="AD292">
+        <v>7.8</v>
+      </c>
+      <c r="AE292">
+        <v>1.33</v>
+      </c>
+      <c r="AF292">
+        <v>3.35</v>
+      </c>
+      <c r="AG292">
+        <v>2</v>
+      </c>
+      <c r="AH292">
+        <v>1.7</v>
+      </c>
+      <c r="AI292">
+        <v>1.8</v>
+      </c>
+      <c r="AJ292">
         <v>1.91</v>
       </c>
-      <c r="S292">
-        <v>4.5</v>
-      </c>
-      <c r="T292">
-        <v>1.57</v>
-      </c>
-      <c r="U292">
-        <v>2.25</v>
-      </c>
-      <c r="V292">
-        <v>3.75</v>
-      </c>
-      <c r="W292">
-        <v>1.25</v>
-      </c>
-      <c r="X292">
-        <v>13</v>
-      </c>
-      <c r="Y292">
-        <v>1.04</v>
-      </c>
-      <c r="Z292">
-        <v>1.7</v>
-      </c>
-      <c r="AA292">
-        <v>3.35</v>
-      </c>
-      <c r="AB292">
-        <v>5.5</v>
-      </c>
-      <c r="AC292">
-        <v>1.11</v>
-      </c>
-      <c r="AD292">
-        <v>6.9</v>
-      </c>
-      <c r="AE292">
-        <v>1.51</v>
-      </c>
-      <c r="AF292">
-        <v>2.47</v>
-      </c>
-      <c r="AG292">
-        <v>2.35</v>
-      </c>
-      <c r="AH292">
-        <v>1.53</v>
-      </c>
-      <c r="AI292">
-        <v>2.2</v>
-      </c>
-      <c r="AJ292">
-        <v>1.62</v>
-      </c>
       <c r="AK292">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AL292">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AM292">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AN292">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="AO292">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
       <c r="AP292">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AQ292">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR292">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AS292">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT292">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="AU292">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV292">
         <v>4</v>
       </c>
       <c r="AW292">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX292">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY292">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ292">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA292">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB292">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC292">
         <v>9</v>
@@ -61607,40 +61610,40 @@
         <v>1.58</v>
       </c>
       <c r="BE292">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF292">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="BG292">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="BH292">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BI292">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="BJ292">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="BK292">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="BL292">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BM292">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="BN292">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BO292">
-        <v>3.62</v>
+        <v>4</v>
       </c>
       <c r="BP292">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="293" spans="1:68">
@@ -61648,7 +61651,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>7754639</v>
+        <v>7754638</v>
       </c>
       <c r="C293" t="s">
         <v>68</v>
@@ -61663,189 +61666,395 @@
         <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H293" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293">
         <v>0</v>
       </c>
       <c r="K293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O293" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="P293" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q293">
+        <v>2.88</v>
+      </c>
+      <c r="R293">
+        <v>1.91</v>
+      </c>
+      <c r="S293">
+        <v>4.5</v>
+      </c>
+      <c r="T293">
+        <v>1.57</v>
+      </c>
+      <c r="U293">
+        <v>2.25</v>
+      </c>
+      <c r="V293">
+        <v>3.75</v>
+      </c>
+      <c r="W293">
+        <v>1.25</v>
+      </c>
+      <c r="X293">
+        <v>13</v>
+      </c>
+      <c r="Y293">
+        <v>1.04</v>
+      </c>
+      <c r="Z293">
+        <v>1.7</v>
+      </c>
+      <c r="AA293">
+        <v>3.35</v>
+      </c>
+      <c r="AB293">
+        <v>5.5</v>
+      </c>
+      <c r="AC293">
+        <v>1.11</v>
+      </c>
+      <c r="AD293">
+        <v>6.9</v>
+      </c>
+      <c r="AE293">
+        <v>1.51</v>
+      </c>
+      <c r="AF293">
+        <v>2.47</v>
+      </c>
+      <c r="AG293">
+        <v>2.35</v>
+      </c>
+      <c r="AH293">
+        <v>1.53</v>
+      </c>
+      <c r="AI293">
+        <v>2.2</v>
+      </c>
+      <c r="AJ293">
+        <v>1.62</v>
+      </c>
+      <c r="AK293">
+        <v>1.21</v>
+      </c>
+      <c r="AL293">
+        <v>1.31</v>
+      </c>
+      <c r="AM293">
+        <v>1.59</v>
+      </c>
+      <c r="AN293">
+        <v>1.56</v>
+      </c>
+      <c r="AO293">
+        <v>0.71</v>
+      </c>
+      <c r="AP293">
+        <v>1.63</v>
+      </c>
+      <c r="AQ293">
+        <v>0.67</v>
+      </c>
+      <c r="AR293">
+        <v>1.57</v>
+      </c>
+      <c r="AS293">
+        <v>1.25</v>
+      </c>
+      <c r="AT293">
+        <v>2.82</v>
+      </c>
+      <c r="AU293">
         <v>4</v>
-      </c>
-      <c r="R293">
-        <v>2.1</v>
-      </c>
-      <c r="S293">
-        <v>2.88</v>
-      </c>
-      <c r="T293">
-        <v>1.44</v>
-      </c>
-      <c r="U293">
-        <v>2.63</v>
-      </c>
-      <c r="V293">
-        <v>3</v>
-      </c>
-      <c r="W293">
-        <v>1.36</v>
-      </c>
-      <c r="X293">
-        <v>9</v>
-      </c>
-      <c r="Y293">
-        <v>1.07</v>
-      </c>
-      <c r="Z293">
-        <v>3.35</v>
-      </c>
-      <c r="AA293">
-        <v>3.3</v>
-      </c>
-      <c r="AB293">
-        <v>2.05</v>
-      </c>
-      <c r="AC293">
-        <v>1.03</v>
-      </c>
-      <c r="AD293">
-        <v>6.95</v>
-      </c>
-      <c r="AE293">
-        <v>1.33</v>
-      </c>
-      <c r="AF293">
-        <v>3.37</v>
-      </c>
-      <c r="AG293">
-        <v>1.95</v>
-      </c>
-      <c r="AH293">
-        <v>1.75</v>
-      </c>
-      <c r="AI293">
-        <v>1.8</v>
-      </c>
-      <c r="AJ293">
-        <v>1.91</v>
-      </c>
-      <c r="AK293">
-        <v>1.55</v>
-      </c>
-      <c r="AL293">
-        <v>1.26</v>
-      </c>
-      <c r="AM293">
-        <v>1.28</v>
-      </c>
-      <c r="AN293">
-        <v>1.12</v>
-      </c>
-      <c r="AO293">
-        <v>1.5</v>
-      </c>
-      <c r="AP293">
-        <v>1.11</v>
-      </c>
-      <c r="AQ293">
-        <v>1.47</v>
-      </c>
-      <c r="AR293">
-        <v>1.24</v>
-      </c>
-      <c r="AS293">
-        <v>1.39</v>
-      </c>
-      <c r="AT293">
-        <v>2.63</v>
-      </c>
-      <c r="AU293">
-        <v>11</v>
       </c>
       <c r="AV293">
         <v>4</v>
       </c>
       <c r="AW293">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX293">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY293">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ293">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA293">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB293">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC293">
         <v>9</v>
       </c>
       <c r="BD293">
+        <v>1.58</v>
+      </c>
+      <c r="BE293">
+        <v>7.5</v>
+      </c>
+      <c r="BF293">
+        <v>3</v>
+      </c>
+      <c r="BG293">
+        <v>1.36</v>
+      </c>
+      <c r="BH293">
+        <v>2.88</v>
+      </c>
+      <c r="BI293">
+        <v>1.64</v>
+      </c>
+      <c r="BJ293">
+        <v>2.2</v>
+      </c>
+      <c r="BK293">
+        <v>2.05</v>
+      </c>
+      <c r="BL293">
+        <v>1.7</v>
+      </c>
+      <c r="BM293">
+        <v>2.68</v>
+      </c>
+      <c r="BN293">
+        <v>1.41</v>
+      </c>
+      <c r="BO293">
+        <v>3.62</v>
+      </c>
+      <c r="BP293">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7754639</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F294">
+        <v>15</v>
+      </c>
+      <c r="G294" t="s">
+        <v>72</v>
+      </c>
+      <c r="H294" t="s">
+        <v>82</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294" t="s">
+        <v>93</v>
+      </c>
+      <c r="P294" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q294">
+        <v>4</v>
+      </c>
+      <c r="R294">
+        <v>2.1</v>
+      </c>
+      <c r="S294">
+        <v>2.88</v>
+      </c>
+      <c r="T294">
+        <v>1.44</v>
+      </c>
+      <c r="U294">
+        <v>2.63</v>
+      </c>
+      <c r="V294">
+        <v>3</v>
+      </c>
+      <c r="W294">
+        <v>1.36</v>
+      </c>
+      <c r="X294">
+        <v>9</v>
+      </c>
+      <c r="Y294">
+        <v>1.07</v>
+      </c>
+      <c r="Z294">
+        <v>3.35</v>
+      </c>
+      <c r="AA294">
+        <v>3.3</v>
+      </c>
+      <c r="AB294">
+        <v>2.05</v>
+      </c>
+      <c r="AC294">
+        <v>1.03</v>
+      </c>
+      <c r="AD294">
+        <v>6.95</v>
+      </c>
+      <c r="AE294">
+        <v>1.33</v>
+      </c>
+      <c r="AF294">
+        <v>3.37</v>
+      </c>
+      <c r="AG294">
+        <v>1.95</v>
+      </c>
+      <c r="AH294">
+        <v>1.75</v>
+      </c>
+      <c r="AI294">
+        <v>1.8</v>
+      </c>
+      <c r="AJ294">
+        <v>1.91</v>
+      </c>
+      <c r="AK294">
+        <v>1.55</v>
+      </c>
+      <c r="AL294">
+        <v>1.26</v>
+      </c>
+      <c r="AM294">
+        <v>1.28</v>
+      </c>
+      <c r="AN294">
+        <v>1.12</v>
+      </c>
+      <c r="AO294">
+        <v>1.5</v>
+      </c>
+      <c r="AP294">
+        <v>1.11</v>
+      </c>
+      <c r="AQ294">
+        <v>1.47</v>
+      </c>
+      <c r="AR294">
+        <v>1.24</v>
+      </c>
+      <c r="AS294">
+        <v>1.39</v>
+      </c>
+      <c r="AT294">
+        <v>2.63</v>
+      </c>
+      <c r="AU294">
+        <v>11</v>
+      </c>
+      <c r="AV294">
+        <v>4</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>3</v>
+      </c>
+      <c r="AY294">
+        <v>19</v>
+      </c>
+      <c r="AZ294">
+        <v>7</v>
+      </c>
+      <c r="BA294">
+        <v>7</v>
+      </c>
+      <c r="BB294">
+        <v>2</v>
+      </c>
+      <c r="BC294">
+        <v>9</v>
+      </c>
+      <c r="BD294">
         <v>2.55</v>
       </c>
-      <c r="BE293">
+      <c r="BE294">
         <v>5.95</v>
       </c>
-      <c r="BF293">
+      <c r="BF294">
         <v>1.75</v>
       </c>
-      <c r="BG293">
+      <c r="BG294">
         <v>1.22</v>
       </c>
-      <c r="BH293">
+      <c r="BH294">
         <v>3.75</v>
       </c>
-      <c r="BI293">
+      <c r="BI294">
         <v>1.46</v>
       </c>
-      <c r="BJ293">
+      <c r="BJ294">
         <v>2.5</v>
       </c>
-      <c r="BK293">
+      <c r="BK294">
         <v>1.82</v>
       </c>
-      <c r="BL293">
+      <c r="BL294">
         <v>1.85</v>
       </c>
-      <c r="BM293">
+      <c r="BM294">
         <v>2.38</v>
       </c>
-      <c r="BN293">
+      <c r="BN294">
         <v>1.5</v>
       </c>
-      <c r="BO293">
+      <c r="BO294">
         <v>3.35</v>
       </c>
-      <c r="BP293">
+      <c r="BP294">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,15 @@
     <t>['11', '71']</t>
   </si>
   <si>
+    <t>['1', '24', '51']</t>
+  </si>
+  <si>
+    <t>['31', '83']</t>
+  </si>
+  <si>
+    <t>['86', '87', '90+6']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -1488,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1756,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1825,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1953,7 +1962,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2159,7 +2168,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2365,7 +2374,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2446,7 +2455,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ5">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2777,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2855,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>1.05</v>
@@ -2983,7 +2992,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -3189,7 +3198,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3885,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ12">
         <v>1.05</v>
@@ -4094,7 +4103,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4631,7 +4640,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4837,7 +4846,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -5043,7 +5052,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5121,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ18">
         <v>1.47</v>
@@ -5533,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5661,7 +5670,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5742,7 +5751,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ21">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5867,7 +5876,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -6073,7 +6082,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6360,7 +6369,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ24">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6485,7 +6494,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6566,7 +6575,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ25">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6769,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ26">
         <v>0.89</v>
@@ -6897,7 +6906,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -7103,7 +7112,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7309,7 +7318,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8214,7 +8223,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -8339,7 +8348,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8417,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>2.47</v>
@@ -8545,7 +8554,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8829,7 +8838,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -9369,7 +9378,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9575,7 +9584,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9781,7 +9790,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10065,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ42">
         <v>2.11</v>
@@ -10274,7 +10283,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10480,7 +10489,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -11017,7 +11026,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11223,7 +11232,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11304,7 +11313,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11429,7 +11438,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11635,7 +11644,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11841,7 +11850,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11919,7 +11928,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
         <v>1.05</v>
@@ -12331,7 +12340,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -12665,7 +12674,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12871,7 +12880,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13158,7 +13167,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13364,7 +13373,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ58">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13982,7 +13991,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14185,7 +14194,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ62">
         <v>1.39</v>
@@ -14313,7 +14322,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14519,7 +14528,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14803,7 +14812,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -15137,7 +15146,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15343,7 +15352,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15549,7 +15558,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15627,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ69">
         <v>0.84</v>
@@ -15755,7 +15764,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15961,7 +15970,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16167,7 +16176,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16866,7 +16875,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16991,7 +17000,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17403,7 +17412,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17609,7 +17618,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17893,10 +17902,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -18099,10 +18108,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -18227,7 +18236,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18433,7 +18442,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18639,7 +18648,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18717,7 +18726,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ84">
         <v>1.68</v>
@@ -18845,7 +18854,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19257,7 +19266,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19463,7 +19472,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19875,7 +19884,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19953,10 +19962,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ90">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -20368,7 +20377,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20571,7 +20580,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ93">
         <v>0.95</v>
@@ -20777,7 +20786,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20905,7 +20914,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -21111,7 +21120,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21192,7 +21201,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ96">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -21317,7 +21326,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21729,7 +21738,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21935,7 +21944,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22759,7 +22768,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22965,7 +22974,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23249,7 +23258,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ106">
         <v>0.67</v>
@@ -23377,7 +23386,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23455,10 +23464,10 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23789,7 +23798,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24073,7 +24082,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ110">
         <v>1.39</v>
@@ -24201,7 +24210,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24282,7 +24291,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24694,7 +24703,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ113">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -25025,7 +25034,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25231,7 +25240,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25643,7 +25652,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26261,7 +26270,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26467,7 +26476,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26751,10 +26760,10 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -27085,7 +27094,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27291,7 +27300,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27578,7 +27587,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -27990,7 +27999,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ129">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.01</v>
@@ -28605,7 +28614,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ132">
         <v>1.05</v>
@@ -29351,7 +29360,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29429,7 +29438,7 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ136">
         <v>1.68</v>
@@ -29557,7 +29566,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29969,7 +29978,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -30050,7 +30059,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ139">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -30175,7 +30184,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30253,7 +30262,7 @@
         <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
         <v>1.47</v>
@@ -30381,7 +30390,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30668,7 +30677,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ142">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.52</v>
@@ -30793,7 +30802,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30999,7 +31008,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -31205,7 +31214,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31286,7 +31295,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31901,7 +31910,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ148">
         <v>0.95</v>
@@ -32110,7 +32119,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32235,7 +32244,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32519,7 +32528,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ151">
         <v>0.84</v>
@@ -32647,7 +32656,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32853,7 +32862,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33265,7 +33274,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33471,7 +33480,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -34089,7 +34098,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34295,7 +34304,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34501,7 +34510,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34788,7 +34797,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -34913,7 +34922,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -35119,7 +35128,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35197,7 +35206,7 @@
         <v>0.9</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ164">
         <v>1.17</v>
@@ -35403,7 +35412,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ165">
         <v>1.05</v>
@@ -36021,10 +36030,10 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ168">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR168">
         <v>1.42</v>
@@ -36149,7 +36158,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36845,7 +36854,7 @@
         <v>2</v>
       </c>
       <c r="AP172">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ172">
         <v>1.47</v>
@@ -37179,7 +37188,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37669,10 +37678,10 @@
         <v>1.9</v>
       </c>
       <c r="AP176">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ176">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR176">
         <v>1.8</v>
@@ -37797,7 +37806,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -38081,10 +38090,10 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="AQ178">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38415,7 +38424,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38699,7 +38708,7 @@
         <v>1.62</v>
       </c>
       <c r="AP181">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ181">
         <v>1.28</v>
@@ -39114,7 +39123,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR183">
         <v>1.12</v>
@@ -39445,7 +39454,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39651,7 +39660,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39857,7 +39866,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -39935,7 +39944,7 @@
         <v>1.09</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
         <v>1.17</v>
@@ -40063,7 +40072,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40269,7 +40278,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40556,7 +40565,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR190">
         <v>1.13</v>
@@ -41174,7 +41183,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ193">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR193">
         <v>1.2</v>
@@ -41377,7 +41386,7 @@
         <v>0.89</v>
       </c>
       <c r="AP194">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ194">
         <v>1.05</v>
@@ -41505,7 +41514,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41711,7 +41720,7 @@
         <v>159</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>2.88</v>
@@ -42201,7 +42210,7 @@
         <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ198">
         <v>0.84</v>
@@ -42410,7 +42419,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR199">
         <v>1.17</v>
@@ -42741,7 +42750,7 @@
         <v>93</v>
       </c>
       <c r="P201" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q201">
         <v>5.5</v>
@@ -43028,7 +43037,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ202">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
         <v>1.43</v>
@@ -43153,7 +43162,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q203">
         <v>3.35</v>
@@ -43643,7 +43652,7 @@
         <v>0.92</v>
       </c>
       <c r="AP205">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ205">
         <v>0.67</v>
@@ -43849,7 +43858,7 @@
         <v>1.75</v>
       </c>
       <c r="AP206">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ206">
         <v>1.47</v>
@@ -44264,7 +44273,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR208">
         <v>1.42</v>
@@ -44595,7 +44604,7 @@
         <v>93</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q210">
         <v>6</v>
@@ -45213,7 +45222,7 @@
         <v>223</v>
       </c>
       <c r="P213" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45419,7 +45428,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45500,7 +45509,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ214">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45706,7 +45715,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ215">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -46037,7 +46046,7 @@
         <v>93</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q217">
         <v>6.2</v>
@@ -46321,7 +46330,7 @@
         <v>1.54</v>
       </c>
       <c r="AP218">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ218">
         <v>1.68</v>
@@ -46939,7 +46948,7 @@
         <v>1.38</v>
       </c>
       <c r="AP221">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ221">
         <v>1.28</v>
@@ -47273,7 +47282,7 @@
         <v>227</v>
       </c>
       <c r="P223" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q223">
         <v>3.08</v>
@@ -47763,7 +47772,7 @@
         <v>2.5</v>
       </c>
       <c r="AP225">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ225">
         <v>2.47</v>
@@ -47891,7 +47900,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q226">
         <v>3.2</v>
@@ -48097,7 +48106,7 @@
         <v>126</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q227">
         <v>2.75</v>
@@ -48178,7 +48187,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ227">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
         <v>1.39</v>
@@ -48381,7 +48390,7 @@
         <v>1.08</v>
       </c>
       <c r="AP228">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ228">
         <v>0.95</v>
@@ -48921,7 +48930,7 @@
         <v>231</v>
       </c>
       <c r="P231" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q231">
         <v>2.54</v>
@@ -49002,7 +49011,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ231">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR231">
         <v>1.38</v>
@@ -49208,7 +49217,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR232">
         <v>1.53</v>
@@ -49333,7 +49342,7 @@
         <v>232</v>
       </c>
       <c r="P233" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49951,7 +49960,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q236">
         <v>2.6</v>
@@ -50029,7 +50038,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP236">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ236">
         <v>0.84</v>
@@ -50981,7 +50990,7 @@
         <v>231</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -51265,7 +51274,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ242">
         <v>1.05</v>
@@ -51474,7 +51483,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR243">
         <v>1.38</v>
@@ -51677,10 +51686,10 @@
         <v>1.64</v>
       </c>
       <c r="AP244">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ244">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR244">
         <v>1.42</v>
@@ -52423,7 +52432,7 @@
         <v>136</v>
       </c>
       <c r="P248" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q248">
         <v>3</v>
@@ -52504,7 +52513,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ248">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR248">
         <v>1.5</v>
@@ -53531,7 +53540,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ253">
         <v>0.89</v>
@@ -54071,7 +54080,7 @@
         <v>93</v>
       </c>
       <c r="P256" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q256">
         <v>3.62</v>
@@ -54895,7 +54904,7 @@
         <v>93</v>
       </c>
       <c r="P260" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q260">
         <v>4.75</v>
@@ -54973,7 +54982,7 @@
         <v>2.07</v>
       </c>
       <c r="AP260">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ260">
         <v>2.11</v>
@@ -55101,7 +55110,7 @@
         <v>93</v>
       </c>
       <c r="P261" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q261">
         <v>3.98</v>
@@ -55388,7 +55397,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ262">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR262">
         <v>1.42</v>
@@ -55591,7 +55600,7 @@
         <v>0.86</v>
       </c>
       <c r="AP263">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ263">
         <v>1.05</v>
@@ -55800,7 +55809,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ264">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
         <v>1.24</v>
@@ -56212,7 +56221,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ266">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR266">
         <v>1.41</v>
@@ -56337,7 +56346,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q267">
         <v>3.95</v>
@@ -56749,7 +56758,7 @@
         <v>93</v>
       </c>
       <c r="P269" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -57779,7 +57788,7 @@
         <v>93</v>
       </c>
       <c r="P274" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q274">
         <v>5.5</v>
@@ -57985,7 +57994,7 @@
         <v>247</v>
       </c>
       <c r="P275" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q275">
         <v>1.67</v>
@@ -58063,7 +58072,7 @@
         <v>0.88</v>
       </c>
       <c r="AP275">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AQ275">
         <v>0.95</v>
@@ -58191,7 +58200,7 @@
         <v>248</v>
       </c>
       <c r="P276" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q276">
         <v>3.5</v>
@@ -58475,7 +58484,7 @@
         <v>1.41</v>
       </c>
       <c r="AP277">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ277">
         <v>1.39</v>
@@ -58681,7 +58690,7 @@
         <v>1.69</v>
       </c>
       <c r="AP278">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ278">
         <v>1.47</v>
@@ -58809,7 +58818,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q279">
         <v>3.2</v>
@@ -58890,7 +58899,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ279">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR279">
         <v>1.41</v>
@@ -59096,7 +59105,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ280">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR280">
         <v>1.12</v>
@@ -59427,7 +59436,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59508,7 +59517,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ282">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR282">
         <v>1.13</v>
@@ -60251,7 +60260,7 @@
         <v>197</v>
       </c>
       <c r="P286" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q286">
         <v>9.5</v>
@@ -60457,7 +60466,7 @@
         <v>253</v>
       </c>
       <c r="P287" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60663,7 +60672,7 @@
         <v>254</v>
       </c>
       <c r="P288" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q288">
         <v>3.15</v>
@@ -61281,7 +61290,7 @@
         <v>256</v>
       </c>
       <c r="P291" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q291">
         <v>3.6</v>
@@ -62056,6 +62065,624 @@
       </c>
       <c r="BP294">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7754641</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45626.875</v>
+      </c>
+      <c r="F295">
+        <v>15</v>
+      </c>
+      <c r="G295" t="s">
+        <v>80</v>
+      </c>
+      <c r="H295" t="s">
+        <v>71</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>3</v>
+      </c>
+      <c r="L295">
+        <v>3</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295" t="s">
+        <v>258</v>
+      </c>
+      <c r="P295" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q295">
+        <v>1.57</v>
+      </c>
+      <c r="R295">
+        <v>2.6</v>
+      </c>
+      <c r="S295">
+        <v>15</v>
+      </c>
+      <c r="T295">
+        <v>1.33</v>
+      </c>
+      <c r="U295">
+        <v>3.25</v>
+      </c>
+      <c r="V295">
+        <v>2.63</v>
+      </c>
+      <c r="W295">
+        <v>1.44</v>
+      </c>
+      <c r="X295">
+        <v>6.5</v>
+      </c>
+      <c r="Y295">
+        <v>1.11</v>
+      </c>
+      <c r="Z295">
+        <v>1.14</v>
+      </c>
+      <c r="AA295">
+        <v>5.32</v>
+      </c>
+      <c r="AB295">
+        <v>10.6</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>11</v>
+      </c>
+      <c r="AE295">
+        <v>1.25</v>
+      </c>
+      <c r="AF295">
+        <v>3.81</v>
+      </c>
+      <c r="AG295">
+        <v>1.85</v>
+      </c>
+      <c r="AH295">
+        <v>1.91</v>
+      </c>
+      <c r="AI295">
+        <v>3.25</v>
+      </c>
+      <c r="AJ295">
+        <v>1.33</v>
+      </c>
+      <c r="AK295">
+        <v>1.02</v>
+      </c>
+      <c r="AL295">
+        <v>1.07</v>
+      </c>
+      <c r="AM295">
+        <v>3.25</v>
+      </c>
+      <c r="AN295">
+        <v>2.44</v>
+      </c>
+      <c r="AO295">
+        <v>1.12</v>
+      </c>
+      <c r="AP295">
+        <v>2.47</v>
+      </c>
+      <c r="AQ295">
+        <v>1.06</v>
+      </c>
+      <c r="AR295">
+        <v>1.51</v>
+      </c>
+      <c r="AS295">
+        <v>1.26</v>
+      </c>
+      <c r="AT295">
+        <v>2.77</v>
+      </c>
+      <c r="AU295">
+        <v>6</v>
+      </c>
+      <c r="AV295">
+        <v>5</v>
+      </c>
+      <c r="AW295">
+        <v>5</v>
+      </c>
+      <c r="AX295">
+        <v>4</v>
+      </c>
+      <c r="AY295">
+        <v>11</v>
+      </c>
+      <c r="AZ295">
+        <v>9</v>
+      </c>
+      <c r="BA295">
+        <v>3</v>
+      </c>
+      <c r="BB295">
+        <v>5</v>
+      </c>
+      <c r="BC295">
+        <v>8</v>
+      </c>
+      <c r="BD295">
+        <v>1.14</v>
+      </c>
+      <c r="BE295">
+        <v>13</v>
+      </c>
+      <c r="BF295">
+        <v>6</v>
+      </c>
+      <c r="BG295">
+        <v>1.24</v>
+      </c>
+      <c r="BH295">
+        <v>3.22</v>
+      </c>
+      <c r="BI295">
+        <v>1.45</v>
+      </c>
+      <c r="BJ295">
+        <v>2.34</v>
+      </c>
+      <c r="BK295">
+        <v>1.91</v>
+      </c>
+      <c r="BL295">
+        <v>1.8</v>
+      </c>
+      <c r="BM295">
+        <v>2.29</v>
+      </c>
+      <c r="BN295">
+        <v>1.47</v>
+      </c>
+      <c r="BO295">
+        <v>3.08</v>
+      </c>
+      <c r="BP295">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7754640</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45627.40625</v>
+      </c>
+      <c r="F296">
+        <v>15</v>
+      </c>
+      <c r="G296" t="s">
+        <v>75</v>
+      </c>
+      <c r="H296" t="s">
+        <v>77</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>259</v>
+      </c>
+      <c r="P296" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q296">
+        <v>2.88</v>
+      </c>
+      <c r="R296">
+        <v>2</v>
+      </c>
+      <c r="S296">
+        <v>4.33</v>
+      </c>
+      <c r="T296">
+        <v>1.5</v>
+      </c>
+      <c r="U296">
+        <v>2.5</v>
+      </c>
+      <c r="V296">
+        <v>3.4</v>
+      </c>
+      <c r="W296">
+        <v>1.3</v>
+      </c>
+      <c r="X296">
+        <v>10</v>
+      </c>
+      <c r="Y296">
+        <v>1.06</v>
+      </c>
+      <c r="Z296">
+        <v>1.93</v>
+      </c>
+      <c r="AA296">
+        <v>3.31</v>
+      </c>
+      <c r="AB296">
+        <v>4</v>
+      </c>
+      <c r="AC296">
+        <v>1.07</v>
+      </c>
+      <c r="AD296">
+        <v>7.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.4</v>
+      </c>
+      <c r="AF296">
+        <v>2.8</v>
+      </c>
+      <c r="AG296">
+        <v>2.15</v>
+      </c>
+      <c r="AH296">
+        <v>1.57</v>
+      </c>
+      <c r="AI296">
+        <v>1.91</v>
+      </c>
+      <c r="AJ296">
+        <v>1.8</v>
+      </c>
+      <c r="AK296">
+        <v>1.25</v>
+      </c>
+      <c r="AL296">
+        <v>1.28</v>
+      </c>
+      <c r="AM296">
+        <v>1.55</v>
+      </c>
+      <c r="AN296">
+        <v>1</v>
+      </c>
+      <c r="AO296">
+        <v>1</v>
+      </c>
+      <c r="AP296">
+        <v>1.11</v>
+      </c>
+      <c r="AQ296">
+        <v>0.95</v>
+      </c>
+      <c r="AR296">
+        <v>1.35</v>
+      </c>
+      <c r="AS296">
+        <v>1.05</v>
+      </c>
+      <c r="AT296">
+        <v>2.4</v>
+      </c>
+      <c r="AU296">
+        <v>5</v>
+      </c>
+      <c r="AV296">
+        <v>3</v>
+      </c>
+      <c r="AW296">
+        <v>4</v>
+      </c>
+      <c r="AX296">
+        <v>4</v>
+      </c>
+      <c r="AY296">
+        <v>9</v>
+      </c>
+      <c r="AZ296">
+        <v>7</v>
+      </c>
+      <c r="BA296">
+        <v>2</v>
+      </c>
+      <c r="BB296">
+        <v>4</v>
+      </c>
+      <c r="BC296">
+        <v>6</v>
+      </c>
+      <c r="BD296">
+        <v>1.47</v>
+      </c>
+      <c r="BE296">
+        <v>6.9</v>
+      </c>
+      <c r="BF296">
+        <v>3.42</v>
+      </c>
+      <c r="BG296">
+        <v>1.21</v>
+      </c>
+      <c r="BH296">
+        <v>3.44</v>
+      </c>
+      <c r="BI296">
+        <v>1.42</v>
+      </c>
+      <c r="BJ296">
+        <v>2.42</v>
+      </c>
+      <c r="BK296">
+        <v>1.91</v>
+      </c>
+      <c r="BL296">
+        <v>1.8</v>
+      </c>
+      <c r="BM296">
+        <v>2.05</v>
+      </c>
+      <c r="BN296">
+        <v>1.7</v>
+      </c>
+      <c r="BO296">
+        <v>2.97</v>
+      </c>
+      <c r="BP296">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7754642</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45627.75</v>
+      </c>
+      <c r="F297">
+        <v>15</v>
+      </c>
+      <c r="G297" t="s">
+        <v>70</v>
+      </c>
+      <c r="H297" t="s">
+        <v>79</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>260</v>
+      </c>
+      <c r="P297" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q297">
+        <v>2</v>
+      </c>
+      <c r="R297">
+        <v>2.3</v>
+      </c>
+      <c r="S297">
+        <v>7</v>
+      </c>
+      <c r="T297">
+        <v>1.36</v>
+      </c>
+      <c r="U297">
+        <v>3</v>
+      </c>
+      <c r="V297">
+        <v>2.75</v>
+      </c>
+      <c r="W297">
+        <v>1.4</v>
+      </c>
+      <c r="X297">
+        <v>8</v>
+      </c>
+      <c r="Y297">
+        <v>1.08</v>
+      </c>
+      <c r="Z297">
+        <v>1.35</v>
+      </c>
+      <c r="AA297">
+        <v>3.84</v>
+      </c>
+      <c r="AB297">
+        <v>6.09</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>9</v>
+      </c>
+      <c r="AE297">
+        <v>1.27</v>
+      </c>
+      <c r="AF297">
+        <v>3.6</v>
+      </c>
+      <c r="AG297">
+        <v>1.84</v>
+      </c>
+      <c r="AH297">
+        <v>1.92</v>
+      </c>
+      <c r="AI297">
+        <v>2</v>
+      </c>
+      <c r="AJ297">
+        <v>1.73</v>
+      </c>
+      <c r="AK297">
+        <v>1.1</v>
+      </c>
+      <c r="AL297">
+        <v>1.17</v>
+      </c>
+      <c r="AM297">
+        <v>2.21</v>
+      </c>
+      <c r="AN297">
+        <v>2.42</v>
+      </c>
+      <c r="AO297">
+        <v>1.41</v>
+      </c>
+      <c r="AP297">
+        <v>2.45</v>
+      </c>
+      <c r="AQ297">
+        <v>1.33</v>
+      </c>
+      <c r="AR297">
+        <v>1.72</v>
+      </c>
+      <c r="AS297">
+        <v>1.17</v>
+      </c>
+      <c r="AT297">
+        <v>2.89</v>
+      </c>
+      <c r="AU297">
+        <v>10</v>
+      </c>
+      <c r="AV297">
+        <v>7</v>
+      </c>
+      <c r="AW297">
+        <v>9</v>
+      </c>
+      <c r="AX297">
+        <v>7</v>
+      </c>
+      <c r="AY297">
+        <v>19</v>
+      </c>
+      <c r="AZ297">
+        <v>14</v>
+      </c>
+      <c r="BA297">
+        <v>10</v>
+      </c>
+      <c r="BB297">
+        <v>4</v>
+      </c>
+      <c r="BC297">
+        <v>14</v>
+      </c>
+      <c r="BD297">
+        <v>1.1</v>
+      </c>
+      <c r="BE297">
+        <v>11</v>
+      </c>
+      <c r="BF297">
+        <v>7.8</v>
+      </c>
+      <c r="BG297">
+        <v>1.28</v>
+      </c>
+      <c r="BH297">
+        <v>3.3</v>
+      </c>
+      <c r="BI297">
+        <v>1.52</v>
+      </c>
+      <c r="BJ297">
+        <v>2.32</v>
+      </c>
+      <c r="BK297">
+        <v>1.92</v>
+      </c>
+      <c r="BL297">
+        <v>1.75</v>
+      </c>
+      <c r="BM297">
+        <v>2.6</v>
+      </c>
+      <c r="BN297">
+        <v>1.43</v>
+      </c>
+      <c r="BO297">
+        <v>3.7</v>
+      </c>
+      <c r="BP297">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -61801,7 +61801,7 @@
         <v>2.82</v>
       </c>
       <c r="AU293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV293">
         <v>4</v>
@@ -61813,10 +61813,10 @@
         <v>7</v>
       </c>
       <c r="AY293">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ293">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA293">
         <v>3</v>
@@ -62216,7 +62216,7 @@
         <v>5</v>
       </c>
       <c r="AV295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW295">
         <v>4</v>
@@ -62225,19 +62225,19 @@
         <v>4</v>
       </c>
       <c r="AY295">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ295">
+        <v>12</v>
+      </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>5</v>
+      </c>
+      <c r="BC295">
         <v>7</v>
-      </c>
-      <c r="BA295">
-        <v>2</v>
-      </c>
-      <c r="BB295">
-        <v>4</v>
-      </c>
-      <c r="BC295">
-        <v>6</v>
       </c>
       <c r="BD295">
         <v>1.47</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -799,7 +799,7 @@
     <t>['1', '24', '51']</t>
   </si>
   <si>
-    <t>['14', '44', '61']</t>
+    <t>['13', '43', '61']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -62738,7 +62738,7 @@
         <v>261</v>
       </c>
       <c r="P298" t="s">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="Q298">
         <v>4.33</v>
@@ -62831,22 +62831,22 @@
         <v>2.4</v>
       </c>
       <c r="AU298">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV298">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW298">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX298">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AY298">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ298">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="BA298">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -62831,22 +62831,22 @@
         <v>2.4</v>
       </c>
       <c r="AU298">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV298">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX298">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AY298">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ298">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="BA298">
         <v>3</v>
